--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10102_ログアウト.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10102_ログアウト.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB704CB9-0262-425B-976E-7236D37E5EB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC62F98-E9FB-48B7-8462-F828CB66B034}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -23,15 +23,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.2.取引単体'!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1429,16 +1421,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面遷移パターン(※1)</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UI部品動作確認</t>
     <rPh sb="2" eb="4">
       <t>ブヒン</t>
@@ -2401,6 +2383,16 @@
   </si>
   <si>
     <t>シナリオID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移パターン</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5740,6 +5732,84 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="38" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="40" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="39" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -5846,84 +5916,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="38" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="40" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="39" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -7411,55 +7403,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="385" t="s">
+      <c r="A1" s="411" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="386"/>
-      <c r="C1" s="386"/>
-      <c r="D1" s="387"/>
-      <c r="E1" s="388"/>
-      <c r="F1" s="389"/>
-      <c r="G1" s="389"/>
-      <c r="H1" s="389"/>
-      <c r="I1" s="389"/>
-      <c r="J1" s="389"/>
-      <c r="K1" s="389"/>
-      <c r="L1" s="389"/>
-      <c r="M1" s="389"/>
-      <c r="N1" s="390"/>
-      <c r="O1" s="394" t="s">
+      <c r="B1" s="412"/>
+      <c r="C1" s="412"/>
+      <c r="D1" s="413"/>
+      <c r="E1" s="414"/>
+      <c r="F1" s="415"/>
+      <c r="G1" s="415"/>
+      <c r="H1" s="415"/>
+      <c r="I1" s="415"/>
+      <c r="J1" s="415"/>
+      <c r="K1" s="415"/>
+      <c r="L1" s="415"/>
+      <c r="M1" s="415"/>
+      <c r="N1" s="416"/>
+      <c r="O1" s="420" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="395"/>
-      <c r="Q1" s="395"/>
-      <c r="R1" s="396"/>
-      <c r="S1" s="403" t="s">
+      <c r="P1" s="421"/>
+      <c r="Q1" s="421"/>
+      <c r="R1" s="422"/>
+      <c r="S1" s="429" t="s">
         <v>139</v>
       </c>
-      <c r="T1" s="404"/>
-      <c r="U1" s="404"/>
-      <c r="V1" s="404"/>
-      <c r="W1" s="404"/>
-      <c r="X1" s="404"/>
-      <c r="Y1" s="404"/>
-      <c r="Z1" s="405"/>
-      <c r="AA1" s="385" t="s">
+      <c r="T1" s="430"/>
+      <c r="U1" s="430"/>
+      <c r="V1" s="430"/>
+      <c r="W1" s="430"/>
+      <c r="X1" s="430"/>
+      <c r="Y1" s="430"/>
+      <c r="Z1" s="431"/>
+      <c r="AA1" s="411" t="s">
         <v>122</v>
       </c>
-      <c r="AB1" s="387"/>
-      <c r="AC1" s="412" t="str">
+      <c r="AB1" s="413"/>
+      <c r="AC1" s="438" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="413"/>
-      <c r="AE1" s="413"/>
-      <c r="AF1" s="414"/>
-      <c r="AG1" s="379">
+      <c r="AD1" s="439"/>
+      <c r="AE1" s="439"/>
+      <c r="AF1" s="440"/>
+      <c r="AG1" s="405">
         <f>IF(D8="","",D8)</f>
         <v>43737</v>
       </c>
-      <c r="AH1" s="380"/>
-      <c r="AI1" s="381"/>
+      <c r="AH1" s="406"/>
+      <c r="AI1" s="407"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -7467,51 +7459,51 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="385" t="s">
+      <c r="A2" s="411" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="386"/>
-      <c r="C2" s="386"/>
-      <c r="D2" s="387"/>
-      <c r="E2" s="388"/>
-      <c r="F2" s="389"/>
-      <c r="G2" s="389"/>
-      <c r="H2" s="389"/>
-      <c r="I2" s="389"/>
-      <c r="J2" s="389"/>
-      <c r="K2" s="389"/>
-      <c r="L2" s="389"/>
-      <c r="M2" s="389"/>
-      <c r="N2" s="390"/>
-      <c r="O2" s="397"/>
-      <c r="P2" s="398"/>
-      <c r="Q2" s="398"/>
-      <c r="R2" s="399"/>
-      <c r="S2" s="406"/>
-      <c r="T2" s="407"/>
-      <c r="U2" s="407"/>
-      <c r="V2" s="407"/>
-      <c r="W2" s="407"/>
-      <c r="X2" s="407"/>
-      <c r="Y2" s="407"/>
-      <c r="Z2" s="408"/>
-      <c r="AA2" s="385" t="s">
+      <c r="B2" s="412"/>
+      <c r="C2" s="412"/>
+      <c r="D2" s="413"/>
+      <c r="E2" s="414"/>
+      <c r="F2" s="415"/>
+      <c r="G2" s="415"/>
+      <c r="H2" s="415"/>
+      <c r="I2" s="415"/>
+      <c r="J2" s="415"/>
+      <c r="K2" s="415"/>
+      <c r="L2" s="415"/>
+      <c r="M2" s="415"/>
+      <c r="N2" s="416"/>
+      <c r="O2" s="423"/>
+      <c r="P2" s="424"/>
+      <c r="Q2" s="424"/>
+      <c r="R2" s="425"/>
+      <c r="S2" s="432"/>
+      <c r="T2" s="433"/>
+      <c r="U2" s="433"/>
+      <c r="V2" s="433"/>
+      <c r="W2" s="433"/>
+      <c r="X2" s="433"/>
+      <c r="Y2" s="433"/>
+      <c r="Z2" s="434"/>
+      <c r="AA2" s="411" t="s">
         <v>124</v>
       </c>
-      <c r="AB2" s="387"/>
-      <c r="AC2" s="391" t="str">
+      <c r="AB2" s="413"/>
+      <c r="AC2" s="417" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="392"/>
-      <c r="AE2" s="392"/>
-      <c r="AF2" s="393"/>
-      <c r="AG2" s="379" t="str">
+      <c r="AD2" s="418"/>
+      <c r="AE2" s="418"/>
+      <c r="AF2" s="419"/>
+      <c r="AG2" s="405" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="380"/>
-      <c r="AI2" s="381"/>
+      <c r="AH2" s="406"/>
+      <c r="AI2" s="407"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -7519,43 +7511,43 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="385" t="s">
+      <c r="A3" s="411" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="386"/>
-      <c r="C3" s="386"/>
-      <c r="D3" s="387"/>
-      <c r="E3" s="388"/>
-      <c r="F3" s="389"/>
-      <c r="G3" s="389"/>
-      <c r="H3" s="389"/>
-      <c r="I3" s="389"/>
-      <c r="J3" s="389"/>
-      <c r="K3" s="389"/>
-      <c r="L3" s="389"/>
-      <c r="M3" s="389"/>
-      <c r="N3" s="390"/>
-      <c r="O3" s="400"/>
-      <c r="P3" s="401"/>
-      <c r="Q3" s="401"/>
-      <c r="R3" s="402"/>
-      <c r="S3" s="409"/>
-      <c r="T3" s="410"/>
-      <c r="U3" s="410"/>
-      <c r="V3" s="410"/>
-      <c r="W3" s="410"/>
-      <c r="X3" s="410"/>
-      <c r="Y3" s="410"/>
-      <c r="Z3" s="411"/>
-      <c r="AA3" s="385"/>
-      <c r="AB3" s="387"/>
-      <c r="AC3" s="412"/>
-      <c r="AD3" s="413"/>
-      <c r="AE3" s="413"/>
-      <c r="AF3" s="414"/>
-      <c r="AG3" s="379"/>
-      <c r="AH3" s="380"/>
-      <c r="AI3" s="381"/>
+      <c r="B3" s="412"/>
+      <c r="C3" s="412"/>
+      <c r="D3" s="413"/>
+      <c r="E3" s="414"/>
+      <c r="F3" s="415"/>
+      <c r="G3" s="415"/>
+      <c r="H3" s="415"/>
+      <c r="I3" s="415"/>
+      <c r="J3" s="415"/>
+      <c r="K3" s="415"/>
+      <c r="L3" s="415"/>
+      <c r="M3" s="415"/>
+      <c r="N3" s="416"/>
+      <c r="O3" s="426"/>
+      <c r="P3" s="427"/>
+      <c r="Q3" s="427"/>
+      <c r="R3" s="428"/>
+      <c r="S3" s="435"/>
+      <c r="T3" s="436"/>
+      <c r="U3" s="436"/>
+      <c r="V3" s="436"/>
+      <c r="W3" s="436"/>
+      <c r="X3" s="436"/>
+      <c r="Y3" s="436"/>
+      <c r="Z3" s="437"/>
+      <c r="AA3" s="411"/>
+      <c r="AB3" s="413"/>
+      <c r="AC3" s="438"/>
+      <c r="AD3" s="439"/>
+      <c r="AE3" s="439"/>
+      <c r="AF3" s="440"/>
+      <c r="AG3" s="405"/>
+      <c r="AH3" s="406"/>
+      <c r="AI3" s="407"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -7592,1190 +7584,1034 @@
       <c r="A7" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="382" t="s">
+      <c r="B7" s="408" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="383"/>
-      <c r="D7" s="382" t="s">
+      <c r="C7" s="409"/>
+      <c r="D7" s="408" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="384"/>
-      <c r="F7" s="383"/>
-      <c r="G7" s="382" t="s">
+      <c r="E7" s="410"/>
+      <c r="F7" s="409"/>
+      <c r="G7" s="408" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="384"/>
-      <c r="I7" s="383"/>
-      <c r="J7" s="382" t="s">
+      <c r="H7" s="410"/>
+      <c r="I7" s="409"/>
+      <c r="J7" s="408" t="s">
         <v>130</v>
       </c>
-      <c r="K7" s="384"/>
-      <c r="L7" s="384"/>
-      <c r="M7" s="384"/>
-      <c r="N7" s="384"/>
-      <c r="O7" s="384"/>
-      <c r="P7" s="383"/>
-      <c r="Q7" s="382" t="s">
+      <c r="K7" s="410"/>
+      <c r="L7" s="410"/>
+      <c r="M7" s="410"/>
+      <c r="N7" s="410"/>
+      <c r="O7" s="410"/>
+      <c r="P7" s="409"/>
+      <c r="Q7" s="408" t="s">
         <v>131</v>
       </c>
-      <c r="R7" s="384"/>
-      <c r="S7" s="384"/>
-      <c r="T7" s="384"/>
-      <c r="U7" s="384"/>
-      <c r="V7" s="384"/>
-      <c r="W7" s="384"/>
-      <c r="X7" s="384"/>
-      <c r="Y7" s="384"/>
-      <c r="Z7" s="384"/>
-      <c r="AA7" s="384"/>
-      <c r="AB7" s="384"/>
-      <c r="AC7" s="384"/>
-      <c r="AD7" s="384"/>
-      <c r="AE7" s="383"/>
-      <c r="AF7" s="382" t="s">
+      <c r="R7" s="410"/>
+      <c r="S7" s="410"/>
+      <c r="T7" s="410"/>
+      <c r="U7" s="410"/>
+      <c r="V7" s="410"/>
+      <c r="W7" s="410"/>
+      <c r="X7" s="410"/>
+      <c r="Y7" s="410"/>
+      <c r="Z7" s="410"/>
+      <c r="AA7" s="410"/>
+      <c r="AB7" s="410"/>
+      <c r="AC7" s="410"/>
+      <c r="AD7" s="410"/>
+      <c r="AE7" s="409"/>
+      <c r="AF7" s="408" t="s">
         <v>132</v>
       </c>
-      <c r="AG7" s="384"/>
-      <c r="AH7" s="384"/>
-      <c r="AI7" s="383"/>
+      <c r="AG7" s="410"/>
+      <c r="AH7" s="410"/>
+      <c r="AI7" s="409"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="427" t="s">
+      <c r="B8" s="392" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="393"/>
+      <c r="D8" s="394">
+        <v>43737</v>
+      </c>
+      <c r="E8" s="395"/>
+      <c r="F8" s="396"/>
+      <c r="G8" s="397" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="428"/>
-      <c r="D8" s="429">
-        <v>43737</v>
-      </c>
-      <c r="E8" s="430"/>
-      <c r="F8" s="431"/>
-      <c r="G8" s="432" t="s">
+      <c r="H8" s="398"/>
+      <c r="I8" s="393"/>
+      <c r="J8" s="399" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="433"/>
-      <c r="I8" s="428"/>
-      <c r="J8" s="434" t="s">
+      <c r="K8" s="400"/>
+      <c r="L8" s="400"/>
+      <c r="M8" s="400"/>
+      <c r="N8" s="400"/>
+      <c r="O8" s="400"/>
+      <c r="P8" s="401"/>
+      <c r="Q8" s="402" t="s">
         <v>173</v>
       </c>
-      <c r="K8" s="435"/>
-      <c r="L8" s="435"/>
-      <c r="M8" s="435"/>
-      <c r="N8" s="435"/>
-      <c r="O8" s="435"/>
-      <c r="P8" s="436"/>
-      <c r="Q8" s="437" t="s">
+      <c r="R8" s="403"/>
+      <c r="S8" s="403"/>
+      <c r="T8" s="403"/>
+      <c r="U8" s="403"/>
+      <c r="V8" s="403"/>
+      <c r="W8" s="403"/>
+      <c r="X8" s="403"/>
+      <c r="Y8" s="403"/>
+      <c r="Z8" s="403"/>
+      <c r="AA8" s="403"/>
+      <c r="AB8" s="403"/>
+      <c r="AC8" s="403"/>
+      <c r="AD8" s="403"/>
+      <c r="AE8" s="404"/>
+      <c r="AF8" s="399" t="s">
         <v>174</v>
       </c>
-      <c r="R8" s="438"/>
-      <c r="S8" s="438"/>
-      <c r="T8" s="438"/>
-      <c r="U8" s="438"/>
-      <c r="V8" s="438"/>
-      <c r="W8" s="438"/>
-      <c r="X8" s="438"/>
-      <c r="Y8" s="438"/>
-      <c r="Z8" s="438"/>
-      <c r="AA8" s="438"/>
-      <c r="AB8" s="438"/>
-      <c r="AC8" s="438"/>
-      <c r="AD8" s="438"/>
-      <c r="AE8" s="439"/>
-      <c r="AF8" s="434" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG8" s="435"/>
-      <c r="AH8" s="435"/>
-      <c r="AI8" s="436"/>
+      <c r="AG8" s="400"/>
+      <c r="AH8" s="400"/>
+      <c r="AI8" s="401"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="415"/>
-      <c r="C9" s="416"/>
-      <c r="D9" s="417"/>
-      <c r="E9" s="418"/>
-      <c r="F9" s="419"/>
-      <c r="G9" s="417"/>
-      <c r="H9" s="420"/>
-      <c r="I9" s="416"/>
-      <c r="J9" s="421"/>
-      <c r="K9" s="422"/>
-      <c r="L9" s="422"/>
-      <c r="M9" s="422"/>
-      <c r="N9" s="422"/>
-      <c r="O9" s="422"/>
-      <c r="P9" s="423"/>
-      <c r="Q9" s="424"/>
-      <c r="R9" s="425"/>
-      <c r="S9" s="425"/>
-      <c r="T9" s="425"/>
-      <c r="U9" s="425"/>
-      <c r="V9" s="425"/>
-      <c r="W9" s="425"/>
-      <c r="X9" s="425"/>
-      <c r="Y9" s="425"/>
-      <c r="Z9" s="425"/>
-      <c r="AA9" s="425"/>
-      <c r="AB9" s="425"/>
-      <c r="AC9" s="425"/>
-      <c r="AD9" s="425"/>
-      <c r="AE9" s="426"/>
-      <c r="AF9" s="421"/>
-      <c r="AG9" s="422"/>
-      <c r="AH9" s="422"/>
-      <c r="AI9" s="423"/>
+      <c r="B9" s="379"/>
+      <c r="C9" s="380"/>
+      <c r="D9" s="381"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="383"/>
+      <c r="G9" s="381"/>
+      <c r="H9" s="384"/>
+      <c r="I9" s="380"/>
+      <c r="J9" s="385"/>
+      <c r="K9" s="386"/>
+      <c r="L9" s="386"/>
+      <c r="M9" s="386"/>
+      <c r="N9" s="386"/>
+      <c r="O9" s="386"/>
+      <c r="P9" s="387"/>
+      <c r="Q9" s="388"/>
+      <c r="R9" s="389"/>
+      <c r="S9" s="389"/>
+      <c r="T9" s="389"/>
+      <c r="U9" s="389"/>
+      <c r="V9" s="389"/>
+      <c r="W9" s="389"/>
+      <c r="X9" s="389"/>
+      <c r="Y9" s="389"/>
+      <c r="Z9" s="389"/>
+      <c r="AA9" s="389"/>
+      <c r="AB9" s="389"/>
+      <c r="AC9" s="389"/>
+      <c r="AD9" s="389"/>
+      <c r="AE9" s="390"/>
+      <c r="AF9" s="385"/>
+      <c r="AG9" s="386"/>
+      <c r="AH9" s="386"/>
+      <c r="AI9" s="387"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="415"/>
-      <c r="C10" s="416"/>
-      <c r="D10" s="417"/>
-      <c r="E10" s="418"/>
-      <c r="F10" s="419"/>
-      <c r="G10" s="415"/>
-      <c r="H10" s="420"/>
-      <c r="I10" s="416"/>
-      <c r="J10" s="421"/>
-      <c r="K10" s="422"/>
-      <c r="L10" s="422"/>
-      <c r="M10" s="422"/>
-      <c r="N10" s="422"/>
-      <c r="O10" s="422"/>
-      <c r="P10" s="423"/>
-      <c r="Q10" s="424"/>
-      <c r="R10" s="425"/>
-      <c r="S10" s="425"/>
-      <c r="T10" s="425"/>
-      <c r="U10" s="425"/>
-      <c r="V10" s="425"/>
-      <c r="W10" s="425"/>
-      <c r="X10" s="425"/>
-      <c r="Y10" s="425"/>
-      <c r="Z10" s="425"/>
-      <c r="AA10" s="425"/>
-      <c r="AB10" s="425"/>
-      <c r="AC10" s="425"/>
-      <c r="AD10" s="425"/>
-      <c r="AE10" s="426"/>
-      <c r="AF10" s="421"/>
-      <c r="AG10" s="422"/>
-      <c r="AH10" s="422"/>
-      <c r="AI10" s="423"/>
+      <c r="B10" s="379"/>
+      <c r="C10" s="380"/>
+      <c r="D10" s="381"/>
+      <c r="E10" s="382"/>
+      <c r="F10" s="383"/>
+      <c r="G10" s="379"/>
+      <c r="H10" s="384"/>
+      <c r="I10" s="380"/>
+      <c r="J10" s="385"/>
+      <c r="K10" s="386"/>
+      <c r="L10" s="386"/>
+      <c r="M10" s="386"/>
+      <c r="N10" s="386"/>
+      <c r="O10" s="386"/>
+      <c r="P10" s="387"/>
+      <c r="Q10" s="388"/>
+      <c r="R10" s="389"/>
+      <c r="S10" s="389"/>
+      <c r="T10" s="389"/>
+      <c r="U10" s="389"/>
+      <c r="V10" s="389"/>
+      <c r="W10" s="389"/>
+      <c r="X10" s="389"/>
+      <c r="Y10" s="389"/>
+      <c r="Z10" s="389"/>
+      <c r="AA10" s="389"/>
+      <c r="AB10" s="389"/>
+      <c r="AC10" s="389"/>
+      <c r="AD10" s="389"/>
+      <c r="AE10" s="390"/>
+      <c r="AF10" s="385"/>
+      <c r="AG10" s="386"/>
+      <c r="AH10" s="386"/>
+      <c r="AI10" s="387"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="415"/>
-      <c r="C11" s="416"/>
-      <c r="D11" s="417"/>
-      <c r="E11" s="418"/>
-      <c r="F11" s="419"/>
-      <c r="G11" s="415"/>
-      <c r="H11" s="420"/>
-      <c r="I11" s="416"/>
-      <c r="J11" s="421"/>
-      <c r="K11" s="422"/>
-      <c r="L11" s="422"/>
-      <c r="M11" s="422"/>
-      <c r="N11" s="422"/>
-      <c r="O11" s="422"/>
-      <c r="P11" s="423"/>
-      <c r="Q11" s="424"/>
-      <c r="R11" s="425"/>
-      <c r="S11" s="425"/>
-      <c r="T11" s="425"/>
-      <c r="U11" s="425"/>
-      <c r="V11" s="425"/>
-      <c r="W11" s="425"/>
-      <c r="X11" s="425"/>
-      <c r="Y11" s="425"/>
-      <c r="Z11" s="425"/>
-      <c r="AA11" s="425"/>
-      <c r="AB11" s="425"/>
-      <c r="AC11" s="425"/>
-      <c r="AD11" s="425"/>
-      <c r="AE11" s="426"/>
-      <c r="AF11" s="421"/>
-      <c r="AG11" s="422"/>
-      <c r="AH11" s="422"/>
-      <c r="AI11" s="423"/>
+      <c r="B11" s="379"/>
+      <c r="C11" s="380"/>
+      <c r="D11" s="381"/>
+      <c r="E11" s="382"/>
+      <c r="F11" s="383"/>
+      <c r="G11" s="379"/>
+      <c r="H11" s="384"/>
+      <c r="I11" s="380"/>
+      <c r="J11" s="385"/>
+      <c r="K11" s="386"/>
+      <c r="L11" s="386"/>
+      <c r="M11" s="386"/>
+      <c r="N11" s="386"/>
+      <c r="O11" s="386"/>
+      <c r="P11" s="387"/>
+      <c r="Q11" s="388"/>
+      <c r="R11" s="389"/>
+      <c r="S11" s="389"/>
+      <c r="T11" s="389"/>
+      <c r="U11" s="389"/>
+      <c r="V11" s="389"/>
+      <c r="W11" s="389"/>
+      <c r="X11" s="389"/>
+      <c r="Y11" s="389"/>
+      <c r="Z11" s="389"/>
+      <c r="AA11" s="389"/>
+      <c r="AB11" s="389"/>
+      <c r="AC11" s="389"/>
+      <c r="AD11" s="389"/>
+      <c r="AE11" s="390"/>
+      <c r="AF11" s="385"/>
+      <c r="AG11" s="386"/>
+      <c r="AH11" s="386"/>
+      <c r="AI11" s="387"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="415"/>
-      <c r="C12" s="416"/>
-      <c r="D12" s="417"/>
-      <c r="E12" s="418"/>
-      <c r="F12" s="419"/>
-      <c r="G12" s="415"/>
-      <c r="H12" s="420"/>
-      <c r="I12" s="416"/>
-      <c r="J12" s="421"/>
-      <c r="K12" s="422"/>
-      <c r="L12" s="422"/>
-      <c r="M12" s="422"/>
-      <c r="N12" s="422"/>
-      <c r="O12" s="422"/>
-      <c r="P12" s="423"/>
-      <c r="Q12" s="424"/>
-      <c r="R12" s="425"/>
-      <c r="S12" s="425"/>
-      <c r="T12" s="425"/>
-      <c r="U12" s="425"/>
-      <c r="V12" s="425"/>
-      <c r="W12" s="425"/>
-      <c r="X12" s="425"/>
-      <c r="Y12" s="425"/>
-      <c r="Z12" s="425"/>
-      <c r="AA12" s="425"/>
-      <c r="AB12" s="425"/>
-      <c r="AC12" s="425"/>
-      <c r="AD12" s="425"/>
-      <c r="AE12" s="426"/>
-      <c r="AF12" s="421"/>
-      <c r="AG12" s="422"/>
-      <c r="AH12" s="422"/>
-      <c r="AI12" s="423"/>
+      <c r="B12" s="379"/>
+      <c r="C12" s="380"/>
+      <c r="D12" s="381"/>
+      <c r="E12" s="382"/>
+      <c r="F12" s="383"/>
+      <c r="G12" s="379"/>
+      <c r="H12" s="384"/>
+      <c r="I12" s="380"/>
+      <c r="J12" s="385"/>
+      <c r="K12" s="386"/>
+      <c r="L12" s="386"/>
+      <c r="M12" s="386"/>
+      <c r="N12" s="386"/>
+      <c r="O12" s="386"/>
+      <c r="P12" s="387"/>
+      <c r="Q12" s="388"/>
+      <c r="R12" s="389"/>
+      <c r="S12" s="389"/>
+      <c r="T12" s="389"/>
+      <c r="U12" s="389"/>
+      <c r="V12" s="389"/>
+      <c r="W12" s="389"/>
+      <c r="X12" s="389"/>
+      <c r="Y12" s="389"/>
+      <c r="Z12" s="389"/>
+      <c r="AA12" s="389"/>
+      <c r="AB12" s="389"/>
+      <c r="AC12" s="389"/>
+      <c r="AD12" s="389"/>
+      <c r="AE12" s="390"/>
+      <c r="AF12" s="385"/>
+      <c r="AG12" s="386"/>
+      <c r="AH12" s="386"/>
+      <c r="AI12" s="387"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="415"/>
-      <c r="C13" s="416"/>
-      <c r="D13" s="417"/>
-      <c r="E13" s="418"/>
-      <c r="F13" s="419"/>
-      <c r="G13" s="415"/>
-      <c r="H13" s="420"/>
-      <c r="I13" s="416"/>
-      <c r="J13" s="421"/>
-      <c r="K13" s="422"/>
-      <c r="L13" s="422"/>
-      <c r="M13" s="422"/>
-      <c r="N13" s="422"/>
-      <c r="O13" s="422"/>
-      <c r="P13" s="423"/>
-      <c r="Q13" s="424"/>
-      <c r="R13" s="425"/>
-      <c r="S13" s="425"/>
-      <c r="T13" s="425"/>
-      <c r="U13" s="425"/>
-      <c r="V13" s="425"/>
-      <c r="W13" s="425"/>
-      <c r="X13" s="425"/>
-      <c r="Y13" s="425"/>
-      <c r="Z13" s="425"/>
-      <c r="AA13" s="425"/>
-      <c r="AB13" s="425"/>
-      <c r="AC13" s="425"/>
-      <c r="AD13" s="425"/>
-      <c r="AE13" s="426"/>
-      <c r="AF13" s="421"/>
-      <c r="AG13" s="422"/>
-      <c r="AH13" s="422"/>
-      <c r="AI13" s="423"/>
+      <c r="B13" s="379"/>
+      <c r="C13" s="380"/>
+      <c r="D13" s="381"/>
+      <c r="E13" s="382"/>
+      <c r="F13" s="383"/>
+      <c r="G13" s="379"/>
+      <c r="H13" s="384"/>
+      <c r="I13" s="380"/>
+      <c r="J13" s="385"/>
+      <c r="K13" s="386"/>
+      <c r="L13" s="386"/>
+      <c r="M13" s="386"/>
+      <c r="N13" s="386"/>
+      <c r="O13" s="386"/>
+      <c r="P13" s="387"/>
+      <c r="Q13" s="388"/>
+      <c r="R13" s="389"/>
+      <c r="S13" s="389"/>
+      <c r="T13" s="389"/>
+      <c r="U13" s="389"/>
+      <c r="V13" s="389"/>
+      <c r="W13" s="389"/>
+      <c r="X13" s="389"/>
+      <c r="Y13" s="389"/>
+      <c r="Z13" s="389"/>
+      <c r="AA13" s="389"/>
+      <c r="AB13" s="389"/>
+      <c r="AC13" s="389"/>
+      <c r="AD13" s="389"/>
+      <c r="AE13" s="390"/>
+      <c r="AF13" s="385"/>
+      <c r="AG13" s="386"/>
+      <c r="AH13" s="386"/>
+      <c r="AI13" s="387"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="415"/>
-      <c r="C14" s="416"/>
-      <c r="D14" s="417"/>
-      <c r="E14" s="418"/>
-      <c r="F14" s="419"/>
-      <c r="G14" s="415"/>
-      <c r="H14" s="420"/>
-      <c r="I14" s="416"/>
-      <c r="J14" s="421"/>
-      <c r="K14" s="422"/>
-      <c r="L14" s="422"/>
-      <c r="M14" s="422"/>
-      <c r="N14" s="422"/>
-      <c r="O14" s="422"/>
-      <c r="P14" s="423"/>
-      <c r="Q14" s="424"/>
-      <c r="R14" s="425"/>
-      <c r="S14" s="425"/>
-      <c r="T14" s="425"/>
-      <c r="U14" s="425"/>
-      <c r="V14" s="425"/>
-      <c r="W14" s="425"/>
-      <c r="X14" s="425"/>
-      <c r="Y14" s="425"/>
-      <c r="Z14" s="425"/>
-      <c r="AA14" s="425"/>
-      <c r="AB14" s="425"/>
-      <c r="AC14" s="425"/>
-      <c r="AD14" s="425"/>
-      <c r="AE14" s="426"/>
-      <c r="AF14" s="421"/>
-      <c r="AG14" s="422"/>
-      <c r="AH14" s="422"/>
-      <c r="AI14" s="423"/>
+      <c r="B14" s="379"/>
+      <c r="C14" s="380"/>
+      <c r="D14" s="381"/>
+      <c r="E14" s="382"/>
+      <c r="F14" s="383"/>
+      <c r="G14" s="379"/>
+      <c r="H14" s="384"/>
+      <c r="I14" s="380"/>
+      <c r="J14" s="385"/>
+      <c r="K14" s="386"/>
+      <c r="L14" s="386"/>
+      <c r="M14" s="386"/>
+      <c r="N14" s="386"/>
+      <c r="O14" s="386"/>
+      <c r="P14" s="387"/>
+      <c r="Q14" s="388"/>
+      <c r="R14" s="389"/>
+      <c r="S14" s="389"/>
+      <c r="T14" s="389"/>
+      <c r="U14" s="389"/>
+      <c r="V14" s="389"/>
+      <c r="W14" s="389"/>
+      <c r="X14" s="389"/>
+      <c r="Y14" s="389"/>
+      <c r="Z14" s="389"/>
+      <c r="AA14" s="389"/>
+      <c r="AB14" s="389"/>
+      <c r="AC14" s="389"/>
+      <c r="AD14" s="389"/>
+      <c r="AE14" s="390"/>
+      <c r="AF14" s="385"/>
+      <c r="AG14" s="386"/>
+      <c r="AH14" s="386"/>
+      <c r="AI14" s="387"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="415"/>
-      <c r="C15" s="416"/>
-      <c r="D15" s="417"/>
-      <c r="E15" s="418"/>
-      <c r="F15" s="419"/>
-      <c r="G15" s="415"/>
-      <c r="H15" s="420"/>
-      <c r="I15" s="416"/>
-      <c r="J15" s="421"/>
-      <c r="K15" s="422"/>
-      <c r="L15" s="422"/>
-      <c r="M15" s="422"/>
-      <c r="N15" s="422"/>
-      <c r="O15" s="422"/>
-      <c r="P15" s="423"/>
-      <c r="Q15" s="424"/>
-      <c r="R15" s="425"/>
-      <c r="S15" s="425"/>
-      <c r="T15" s="425"/>
-      <c r="U15" s="425"/>
-      <c r="V15" s="425"/>
-      <c r="W15" s="425"/>
-      <c r="X15" s="425"/>
-      <c r="Y15" s="425"/>
-      <c r="Z15" s="425"/>
-      <c r="AA15" s="425"/>
-      <c r="AB15" s="425"/>
-      <c r="AC15" s="425"/>
-      <c r="AD15" s="425"/>
-      <c r="AE15" s="426"/>
-      <c r="AF15" s="421"/>
-      <c r="AG15" s="422"/>
-      <c r="AH15" s="422"/>
-      <c r="AI15" s="423"/>
+      <c r="B15" s="379"/>
+      <c r="C15" s="380"/>
+      <c r="D15" s="381"/>
+      <c r="E15" s="382"/>
+      <c r="F15" s="383"/>
+      <c r="G15" s="379"/>
+      <c r="H15" s="384"/>
+      <c r="I15" s="380"/>
+      <c r="J15" s="385"/>
+      <c r="K15" s="386"/>
+      <c r="L15" s="386"/>
+      <c r="M15" s="386"/>
+      <c r="N15" s="386"/>
+      <c r="O15" s="386"/>
+      <c r="P15" s="387"/>
+      <c r="Q15" s="388"/>
+      <c r="R15" s="389"/>
+      <c r="S15" s="389"/>
+      <c r="T15" s="389"/>
+      <c r="U15" s="389"/>
+      <c r="V15" s="389"/>
+      <c r="W15" s="389"/>
+      <c r="X15" s="389"/>
+      <c r="Y15" s="389"/>
+      <c r="Z15" s="389"/>
+      <c r="AA15" s="389"/>
+      <c r="AB15" s="389"/>
+      <c r="AC15" s="389"/>
+      <c r="AD15" s="389"/>
+      <c r="AE15" s="390"/>
+      <c r="AF15" s="385"/>
+      <c r="AG15" s="386"/>
+      <c r="AH15" s="386"/>
+      <c r="AI15" s="387"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="415"/>
-      <c r="C16" s="416"/>
-      <c r="D16" s="417"/>
-      <c r="E16" s="418"/>
-      <c r="F16" s="419"/>
-      <c r="G16" s="415"/>
-      <c r="H16" s="420"/>
-      <c r="I16" s="416"/>
-      <c r="J16" s="421"/>
-      <c r="K16" s="422"/>
-      <c r="L16" s="422"/>
-      <c r="M16" s="422"/>
-      <c r="N16" s="422"/>
-      <c r="O16" s="422"/>
-      <c r="P16" s="423"/>
-      <c r="Q16" s="424"/>
-      <c r="R16" s="425"/>
-      <c r="S16" s="425"/>
-      <c r="T16" s="425"/>
-      <c r="U16" s="425"/>
-      <c r="V16" s="425"/>
-      <c r="W16" s="425"/>
-      <c r="X16" s="425"/>
-      <c r="Y16" s="425"/>
-      <c r="Z16" s="425"/>
-      <c r="AA16" s="425"/>
-      <c r="AB16" s="425"/>
-      <c r="AC16" s="425"/>
-      <c r="AD16" s="425"/>
-      <c r="AE16" s="426"/>
-      <c r="AF16" s="421"/>
-      <c r="AG16" s="422"/>
-      <c r="AH16" s="422"/>
-      <c r="AI16" s="423"/>
+      <c r="B16" s="379"/>
+      <c r="C16" s="380"/>
+      <c r="D16" s="381"/>
+      <c r="E16" s="382"/>
+      <c r="F16" s="383"/>
+      <c r="G16" s="379"/>
+      <c r="H16" s="384"/>
+      <c r="I16" s="380"/>
+      <c r="J16" s="385"/>
+      <c r="K16" s="386"/>
+      <c r="L16" s="386"/>
+      <c r="M16" s="386"/>
+      <c r="N16" s="386"/>
+      <c r="O16" s="386"/>
+      <c r="P16" s="387"/>
+      <c r="Q16" s="388"/>
+      <c r="R16" s="389"/>
+      <c r="S16" s="389"/>
+      <c r="T16" s="389"/>
+      <c r="U16" s="389"/>
+      <c r="V16" s="389"/>
+      <c r="W16" s="389"/>
+      <c r="X16" s="389"/>
+      <c r="Y16" s="389"/>
+      <c r="Z16" s="389"/>
+      <c r="AA16" s="389"/>
+      <c r="AB16" s="389"/>
+      <c r="AC16" s="389"/>
+      <c r="AD16" s="389"/>
+      <c r="AE16" s="390"/>
+      <c r="AF16" s="385"/>
+      <c r="AG16" s="386"/>
+      <c r="AH16" s="386"/>
+      <c r="AI16" s="387"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="415"/>
-      <c r="C17" s="416"/>
-      <c r="D17" s="417"/>
-      <c r="E17" s="418"/>
-      <c r="F17" s="419"/>
-      <c r="G17" s="415"/>
-      <c r="H17" s="420"/>
-      <c r="I17" s="416"/>
-      <c r="J17" s="421"/>
-      <c r="K17" s="422"/>
-      <c r="L17" s="422"/>
-      <c r="M17" s="422"/>
-      <c r="N17" s="422"/>
-      <c r="O17" s="422"/>
-      <c r="P17" s="423"/>
-      <c r="Q17" s="424"/>
-      <c r="R17" s="425"/>
-      <c r="S17" s="425"/>
-      <c r="T17" s="425"/>
-      <c r="U17" s="425"/>
-      <c r="V17" s="425"/>
-      <c r="W17" s="425"/>
-      <c r="X17" s="425"/>
-      <c r="Y17" s="425"/>
-      <c r="Z17" s="425"/>
-      <c r="AA17" s="425"/>
-      <c r="AB17" s="425"/>
-      <c r="AC17" s="425"/>
-      <c r="AD17" s="425"/>
-      <c r="AE17" s="426"/>
-      <c r="AF17" s="421"/>
-      <c r="AG17" s="422"/>
-      <c r="AH17" s="422"/>
-      <c r="AI17" s="423"/>
+      <c r="B17" s="379"/>
+      <c r="C17" s="380"/>
+      <c r="D17" s="381"/>
+      <c r="E17" s="382"/>
+      <c r="F17" s="383"/>
+      <c r="G17" s="379"/>
+      <c r="H17" s="384"/>
+      <c r="I17" s="380"/>
+      <c r="J17" s="385"/>
+      <c r="K17" s="386"/>
+      <c r="L17" s="386"/>
+      <c r="M17" s="386"/>
+      <c r="N17" s="386"/>
+      <c r="O17" s="386"/>
+      <c r="P17" s="387"/>
+      <c r="Q17" s="388"/>
+      <c r="R17" s="389"/>
+      <c r="S17" s="389"/>
+      <c r="T17" s="389"/>
+      <c r="U17" s="389"/>
+      <c r="V17" s="389"/>
+      <c r="W17" s="389"/>
+      <c r="X17" s="389"/>
+      <c r="Y17" s="389"/>
+      <c r="Z17" s="389"/>
+      <c r="AA17" s="389"/>
+      <c r="AB17" s="389"/>
+      <c r="AC17" s="389"/>
+      <c r="AD17" s="389"/>
+      <c r="AE17" s="390"/>
+      <c r="AF17" s="385"/>
+      <c r="AG17" s="386"/>
+      <c r="AH17" s="386"/>
+      <c r="AI17" s="387"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="415"/>
-      <c r="C18" s="416"/>
-      <c r="D18" s="417"/>
-      <c r="E18" s="418"/>
-      <c r="F18" s="419"/>
-      <c r="G18" s="415"/>
-      <c r="H18" s="420"/>
-      <c r="I18" s="416"/>
-      <c r="J18" s="421"/>
-      <c r="K18" s="422"/>
-      <c r="L18" s="422"/>
-      <c r="M18" s="422"/>
-      <c r="N18" s="422"/>
-      <c r="O18" s="422"/>
-      <c r="P18" s="423"/>
-      <c r="Q18" s="424"/>
-      <c r="R18" s="425"/>
-      <c r="S18" s="425"/>
-      <c r="T18" s="425"/>
-      <c r="U18" s="425"/>
-      <c r="V18" s="425"/>
-      <c r="W18" s="425"/>
-      <c r="X18" s="425"/>
-      <c r="Y18" s="425"/>
-      <c r="Z18" s="425"/>
-      <c r="AA18" s="425"/>
-      <c r="AB18" s="425"/>
-      <c r="AC18" s="425"/>
-      <c r="AD18" s="425"/>
-      <c r="AE18" s="426"/>
-      <c r="AF18" s="421"/>
-      <c r="AG18" s="422"/>
-      <c r="AH18" s="422"/>
-      <c r="AI18" s="423"/>
+      <c r="B18" s="379"/>
+      <c r="C18" s="380"/>
+      <c r="D18" s="381"/>
+      <c r="E18" s="382"/>
+      <c r="F18" s="383"/>
+      <c r="G18" s="379"/>
+      <c r="H18" s="384"/>
+      <c r="I18" s="380"/>
+      <c r="J18" s="385"/>
+      <c r="K18" s="386"/>
+      <c r="L18" s="386"/>
+      <c r="M18" s="386"/>
+      <c r="N18" s="386"/>
+      <c r="O18" s="386"/>
+      <c r="P18" s="387"/>
+      <c r="Q18" s="388"/>
+      <c r="R18" s="389"/>
+      <c r="S18" s="389"/>
+      <c r="T18" s="389"/>
+      <c r="U18" s="389"/>
+      <c r="V18" s="389"/>
+      <c r="W18" s="389"/>
+      <c r="X18" s="389"/>
+      <c r="Y18" s="389"/>
+      <c r="Z18" s="389"/>
+      <c r="AA18" s="389"/>
+      <c r="AB18" s="389"/>
+      <c r="AC18" s="389"/>
+      <c r="AD18" s="389"/>
+      <c r="AE18" s="390"/>
+      <c r="AF18" s="385"/>
+      <c r="AG18" s="386"/>
+      <c r="AH18" s="386"/>
+      <c r="AI18" s="387"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="415"/>
-      <c r="C19" s="416"/>
-      <c r="D19" s="417"/>
-      <c r="E19" s="418"/>
-      <c r="F19" s="419"/>
-      <c r="G19" s="415"/>
-      <c r="H19" s="420"/>
-      <c r="I19" s="416"/>
-      <c r="J19" s="421"/>
-      <c r="K19" s="422"/>
-      <c r="L19" s="422"/>
-      <c r="M19" s="422"/>
-      <c r="N19" s="422"/>
-      <c r="O19" s="422"/>
-      <c r="P19" s="423"/>
-      <c r="Q19" s="424"/>
-      <c r="R19" s="425"/>
-      <c r="S19" s="425"/>
-      <c r="T19" s="425"/>
-      <c r="U19" s="425"/>
-      <c r="V19" s="425"/>
-      <c r="W19" s="425"/>
-      <c r="X19" s="425"/>
-      <c r="Y19" s="425"/>
-      <c r="Z19" s="425"/>
-      <c r="AA19" s="425"/>
-      <c r="AB19" s="425"/>
-      <c r="AC19" s="425"/>
-      <c r="AD19" s="425"/>
-      <c r="AE19" s="426"/>
-      <c r="AF19" s="421"/>
-      <c r="AG19" s="422"/>
-      <c r="AH19" s="422"/>
-      <c r="AI19" s="423"/>
+      <c r="B19" s="379"/>
+      <c r="C19" s="380"/>
+      <c r="D19" s="381"/>
+      <c r="E19" s="382"/>
+      <c r="F19" s="383"/>
+      <c r="G19" s="379"/>
+      <c r="H19" s="384"/>
+      <c r="I19" s="380"/>
+      <c r="J19" s="385"/>
+      <c r="K19" s="386"/>
+      <c r="L19" s="386"/>
+      <c r="M19" s="386"/>
+      <c r="N19" s="386"/>
+      <c r="O19" s="386"/>
+      <c r="P19" s="387"/>
+      <c r="Q19" s="388"/>
+      <c r="R19" s="389"/>
+      <c r="S19" s="389"/>
+      <c r="T19" s="389"/>
+      <c r="U19" s="389"/>
+      <c r="V19" s="389"/>
+      <c r="W19" s="389"/>
+      <c r="X19" s="389"/>
+      <c r="Y19" s="389"/>
+      <c r="Z19" s="389"/>
+      <c r="AA19" s="389"/>
+      <c r="AB19" s="389"/>
+      <c r="AC19" s="389"/>
+      <c r="AD19" s="389"/>
+      <c r="AE19" s="390"/>
+      <c r="AF19" s="385"/>
+      <c r="AG19" s="386"/>
+      <c r="AH19" s="386"/>
+      <c r="AI19" s="387"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="415"/>
-      <c r="C20" s="416"/>
-      <c r="D20" s="417"/>
-      <c r="E20" s="418"/>
-      <c r="F20" s="419"/>
-      <c r="G20" s="415"/>
-      <c r="H20" s="420"/>
-      <c r="I20" s="416"/>
-      <c r="J20" s="421"/>
-      <c r="K20" s="422"/>
-      <c r="L20" s="422"/>
-      <c r="M20" s="422"/>
-      <c r="N20" s="422"/>
-      <c r="O20" s="422"/>
-      <c r="P20" s="423"/>
-      <c r="Q20" s="424"/>
-      <c r="R20" s="425"/>
-      <c r="S20" s="425"/>
-      <c r="T20" s="425"/>
-      <c r="U20" s="425"/>
-      <c r="V20" s="425"/>
-      <c r="W20" s="425"/>
-      <c r="X20" s="425"/>
-      <c r="Y20" s="425"/>
-      <c r="Z20" s="425"/>
-      <c r="AA20" s="425"/>
-      <c r="AB20" s="425"/>
-      <c r="AC20" s="425"/>
-      <c r="AD20" s="425"/>
-      <c r="AE20" s="426"/>
-      <c r="AF20" s="421"/>
-      <c r="AG20" s="422"/>
-      <c r="AH20" s="422"/>
-      <c r="AI20" s="423"/>
+      <c r="B20" s="379"/>
+      <c r="C20" s="380"/>
+      <c r="D20" s="381"/>
+      <c r="E20" s="382"/>
+      <c r="F20" s="383"/>
+      <c r="G20" s="379"/>
+      <c r="H20" s="384"/>
+      <c r="I20" s="380"/>
+      <c r="J20" s="385"/>
+      <c r="K20" s="386"/>
+      <c r="L20" s="386"/>
+      <c r="M20" s="386"/>
+      <c r="N20" s="386"/>
+      <c r="O20" s="386"/>
+      <c r="P20" s="387"/>
+      <c r="Q20" s="388"/>
+      <c r="R20" s="389"/>
+      <c r="S20" s="389"/>
+      <c r="T20" s="389"/>
+      <c r="U20" s="389"/>
+      <c r="V20" s="389"/>
+      <c r="W20" s="389"/>
+      <c r="X20" s="389"/>
+      <c r="Y20" s="389"/>
+      <c r="Z20" s="389"/>
+      <c r="AA20" s="389"/>
+      <c r="AB20" s="389"/>
+      <c r="AC20" s="389"/>
+      <c r="AD20" s="389"/>
+      <c r="AE20" s="390"/>
+      <c r="AF20" s="385"/>
+      <c r="AG20" s="386"/>
+      <c r="AH20" s="386"/>
+      <c r="AI20" s="387"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="415"/>
-      <c r="C21" s="416"/>
-      <c r="D21" s="417"/>
-      <c r="E21" s="418"/>
-      <c r="F21" s="419"/>
-      <c r="G21" s="415"/>
-      <c r="H21" s="420"/>
-      <c r="I21" s="416"/>
-      <c r="J21" s="421"/>
-      <c r="K21" s="422"/>
-      <c r="L21" s="422"/>
-      <c r="M21" s="422"/>
-      <c r="N21" s="422"/>
-      <c r="O21" s="422"/>
-      <c r="P21" s="423"/>
-      <c r="Q21" s="424"/>
-      <c r="R21" s="425"/>
-      <c r="S21" s="425"/>
-      <c r="T21" s="425"/>
-      <c r="U21" s="425"/>
-      <c r="V21" s="425"/>
-      <c r="W21" s="425"/>
-      <c r="X21" s="425"/>
-      <c r="Y21" s="425"/>
-      <c r="Z21" s="425"/>
-      <c r="AA21" s="425"/>
-      <c r="AB21" s="425"/>
-      <c r="AC21" s="425"/>
-      <c r="AD21" s="425"/>
-      <c r="AE21" s="426"/>
-      <c r="AF21" s="421"/>
-      <c r="AG21" s="422"/>
-      <c r="AH21" s="422"/>
-      <c r="AI21" s="423"/>
+      <c r="B21" s="379"/>
+      <c r="C21" s="380"/>
+      <c r="D21" s="381"/>
+      <c r="E21" s="382"/>
+      <c r="F21" s="383"/>
+      <c r="G21" s="379"/>
+      <c r="H21" s="384"/>
+      <c r="I21" s="380"/>
+      <c r="J21" s="385"/>
+      <c r="K21" s="386"/>
+      <c r="L21" s="386"/>
+      <c r="M21" s="386"/>
+      <c r="N21" s="386"/>
+      <c r="O21" s="386"/>
+      <c r="P21" s="387"/>
+      <c r="Q21" s="388"/>
+      <c r="R21" s="389"/>
+      <c r="S21" s="389"/>
+      <c r="T21" s="389"/>
+      <c r="U21" s="389"/>
+      <c r="V21" s="389"/>
+      <c r="W21" s="389"/>
+      <c r="X21" s="389"/>
+      <c r="Y21" s="389"/>
+      <c r="Z21" s="389"/>
+      <c r="AA21" s="389"/>
+      <c r="AB21" s="389"/>
+      <c r="AC21" s="389"/>
+      <c r="AD21" s="389"/>
+      <c r="AE21" s="390"/>
+      <c r="AF21" s="385"/>
+      <c r="AG21" s="386"/>
+      <c r="AH21" s="386"/>
+      <c r="AI21" s="387"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="415"/>
-      <c r="C22" s="416"/>
-      <c r="D22" s="417"/>
-      <c r="E22" s="418"/>
-      <c r="F22" s="419"/>
-      <c r="G22" s="415"/>
-      <c r="H22" s="420"/>
-      <c r="I22" s="416"/>
-      <c r="J22" s="421"/>
-      <c r="K22" s="422"/>
-      <c r="L22" s="422"/>
-      <c r="M22" s="422"/>
-      <c r="N22" s="422"/>
-      <c r="O22" s="422"/>
-      <c r="P22" s="423"/>
-      <c r="Q22" s="424"/>
-      <c r="R22" s="425"/>
-      <c r="S22" s="425"/>
-      <c r="T22" s="425"/>
-      <c r="U22" s="425"/>
-      <c r="V22" s="425"/>
-      <c r="W22" s="425"/>
-      <c r="X22" s="425"/>
-      <c r="Y22" s="425"/>
-      <c r="Z22" s="425"/>
-      <c r="AA22" s="425"/>
-      <c r="AB22" s="425"/>
-      <c r="AC22" s="425"/>
-      <c r="AD22" s="425"/>
-      <c r="AE22" s="426"/>
-      <c r="AF22" s="421"/>
-      <c r="AG22" s="422"/>
-      <c r="AH22" s="422"/>
-      <c r="AI22" s="423"/>
+      <c r="B22" s="379"/>
+      <c r="C22" s="380"/>
+      <c r="D22" s="381"/>
+      <c r="E22" s="382"/>
+      <c r="F22" s="383"/>
+      <c r="G22" s="379"/>
+      <c r="H22" s="384"/>
+      <c r="I22" s="380"/>
+      <c r="J22" s="385"/>
+      <c r="K22" s="386"/>
+      <c r="L22" s="386"/>
+      <c r="M22" s="386"/>
+      <c r="N22" s="386"/>
+      <c r="O22" s="386"/>
+      <c r="P22" s="387"/>
+      <c r="Q22" s="388"/>
+      <c r="R22" s="389"/>
+      <c r="S22" s="389"/>
+      <c r="T22" s="389"/>
+      <c r="U22" s="389"/>
+      <c r="V22" s="389"/>
+      <c r="W22" s="389"/>
+      <c r="X22" s="389"/>
+      <c r="Y22" s="389"/>
+      <c r="Z22" s="389"/>
+      <c r="AA22" s="389"/>
+      <c r="AB22" s="389"/>
+      <c r="AC22" s="389"/>
+      <c r="AD22" s="389"/>
+      <c r="AE22" s="390"/>
+      <c r="AF22" s="385"/>
+      <c r="AG22" s="386"/>
+      <c r="AH22" s="386"/>
+      <c r="AI22" s="387"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="415"/>
-      <c r="C23" s="416"/>
-      <c r="D23" s="417"/>
-      <c r="E23" s="418"/>
-      <c r="F23" s="419"/>
-      <c r="G23" s="415"/>
-      <c r="H23" s="420"/>
-      <c r="I23" s="416"/>
-      <c r="J23" s="421"/>
-      <c r="K23" s="422"/>
-      <c r="L23" s="422"/>
-      <c r="M23" s="422"/>
-      <c r="N23" s="422"/>
-      <c r="O23" s="422"/>
-      <c r="P23" s="423"/>
-      <c r="Q23" s="424"/>
-      <c r="R23" s="425"/>
-      <c r="S23" s="425"/>
-      <c r="T23" s="425"/>
-      <c r="U23" s="425"/>
-      <c r="V23" s="425"/>
-      <c r="W23" s="425"/>
-      <c r="X23" s="425"/>
-      <c r="Y23" s="425"/>
-      <c r="Z23" s="425"/>
-      <c r="AA23" s="425"/>
-      <c r="AB23" s="425"/>
-      <c r="AC23" s="425"/>
-      <c r="AD23" s="425"/>
-      <c r="AE23" s="426"/>
-      <c r="AF23" s="421"/>
-      <c r="AG23" s="422"/>
-      <c r="AH23" s="422"/>
-      <c r="AI23" s="423"/>
+      <c r="B23" s="379"/>
+      <c r="C23" s="380"/>
+      <c r="D23" s="381"/>
+      <c r="E23" s="382"/>
+      <c r="F23" s="383"/>
+      <c r="G23" s="379"/>
+      <c r="H23" s="384"/>
+      <c r="I23" s="380"/>
+      <c r="J23" s="385"/>
+      <c r="K23" s="386"/>
+      <c r="L23" s="386"/>
+      <c r="M23" s="386"/>
+      <c r="N23" s="386"/>
+      <c r="O23" s="386"/>
+      <c r="P23" s="387"/>
+      <c r="Q23" s="388"/>
+      <c r="R23" s="389"/>
+      <c r="S23" s="389"/>
+      <c r="T23" s="389"/>
+      <c r="U23" s="389"/>
+      <c r="V23" s="389"/>
+      <c r="W23" s="389"/>
+      <c r="X23" s="389"/>
+      <c r="Y23" s="389"/>
+      <c r="Z23" s="389"/>
+      <c r="AA23" s="389"/>
+      <c r="AB23" s="389"/>
+      <c r="AC23" s="389"/>
+      <c r="AD23" s="389"/>
+      <c r="AE23" s="390"/>
+      <c r="AF23" s="385"/>
+      <c r="AG23" s="386"/>
+      <c r="AH23" s="386"/>
+      <c r="AI23" s="387"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="415"/>
-      <c r="C24" s="416"/>
-      <c r="D24" s="417"/>
-      <c r="E24" s="418"/>
-      <c r="F24" s="419"/>
-      <c r="G24" s="415"/>
-      <c r="H24" s="420"/>
-      <c r="I24" s="416"/>
-      <c r="J24" s="421"/>
-      <c r="K24" s="422"/>
-      <c r="L24" s="422"/>
-      <c r="M24" s="422"/>
-      <c r="N24" s="422"/>
-      <c r="O24" s="422"/>
-      <c r="P24" s="423"/>
-      <c r="Q24" s="424"/>
-      <c r="R24" s="425"/>
-      <c r="S24" s="425"/>
-      <c r="T24" s="425"/>
-      <c r="U24" s="425"/>
-      <c r="V24" s="425"/>
-      <c r="W24" s="425"/>
-      <c r="X24" s="425"/>
-      <c r="Y24" s="425"/>
-      <c r="Z24" s="425"/>
-      <c r="AA24" s="425"/>
-      <c r="AB24" s="425"/>
-      <c r="AC24" s="425"/>
-      <c r="AD24" s="425"/>
-      <c r="AE24" s="426"/>
-      <c r="AF24" s="421"/>
-      <c r="AG24" s="422"/>
-      <c r="AH24" s="422"/>
-      <c r="AI24" s="423"/>
+      <c r="B24" s="379"/>
+      <c r="C24" s="380"/>
+      <c r="D24" s="381"/>
+      <c r="E24" s="382"/>
+      <c r="F24" s="383"/>
+      <c r="G24" s="379"/>
+      <c r="H24" s="384"/>
+      <c r="I24" s="380"/>
+      <c r="J24" s="385"/>
+      <c r="K24" s="386"/>
+      <c r="L24" s="386"/>
+      <c r="M24" s="386"/>
+      <c r="N24" s="386"/>
+      <c r="O24" s="386"/>
+      <c r="P24" s="387"/>
+      <c r="Q24" s="388"/>
+      <c r="R24" s="389"/>
+      <c r="S24" s="389"/>
+      <c r="T24" s="389"/>
+      <c r="U24" s="389"/>
+      <c r="V24" s="389"/>
+      <c r="W24" s="389"/>
+      <c r="X24" s="389"/>
+      <c r="Y24" s="389"/>
+      <c r="Z24" s="389"/>
+      <c r="AA24" s="389"/>
+      <c r="AB24" s="389"/>
+      <c r="AC24" s="389"/>
+      <c r="AD24" s="389"/>
+      <c r="AE24" s="390"/>
+      <c r="AF24" s="385"/>
+      <c r="AG24" s="386"/>
+      <c r="AH24" s="386"/>
+      <c r="AI24" s="387"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="415"/>
-      <c r="C25" s="416"/>
-      <c r="D25" s="417"/>
-      <c r="E25" s="418"/>
-      <c r="F25" s="419"/>
-      <c r="G25" s="415"/>
-      <c r="H25" s="420"/>
-      <c r="I25" s="416"/>
-      <c r="J25" s="421"/>
-      <c r="K25" s="422"/>
-      <c r="L25" s="422"/>
-      <c r="M25" s="422"/>
-      <c r="N25" s="422"/>
-      <c r="O25" s="422"/>
-      <c r="P25" s="423"/>
-      <c r="Q25" s="424"/>
-      <c r="R25" s="425"/>
-      <c r="S25" s="425"/>
-      <c r="T25" s="425"/>
-      <c r="U25" s="425"/>
-      <c r="V25" s="425"/>
-      <c r="W25" s="425"/>
-      <c r="X25" s="425"/>
-      <c r="Y25" s="425"/>
-      <c r="Z25" s="425"/>
-      <c r="AA25" s="425"/>
-      <c r="AB25" s="425"/>
-      <c r="AC25" s="425"/>
-      <c r="AD25" s="425"/>
-      <c r="AE25" s="426"/>
-      <c r="AF25" s="421"/>
-      <c r="AG25" s="422"/>
-      <c r="AH25" s="422"/>
-      <c r="AI25" s="423"/>
+      <c r="B25" s="379"/>
+      <c r="C25" s="380"/>
+      <c r="D25" s="381"/>
+      <c r="E25" s="382"/>
+      <c r="F25" s="383"/>
+      <c r="G25" s="379"/>
+      <c r="H25" s="384"/>
+      <c r="I25" s="380"/>
+      <c r="J25" s="385"/>
+      <c r="K25" s="386"/>
+      <c r="L25" s="386"/>
+      <c r="M25" s="386"/>
+      <c r="N25" s="386"/>
+      <c r="O25" s="386"/>
+      <c r="P25" s="387"/>
+      <c r="Q25" s="388"/>
+      <c r="R25" s="389"/>
+      <c r="S25" s="389"/>
+      <c r="T25" s="389"/>
+      <c r="U25" s="389"/>
+      <c r="V25" s="389"/>
+      <c r="W25" s="389"/>
+      <c r="X25" s="389"/>
+      <c r="Y25" s="389"/>
+      <c r="Z25" s="389"/>
+      <c r="AA25" s="389"/>
+      <c r="AB25" s="389"/>
+      <c r="AC25" s="389"/>
+      <c r="AD25" s="389"/>
+      <c r="AE25" s="390"/>
+      <c r="AF25" s="385"/>
+      <c r="AG25" s="386"/>
+      <c r="AH25" s="386"/>
+      <c r="AI25" s="387"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="415"/>
-      <c r="C26" s="416"/>
-      <c r="D26" s="417"/>
-      <c r="E26" s="418"/>
-      <c r="F26" s="419"/>
-      <c r="G26" s="415"/>
-      <c r="H26" s="420"/>
-      <c r="I26" s="416"/>
-      <c r="J26" s="421"/>
-      <c r="K26" s="422"/>
-      <c r="L26" s="422"/>
-      <c r="M26" s="422"/>
-      <c r="N26" s="422"/>
-      <c r="O26" s="422"/>
-      <c r="P26" s="423"/>
-      <c r="Q26" s="424"/>
-      <c r="R26" s="425"/>
-      <c r="S26" s="425"/>
-      <c r="T26" s="425"/>
-      <c r="U26" s="425"/>
-      <c r="V26" s="425"/>
-      <c r="W26" s="425"/>
-      <c r="X26" s="425"/>
-      <c r="Y26" s="425"/>
-      <c r="Z26" s="425"/>
-      <c r="AA26" s="425"/>
-      <c r="AB26" s="425"/>
-      <c r="AC26" s="425"/>
-      <c r="AD26" s="425"/>
-      <c r="AE26" s="426"/>
-      <c r="AF26" s="421"/>
-      <c r="AG26" s="422"/>
-      <c r="AH26" s="422"/>
-      <c r="AI26" s="423"/>
+      <c r="B26" s="379"/>
+      <c r="C26" s="380"/>
+      <c r="D26" s="381"/>
+      <c r="E26" s="382"/>
+      <c r="F26" s="383"/>
+      <c r="G26" s="379"/>
+      <c r="H26" s="384"/>
+      <c r="I26" s="380"/>
+      <c r="J26" s="385"/>
+      <c r="K26" s="386"/>
+      <c r="L26" s="386"/>
+      <c r="M26" s="386"/>
+      <c r="N26" s="386"/>
+      <c r="O26" s="386"/>
+      <c r="P26" s="387"/>
+      <c r="Q26" s="388"/>
+      <c r="R26" s="389"/>
+      <c r="S26" s="389"/>
+      <c r="T26" s="389"/>
+      <c r="U26" s="389"/>
+      <c r="V26" s="389"/>
+      <c r="W26" s="389"/>
+      <c r="X26" s="389"/>
+      <c r="Y26" s="389"/>
+      <c r="Z26" s="389"/>
+      <c r="AA26" s="389"/>
+      <c r="AB26" s="389"/>
+      <c r="AC26" s="389"/>
+      <c r="AD26" s="389"/>
+      <c r="AE26" s="390"/>
+      <c r="AF26" s="385"/>
+      <c r="AG26" s="386"/>
+      <c r="AH26" s="386"/>
+      <c r="AI26" s="387"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="415"/>
-      <c r="C27" s="416"/>
-      <c r="D27" s="417"/>
-      <c r="E27" s="418"/>
-      <c r="F27" s="419"/>
-      <c r="G27" s="415"/>
-      <c r="H27" s="420"/>
-      <c r="I27" s="416"/>
-      <c r="J27" s="421"/>
-      <c r="K27" s="422"/>
-      <c r="L27" s="422"/>
-      <c r="M27" s="422"/>
-      <c r="N27" s="422"/>
-      <c r="O27" s="422"/>
-      <c r="P27" s="423"/>
-      <c r="Q27" s="424"/>
-      <c r="R27" s="425"/>
-      <c r="S27" s="425"/>
-      <c r="T27" s="425"/>
-      <c r="U27" s="425"/>
-      <c r="V27" s="425"/>
-      <c r="W27" s="425"/>
-      <c r="X27" s="425"/>
-      <c r="Y27" s="425"/>
-      <c r="Z27" s="425"/>
-      <c r="AA27" s="425"/>
-      <c r="AB27" s="425"/>
-      <c r="AC27" s="425"/>
-      <c r="AD27" s="425"/>
-      <c r="AE27" s="426"/>
-      <c r="AF27" s="421"/>
-      <c r="AG27" s="422"/>
-      <c r="AH27" s="422"/>
-      <c r="AI27" s="423"/>
+      <c r="B27" s="379"/>
+      <c r="C27" s="380"/>
+      <c r="D27" s="381"/>
+      <c r="E27" s="382"/>
+      <c r="F27" s="383"/>
+      <c r="G27" s="379"/>
+      <c r="H27" s="384"/>
+      <c r="I27" s="380"/>
+      <c r="J27" s="385"/>
+      <c r="K27" s="386"/>
+      <c r="L27" s="386"/>
+      <c r="M27" s="386"/>
+      <c r="N27" s="386"/>
+      <c r="O27" s="386"/>
+      <c r="P27" s="387"/>
+      <c r="Q27" s="388"/>
+      <c r="R27" s="389"/>
+      <c r="S27" s="389"/>
+      <c r="T27" s="389"/>
+      <c r="U27" s="389"/>
+      <c r="V27" s="389"/>
+      <c r="W27" s="389"/>
+      <c r="X27" s="389"/>
+      <c r="Y27" s="389"/>
+      <c r="Z27" s="389"/>
+      <c r="AA27" s="389"/>
+      <c r="AB27" s="389"/>
+      <c r="AC27" s="389"/>
+      <c r="AD27" s="389"/>
+      <c r="AE27" s="390"/>
+      <c r="AF27" s="385"/>
+      <c r="AG27" s="386"/>
+      <c r="AH27" s="386"/>
+      <c r="AI27" s="387"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="415"/>
-      <c r="C28" s="416"/>
-      <c r="D28" s="417"/>
-      <c r="E28" s="418"/>
-      <c r="F28" s="419"/>
-      <c r="G28" s="415"/>
-      <c r="H28" s="420"/>
-      <c r="I28" s="416"/>
-      <c r="J28" s="421"/>
-      <c r="K28" s="422"/>
-      <c r="L28" s="422"/>
-      <c r="M28" s="422"/>
-      <c r="N28" s="422"/>
-      <c r="O28" s="422"/>
-      <c r="P28" s="423"/>
-      <c r="Q28" s="424"/>
-      <c r="R28" s="425"/>
-      <c r="S28" s="425"/>
-      <c r="T28" s="425"/>
-      <c r="U28" s="425"/>
-      <c r="V28" s="425"/>
-      <c r="W28" s="425"/>
-      <c r="X28" s="425"/>
-      <c r="Y28" s="425"/>
-      <c r="Z28" s="425"/>
-      <c r="AA28" s="425"/>
-      <c r="AB28" s="425"/>
-      <c r="AC28" s="425"/>
-      <c r="AD28" s="425"/>
-      <c r="AE28" s="426"/>
-      <c r="AF28" s="421"/>
-      <c r="AG28" s="422"/>
-      <c r="AH28" s="422"/>
-      <c r="AI28" s="423"/>
+      <c r="B28" s="379"/>
+      <c r="C28" s="380"/>
+      <c r="D28" s="381"/>
+      <c r="E28" s="382"/>
+      <c r="F28" s="383"/>
+      <c r="G28" s="379"/>
+      <c r="H28" s="384"/>
+      <c r="I28" s="380"/>
+      <c r="J28" s="385"/>
+      <c r="K28" s="386"/>
+      <c r="L28" s="386"/>
+      <c r="M28" s="386"/>
+      <c r="N28" s="386"/>
+      <c r="O28" s="386"/>
+      <c r="P28" s="387"/>
+      <c r="Q28" s="388"/>
+      <c r="R28" s="389"/>
+      <c r="S28" s="389"/>
+      <c r="T28" s="389"/>
+      <c r="U28" s="389"/>
+      <c r="V28" s="389"/>
+      <c r="W28" s="389"/>
+      <c r="X28" s="389"/>
+      <c r="Y28" s="389"/>
+      <c r="Z28" s="389"/>
+      <c r="AA28" s="389"/>
+      <c r="AB28" s="389"/>
+      <c r="AC28" s="389"/>
+      <c r="AD28" s="389"/>
+      <c r="AE28" s="390"/>
+      <c r="AF28" s="385"/>
+      <c r="AG28" s="386"/>
+      <c r="AH28" s="386"/>
+      <c r="AI28" s="387"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="415"/>
-      <c r="C29" s="416"/>
-      <c r="D29" s="417"/>
-      <c r="E29" s="418"/>
-      <c r="F29" s="419"/>
-      <c r="G29" s="415"/>
-      <c r="H29" s="420"/>
-      <c r="I29" s="416"/>
-      <c r="J29" s="421"/>
-      <c r="K29" s="422"/>
-      <c r="L29" s="422"/>
-      <c r="M29" s="422"/>
-      <c r="N29" s="422"/>
-      <c r="O29" s="422"/>
-      <c r="P29" s="423"/>
-      <c r="Q29" s="424"/>
-      <c r="R29" s="425"/>
-      <c r="S29" s="425"/>
-      <c r="T29" s="425"/>
-      <c r="U29" s="425"/>
-      <c r="V29" s="425"/>
-      <c r="W29" s="425"/>
-      <c r="X29" s="425"/>
-      <c r="Y29" s="425"/>
-      <c r="Z29" s="425"/>
-      <c r="AA29" s="425"/>
-      <c r="AB29" s="425"/>
-      <c r="AC29" s="425"/>
-      <c r="AD29" s="425"/>
-      <c r="AE29" s="426"/>
-      <c r="AF29" s="421"/>
-      <c r="AG29" s="422"/>
-      <c r="AH29" s="422"/>
-      <c r="AI29" s="423"/>
+      <c r="B29" s="379"/>
+      <c r="C29" s="380"/>
+      <c r="D29" s="381"/>
+      <c r="E29" s="382"/>
+      <c r="F29" s="383"/>
+      <c r="G29" s="379"/>
+      <c r="H29" s="384"/>
+      <c r="I29" s="380"/>
+      <c r="J29" s="385"/>
+      <c r="K29" s="386"/>
+      <c r="L29" s="386"/>
+      <c r="M29" s="386"/>
+      <c r="N29" s="386"/>
+      <c r="O29" s="386"/>
+      <c r="P29" s="387"/>
+      <c r="Q29" s="388"/>
+      <c r="R29" s="389"/>
+      <c r="S29" s="389"/>
+      <c r="T29" s="389"/>
+      <c r="U29" s="389"/>
+      <c r="V29" s="389"/>
+      <c r="W29" s="389"/>
+      <c r="X29" s="389"/>
+      <c r="Y29" s="389"/>
+      <c r="Z29" s="389"/>
+      <c r="AA29" s="389"/>
+      <c r="AB29" s="389"/>
+      <c r="AC29" s="389"/>
+      <c r="AD29" s="389"/>
+      <c r="AE29" s="390"/>
+      <c r="AF29" s="385"/>
+      <c r="AG29" s="386"/>
+      <c r="AH29" s="386"/>
+      <c r="AI29" s="387"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="415"/>
-      <c r="C30" s="416"/>
-      <c r="D30" s="417"/>
-      <c r="E30" s="418"/>
-      <c r="F30" s="419"/>
-      <c r="G30" s="415"/>
-      <c r="H30" s="420"/>
-      <c r="I30" s="416"/>
-      <c r="J30" s="421"/>
-      <c r="K30" s="422"/>
-      <c r="L30" s="422"/>
-      <c r="M30" s="422"/>
-      <c r="N30" s="422"/>
-      <c r="O30" s="422"/>
-      <c r="P30" s="423"/>
-      <c r="Q30" s="424"/>
-      <c r="R30" s="425"/>
-      <c r="S30" s="425"/>
-      <c r="T30" s="425"/>
-      <c r="U30" s="425"/>
-      <c r="V30" s="425"/>
-      <c r="W30" s="425"/>
-      <c r="X30" s="425"/>
-      <c r="Y30" s="425"/>
-      <c r="Z30" s="425"/>
-      <c r="AA30" s="425"/>
-      <c r="AB30" s="425"/>
-      <c r="AC30" s="425"/>
-      <c r="AD30" s="425"/>
-      <c r="AE30" s="426"/>
-      <c r="AF30" s="421"/>
-      <c r="AG30" s="422"/>
-      <c r="AH30" s="422"/>
-      <c r="AI30" s="423"/>
+      <c r="B30" s="379"/>
+      <c r="C30" s="380"/>
+      <c r="D30" s="381"/>
+      <c r="E30" s="382"/>
+      <c r="F30" s="383"/>
+      <c r="G30" s="379"/>
+      <c r="H30" s="384"/>
+      <c r="I30" s="380"/>
+      <c r="J30" s="385"/>
+      <c r="K30" s="386"/>
+      <c r="L30" s="386"/>
+      <c r="M30" s="386"/>
+      <c r="N30" s="386"/>
+      <c r="O30" s="386"/>
+      <c r="P30" s="387"/>
+      <c r="Q30" s="388"/>
+      <c r="R30" s="389"/>
+      <c r="S30" s="389"/>
+      <c r="T30" s="389"/>
+      <c r="U30" s="389"/>
+      <c r="V30" s="389"/>
+      <c r="W30" s="389"/>
+      <c r="X30" s="389"/>
+      <c r="Y30" s="389"/>
+      <c r="Z30" s="389"/>
+      <c r="AA30" s="389"/>
+      <c r="AB30" s="389"/>
+      <c r="AC30" s="389"/>
+      <c r="AD30" s="389"/>
+      <c r="AE30" s="390"/>
+      <c r="AF30" s="385"/>
+      <c r="AG30" s="386"/>
+      <c r="AH30" s="386"/>
+      <c r="AI30" s="387"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="415"/>
-      <c r="C31" s="416"/>
-      <c r="D31" s="417"/>
-      <c r="E31" s="418"/>
-      <c r="F31" s="419"/>
-      <c r="G31" s="415"/>
-      <c r="H31" s="420"/>
-      <c r="I31" s="416"/>
-      <c r="J31" s="421"/>
-      <c r="K31" s="422"/>
-      <c r="L31" s="422"/>
-      <c r="M31" s="422"/>
-      <c r="N31" s="422"/>
-      <c r="O31" s="422"/>
-      <c r="P31" s="423"/>
-      <c r="Q31" s="424"/>
-      <c r="R31" s="425"/>
-      <c r="S31" s="425"/>
-      <c r="T31" s="425"/>
-      <c r="U31" s="425"/>
-      <c r="V31" s="425"/>
-      <c r="W31" s="425"/>
-      <c r="X31" s="425"/>
-      <c r="Y31" s="425"/>
-      <c r="Z31" s="425"/>
-      <c r="AA31" s="425"/>
-      <c r="AB31" s="425"/>
-      <c r="AC31" s="425"/>
-      <c r="AD31" s="425"/>
-      <c r="AE31" s="426"/>
-      <c r="AF31" s="421"/>
-      <c r="AG31" s="422"/>
-      <c r="AH31" s="422"/>
-      <c r="AI31" s="423"/>
+      <c r="B31" s="379"/>
+      <c r="C31" s="380"/>
+      <c r="D31" s="381"/>
+      <c r="E31" s="382"/>
+      <c r="F31" s="383"/>
+      <c r="G31" s="379"/>
+      <c r="H31" s="384"/>
+      <c r="I31" s="380"/>
+      <c r="J31" s="385"/>
+      <c r="K31" s="386"/>
+      <c r="L31" s="386"/>
+      <c r="M31" s="386"/>
+      <c r="N31" s="386"/>
+      <c r="O31" s="386"/>
+      <c r="P31" s="387"/>
+      <c r="Q31" s="388"/>
+      <c r="R31" s="389"/>
+      <c r="S31" s="389"/>
+      <c r="T31" s="389"/>
+      <c r="U31" s="389"/>
+      <c r="V31" s="389"/>
+      <c r="W31" s="389"/>
+      <c r="X31" s="389"/>
+      <c r="Y31" s="389"/>
+      <c r="Z31" s="389"/>
+      <c r="AA31" s="389"/>
+      <c r="AB31" s="389"/>
+      <c r="AC31" s="389"/>
+      <c r="AD31" s="389"/>
+      <c r="AE31" s="390"/>
+      <c r="AF31" s="385"/>
+      <c r="AG31" s="386"/>
+      <c r="AH31" s="386"/>
+      <c r="AI31" s="387"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="415"/>
-      <c r="C32" s="416"/>
-      <c r="D32" s="417"/>
-      <c r="E32" s="418"/>
-      <c r="F32" s="419"/>
-      <c r="G32" s="415"/>
-      <c r="H32" s="420"/>
-      <c r="I32" s="416"/>
-      <c r="J32" s="421"/>
-      <c r="K32" s="440"/>
-      <c r="L32" s="422"/>
-      <c r="M32" s="422"/>
-      <c r="N32" s="422"/>
-      <c r="O32" s="422"/>
-      <c r="P32" s="423"/>
-      <c r="Q32" s="424"/>
-      <c r="R32" s="425"/>
-      <c r="S32" s="425"/>
-      <c r="T32" s="425"/>
-      <c r="U32" s="425"/>
-      <c r="V32" s="425"/>
-      <c r="W32" s="425"/>
-      <c r="X32" s="425"/>
-      <c r="Y32" s="425"/>
-      <c r="Z32" s="425"/>
-      <c r="AA32" s="425"/>
-      <c r="AB32" s="425"/>
-      <c r="AC32" s="425"/>
-      <c r="AD32" s="425"/>
-      <c r="AE32" s="426"/>
-      <c r="AF32" s="421"/>
-      <c r="AG32" s="422"/>
-      <c r="AH32" s="422"/>
-      <c r="AI32" s="423"/>
+      <c r="B32" s="379"/>
+      <c r="C32" s="380"/>
+      <c r="D32" s="381"/>
+      <c r="E32" s="382"/>
+      <c r="F32" s="383"/>
+      <c r="G32" s="379"/>
+      <c r="H32" s="384"/>
+      <c r="I32" s="380"/>
+      <c r="J32" s="385"/>
+      <c r="K32" s="391"/>
+      <c r="L32" s="386"/>
+      <c r="M32" s="386"/>
+      <c r="N32" s="386"/>
+      <c r="O32" s="386"/>
+      <c r="P32" s="387"/>
+      <c r="Q32" s="388"/>
+      <c r="R32" s="389"/>
+      <c r="S32" s="389"/>
+      <c r="T32" s="389"/>
+      <c r="U32" s="389"/>
+      <c r="V32" s="389"/>
+      <c r="W32" s="389"/>
+      <c r="X32" s="389"/>
+      <c r="Y32" s="389"/>
+      <c r="Z32" s="389"/>
+      <c r="AA32" s="389"/>
+      <c r="AB32" s="389"/>
+      <c r="AC32" s="389"/>
+      <c r="AD32" s="389"/>
+      <c r="AE32" s="390"/>
+      <c r="AF32" s="385"/>
+      <c r="AG32" s="386"/>
+      <c r="AH32" s="386"/>
+      <c r="AI32" s="387"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="415"/>
-      <c r="C33" s="416"/>
-      <c r="D33" s="417"/>
-      <c r="E33" s="418"/>
-      <c r="F33" s="419"/>
-      <c r="G33" s="415"/>
-      <c r="H33" s="420"/>
-      <c r="I33" s="416"/>
-      <c r="J33" s="421"/>
-      <c r="K33" s="422"/>
-      <c r="L33" s="422"/>
-      <c r="M33" s="422"/>
-      <c r="N33" s="422"/>
-      <c r="O33" s="422"/>
-      <c r="P33" s="423"/>
-      <c r="Q33" s="424"/>
-      <c r="R33" s="425"/>
-      <c r="S33" s="425"/>
-      <c r="T33" s="425"/>
-      <c r="U33" s="425"/>
-      <c r="V33" s="425"/>
-      <c r="W33" s="425"/>
-      <c r="X33" s="425"/>
-      <c r="Y33" s="425"/>
-      <c r="Z33" s="425"/>
-      <c r="AA33" s="425"/>
-      <c r="AB33" s="425"/>
-      <c r="AC33" s="425"/>
-      <c r="AD33" s="425"/>
-      <c r="AE33" s="426"/>
-      <c r="AF33" s="421"/>
-      <c r="AG33" s="422"/>
-      <c r="AH33" s="422"/>
-      <c r="AI33" s="423"/>
+      <c r="B33" s="379"/>
+      <c r="C33" s="380"/>
+      <c r="D33" s="381"/>
+      <c r="E33" s="382"/>
+      <c r="F33" s="383"/>
+      <c r="G33" s="379"/>
+      <c r="H33" s="384"/>
+      <c r="I33" s="380"/>
+      <c r="J33" s="385"/>
+      <c r="K33" s="386"/>
+      <c r="L33" s="386"/>
+      <c r="M33" s="386"/>
+      <c r="N33" s="386"/>
+      <c r="O33" s="386"/>
+      <c r="P33" s="387"/>
+      <c r="Q33" s="388"/>
+      <c r="R33" s="389"/>
+      <c r="S33" s="389"/>
+      <c r="T33" s="389"/>
+      <c r="U33" s="389"/>
+      <c r="V33" s="389"/>
+      <c r="W33" s="389"/>
+      <c r="X33" s="389"/>
+      <c r="Y33" s="389"/>
+      <c r="Z33" s="389"/>
+      <c r="AA33" s="389"/>
+      <c r="AB33" s="389"/>
+      <c r="AC33" s="389"/>
+      <c r="AD33" s="389"/>
+      <c r="AE33" s="390"/>
+      <c r="AF33" s="385"/>
+      <c r="AG33" s="386"/>
+      <c r="AH33" s="386"/>
+      <c r="AI33" s="387"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -8799,6 +8635,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -8836,7 +8828,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -8846,20 +8838,20 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J6" s="25" t="s">
         <v>0</v>
@@ -8867,10 +8859,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>1</v>
@@ -8878,7 +8870,7 @@
     </row>
     <row r="8" spans="1:17" ht="12" thickBot="1">
       <c r="A8" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -8903,7 +8895,7 @@
     </row>
     <row r="10" spans="1:17" s="31" customFormat="1">
       <c r="A10" s="49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>8</v>
@@ -8918,10 +8910,10 @@
         <v>84</v>
       </c>
       <c r="F10" s="80" t="s">
+        <v>270</v>
+      </c>
+      <c r="G10" s="81" t="s">
         <v>271</v>
-      </c>
-      <c r="G10" s="81" t="s">
-        <v>272</v>
       </c>
       <c r="H10" s="82" t="s">
         <v>11</v>
@@ -8936,7 +8928,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="51" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M10" s="51" t="s">
         <v>4</v>
@@ -8975,27 +8967,27 @@
         <v>77</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L11" s="34"/>
       <c r="M11" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N11" s="89">
         <v>43737</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P11" s="32"/>
       <c r="Q11" s="90"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="91" t="s">
@@ -9022,7 +9014,7 @@
     </row>
     <row r="13" spans="1:17" s="31" customFormat="1" ht="56.25">
       <c r="A13" s="103" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B13" s="104"/>
       <c r="C13" s="376" t="s">
@@ -9032,7 +9024,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="344" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F13" s="345"/>
       <c r="G13" s="346"/>
@@ -9040,7 +9032,7 @@
         <v>21</v>
       </c>
       <c r="I13" s="348" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J13" s="126"/>
       <c r="K13" s="348"/>
@@ -9053,13 +9045,13 @@
     </row>
     <row r="14" spans="1:17" s="31" customFormat="1">
       <c r="A14" s="103" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B14" s="104"/>
       <c r="C14" s="183"/>
       <c r="D14" s="142"/>
       <c r="E14" s="107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F14" s="94"/>
       <c r="G14" s="95"/>
@@ -9080,7 +9072,7 @@
     </row>
     <row r="15" spans="1:17" s="31" customFormat="1" ht="56.25">
       <c r="A15" s="103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15" s="104"/>
       <c r="C15" s="183"/>
@@ -9094,7 +9086,7 @@
         <v>21</v>
       </c>
       <c r="I15" s="109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J15" s="109"/>
       <c r="K15" s="109"/>
@@ -9107,13 +9099,13 @@
     </row>
     <row r="16" spans="1:17" s="31" customFormat="1" ht="67.5">
       <c r="A16" s="103" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" s="104"/>
       <c r="C16" s="183"/>
       <c r="D16" s="142"/>
       <c r="E16" s="107" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F16" s="94"/>
       <c r="G16" s="95"/>
@@ -9121,7 +9113,7 @@
         <v>21</v>
       </c>
       <c r="I16" s="109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J16" s="126"/>
       <c r="K16" s="126"/>
@@ -9134,7 +9126,7 @@
     </row>
     <row r="17" spans="1:17" s="31" customFormat="1">
       <c r="A17" s="114" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="377"/>
@@ -9196,16 +9188,16 @@
         <v>79</v>
       </c>
       <c r="E19" s="129" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="130" t="s">
+        <v>277</v>
+      </c>
+      <c r="G19" s="131" t="s">
+        <v>278</v>
+      </c>
+      <c r="H19" s="132" t="s">
         <v>184</v>
-      </c>
-      <c r="F19" s="130" t="s">
-        <v>278</v>
-      </c>
-      <c r="G19" s="131" t="s">
-        <v>279</v>
-      </c>
-      <c r="H19" s="132" t="s">
-        <v>185</v>
       </c>
       <c r="I19" s="105" t="s">
         <v>28</v>
@@ -9221,22 +9213,22 @@
     </row>
     <row r="20" spans="1:17" s="31" customFormat="1" hidden="1">
       <c r="A20" s="127" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" s="40"/>
       <c r="C20" s="106"/>
       <c r="D20" s="138"/>
       <c r="E20" s="129" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F20" s="130" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G20" s="131" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H20" s="132" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I20" s="105" t="s">
         <v>28</v>
@@ -9252,22 +9244,22 @@
     </row>
     <row r="21" spans="1:17" s="31" customFormat="1" hidden="1">
       <c r="A21" s="127" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B21" s="40"/>
       <c r="C21" s="106"/>
       <c r="D21" s="138"/>
       <c r="E21" s="129" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F21" s="130" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G21" s="131" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H21" s="132" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I21" s="105" t="s">
         <v>28</v>
@@ -9283,22 +9275,22 @@
     </row>
     <row r="22" spans="1:17" s="31" customFormat="1" hidden="1">
       <c r="A22" s="127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" s="40"/>
       <c r="C22" s="106"/>
       <c r="D22" s="138"/>
       <c r="E22" s="129" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F22" s="130" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G22" s="131" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H22" s="132" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I22" s="105" t="s">
         <v>28</v>
@@ -9314,7 +9306,7 @@
     </row>
     <row r="23" spans="1:17" ht="22.5">
       <c r="A23" s="127" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B23" s="40"/>
       <c r="C23" s="142"/>
@@ -9343,7 +9335,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="127" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B24" s="40"/>
       <c r="C24" s="377"/>
@@ -9370,7 +9362,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="127" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B25" s="40"/>
       <c r="C25" s="377"/>
@@ -9397,7 +9389,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="127" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B26" s="40"/>
       <c r="C26" s="377"/>
@@ -9424,7 +9416,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="127" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B27" s="40"/>
       <c r="C27" s="377"/>
@@ -9451,7 +9443,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="127" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" s="40"/>
       <c r="C28" s="142"/>
@@ -9478,7 +9470,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="127" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" s="40"/>
       <c r="C29" s="142"/>
@@ -9510,18 +9502,18 @@
       <c r="B30" s="40"/>
       <c r="C30" s="142"/>
       <c r="D30" s="142" t="s">
+        <v>198</v>
+      </c>
+      <c r="E30" s="144" t="s">
         <v>199</v>
-      </c>
-      <c r="E30" s="144" t="s">
-        <v>200</v>
       </c>
       <c r="F30" s="94"/>
       <c r="G30" s="95"/>
       <c r="H30" s="145" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I30" s="146" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J30" s="147"/>
       <c r="K30" s="147"/>
@@ -9534,15 +9526,15 @@
     </row>
     <row r="31" spans="1:17" s="31" customFormat="1" ht="50.25" customHeight="1">
       <c r="A31" s="114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B31" s="104"/>
       <c r="C31" s="183"/>
       <c r="D31" s="152" t="s">
+        <v>201</v>
+      </c>
+      <c r="E31" s="153" t="s">
         <v>202</v>
-      </c>
-      <c r="E31" s="153" t="s">
-        <v>203</v>
       </c>
       <c r="F31" s="154"/>
       <c r="G31" s="155"/>
@@ -9563,13 +9555,13 @@
     </row>
     <row r="32" spans="1:17" s="31" customFormat="1" ht="57" customHeight="1">
       <c r="A32" s="114" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B32" s="104"/>
       <c r="C32" s="183"/>
       <c r="D32" s="162"/>
       <c r="E32" s="153" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F32" s="154"/>
       <c r="G32" s="155"/>
@@ -9590,13 +9582,13 @@
     </row>
     <row r="33" spans="1:17" s="31" customFormat="1" ht="45">
       <c r="A33" s="114" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B33" s="104"/>
       <c r="C33" s="183"/>
       <c r="D33" s="162"/>
       <c r="E33" s="153" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F33" s="154"/>
       <c r="G33" s="155"/>
@@ -9617,13 +9609,13 @@
     </row>
     <row r="34" spans="1:17" s="31" customFormat="1" ht="50.25" customHeight="1">
       <c r="A34" s="114" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B34" s="104"/>
       <c r="C34" s="183"/>
       <c r="D34" s="162"/>
       <c r="E34" s="153" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F34" s="154"/>
       <c r="G34" s="155"/>
@@ -9644,13 +9636,13 @@
     </row>
     <row r="35" spans="1:17" ht="50.25" customHeight="1">
       <c r="A35" s="114" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B35" s="104"/>
       <c r="C35" s="183"/>
       <c r="D35" s="162"/>
       <c r="E35" s="153" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F35" s="154"/>
       <c r="G35" s="155"/>
@@ -9671,13 +9663,13 @@
     </row>
     <row r="36" spans="1:17" ht="50.25" customHeight="1">
       <c r="A36" s="114" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B36" s="104"/>
       <c r="C36" s="183"/>
       <c r="D36" s="162"/>
       <c r="E36" s="153" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F36" s="154"/>
       <c r="G36" s="155"/>
@@ -9698,21 +9690,21 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="114" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B37" s="104"/>
       <c r="C37" s="183"/>
       <c r="D37" s="162"/>
       <c r="E37" s="153" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F37" s="154"/>
       <c r="G37" s="155"/>
       <c r="H37" s="156" t="s">
+        <v>214</v>
+      </c>
+      <c r="I37" s="157" t="s">
         <v>215</v>
-      </c>
-      <c r="I37" s="157" t="s">
-        <v>216</v>
       </c>
       <c r="J37" s="157"/>
       <c r="K37" s="157"/>
@@ -9725,21 +9717,21 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="114" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B38" s="104"/>
       <c r="C38" s="183"/>
       <c r="D38" s="162"/>
       <c r="E38" s="153" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F38" s="154"/>
       <c r="G38" s="155"/>
       <c r="H38" s="156" t="s">
+        <v>214</v>
+      </c>
+      <c r="I38" s="157" t="s">
         <v>215</v>
-      </c>
-      <c r="I38" s="157" t="s">
-        <v>216</v>
       </c>
       <c r="J38" s="157"/>
       <c r="K38" s="157"/>
@@ -9752,21 +9744,21 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="114" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B39" s="104"/>
       <c r="C39" s="183"/>
       <c r="D39" s="165"/>
       <c r="E39" s="153" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F39" s="154"/>
       <c r="G39" s="155"/>
       <c r="H39" s="156" t="s">
+        <v>214</v>
+      </c>
+      <c r="I39" s="157" t="s">
         <v>215</v>
-      </c>
-      <c r="I39" s="157" t="s">
-        <v>216</v>
       </c>
       <c r="J39" s="157"/>
       <c r="K39" s="157"/>
@@ -9784,10 +9776,10 @@
       <c r="B40" s="104"/>
       <c r="C40" s="183"/>
       <c r="D40" s="167" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E40" s="153" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F40" s="154"/>
       <c r="G40" s="155"/>
@@ -9808,13 +9800,13 @@
     </row>
     <row r="41" spans="1:17" ht="45">
       <c r="A41" s="166" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B41" s="104"/>
       <c r="C41" s="183"/>
       <c r="D41" s="162"/>
       <c r="E41" s="153" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F41" s="154"/>
       <c r="G41" s="155"/>
@@ -9835,13 +9827,13 @@
     </row>
     <row r="42" spans="1:17" ht="54.75" customHeight="1">
       <c r="A42" s="166" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B42" s="104"/>
       <c r="C42" s="183"/>
       <c r="D42" s="162"/>
       <c r="E42" s="153" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F42" s="154"/>
       <c r="G42" s="155"/>
@@ -9862,13 +9854,13 @@
     </row>
     <row r="43" spans="1:17" ht="54.75" customHeight="1">
       <c r="A43" s="166" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B43" s="104"/>
       <c r="C43" s="183"/>
       <c r="D43" s="162"/>
       <c r="E43" s="153" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F43" s="154"/>
       <c r="G43" s="155"/>
@@ -9889,21 +9881,21 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="166" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B44" s="104"/>
       <c r="C44" s="183"/>
       <c r="D44" s="162"/>
       <c r="E44" s="168" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F44" s="154"/>
       <c r="G44" s="155"/>
       <c r="H44" s="169" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I44" s="170" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J44" s="170"/>
       <c r="K44" s="170"/>
@@ -9916,7 +9908,7 @@
     </row>
     <row r="45" spans="1:17" ht="22.5">
       <c r="A45" s="166" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B45" s="173"/>
       <c r="C45" s="174" t="s">
@@ -9924,7 +9916,7 @@
       </c>
       <c r="D45" s="175"/>
       <c r="E45" s="175" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F45" s="176"/>
       <c r="G45" s="177"/>
@@ -9945,13 +9937,13 @@
     </row>
     <row r="46" spans="1:17" ht="22.5">
       <c r="A46" s="166" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B46" s="173"/>
       <c r="C46" s="183"/>
       <c r="D46" s="162"/>
       <c r="E46" s="184" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F46" s="185"/>
       <c r="G46" s="186"/>
@@ -9972,21 +9964,21 @@
     </row>
     <row r="47" spans="1:17" ht="22.5">
       <c r="A47" s="166" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B47" s="173"/>
       <c r="C47" s="183"/>
       <c r="D47" s="162"/>
       <c r="E47" s="192" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F47" s="193"/>
       <c r="G47" s="194"/>
       <c r="H47" s="195" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I47" s="196" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J47" s="196"/>
       <c r="K47" s="196"/>
@@ -9999,21 +9991,21 @@
     </row>
     <row r="48" spans="1:17" ht="22.5">
       <c r="A48" s="166" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B48" s="173"/>
       <c r="C48" s="183"/>
       <c r="D48" s="162"/>
       <c r="E48" s="200" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F48" s="201"/>
       <c r="G48" s="202"/>
       <c r="H48" s="203" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I48" s="204" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J48" s="204"/>
       <c r="K48" s="204"/>
@@ -10026,21 +10018,21 @@
     </row>
     <row r="49" spans="1:17" ht="33.75">
       <c r="A49" s="166" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B49" s="173"/>
       <c r="C49" s="183"/>
       <c r="D49" s="162"/>
       <c r="E49" s="208" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F49" s="209"/>
       <c r="G49" s="210"/>
       <c r="H49" s="211" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I49" s="212" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J49" s="212"/>
       <c r="K49" s="212"/>
@@ -10053,7 +10045,7 @@
     </row>
     <row r="50" spans="1:17" ht="22.5">
       <c r="A50" s="166" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B50" s="173"/>
       <c r="C50" s="183"/>
@@ -10064,10 +10056,10 @@
       <c r="F50" s="217"/>
       <c r="G50" s="218"/>
       <c r="H50" s="219" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I50" s="220" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J50" s="220"/>
       <c r="K50" s="220"/>
@@ -10080,21 +10072,21 @@
     </row>
     <row r="51" spans="1:17" ht="22.5">
       <c r="A51" s="166" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B51" s="173"/>
       <c r="C51" s="183"/>
       <c r="D51" s="162"/>
       <c r="E51" s="224" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F51" s="225"/>
       <c r="G51" s="226"/>
       <c r="H51" s="227" t="s">
+        <v>284</v>
+      </c>
+      <c r="I51" s="228" t="s">
         <v>285</v>
-      </c>
-      <c r="I51" s="228" t="s">
-        <v>286</v>
       </c>
       <c r="J51" s="228"/>
       <c r="K51" s="228"/>
@@ -10107,21 +10099,21 @@
     </row>
     <row r="52" spans="1:17" ht="22.5">
       <c r="A52" s="166" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B52" s="173"/>
       <c r="C52" s="183"/>
       <c r="D52" s="162"/>
       <c r="E52" s="232" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F52" s="233"/>
       <c r="G52" s="234"/>
       <c r="H52" s="235" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I52" s="236" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J52" s="236"/>
       <c r="K52" s="236"/>
@@ -10134,21 +10126,21 @@
     </row>
     <row r="53" spans="1:17" ht="22.5">
       <c r="A53" s="166" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B53" s="240"/>
       <c r="C53" s="241"/>
       <c r="D53" s="162"/>
       <c r="E53" s="242" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F53" s="243"/>
       <c r="G53" s="244"/>
       <c r="H53" s="245" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I53" s="246" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J53" s="246"/>
       <c r="K53" s="246"/>
@@ -10161,7 +10153,7 @@
     </row>
     <row r="54" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A54" s="166" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B54" s="106" t="s">
         <v>35</v>
@@ -10170,10 +10162,10 @@
         <v>36</v>
       </c>
       <c r="D54" s="357" t="s">
+        <v>243</v>
+      </c>
+      <c r="E54" s="358" t="s">
         <v>244</v>
-      </c>
-      <c r="E54" s="358" t="s">
-        <v>245</v>
       </c>
       <c r="F54" s="359"/>
       <c r="G54" s="360"/>
@@ -10194,7 +10186,7 @@
     </row>
     <row r="55" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A55" s="166" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B55" s="106"/>
       <c r="C55" s="142"/>
@@ -10208,7 +10200,7 @@
         <v>37</v>
       </c>
       <c r="I55" s="361" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J55" s="369"/>
       <c r="K55" s="369"/>
@@ -10221,7 +10213,7 @@
     </row>
     <row r="56" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A56" s="166" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B56" s="106"/>
       <c r="C56" s="142"/>
@@ -10235,7 +10227,7 @@
         <v>37</v>
       </c>
       <c r="I56" s="361" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J56" s="369"/>
       <c r="K56" s="369"/>
@@ -10248,7 +10240,7 @@
     </row>
     <row r="57" spans="1:17" s="43" customFormat="1">
       <c r="A57" s="166" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B57" s="106"/>
       <c r="C57" s="142"/>
@@ -10275,7 +10267,7 @@
     </row>
     <row r="58" spans="1:17" s="43" customFormat="1" ht="22.5">
       <c r="A58" s="166" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B58" s="106"/>
       <c r="C58" s="142"/>
@@ -10289,7 +10281,7 @@
         <v>37</v>
       </c>
       <c r="I58" s="361" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J58" s="369"/>
       <c r="K58" s="369"/>
@@ -10302,12 +10294,12 @@
     </row>
     <row r="59" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A59" s="166" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B59" s="106"/>
       <c r="C59" s="142"/>
       <c r="D59" s="370" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E59" s="252" t="s">
         <v>43</v>
@@ -10318,7 +10310,7 @@
         <v>37</v>
       </c>
       <c r="I59" s="255" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J59" s="256"/>
       <c r="K59" s="256"/>
@@ -10331,7 +10323,7 @@
     </row>
     <row r="60" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A60" s="166" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B60" s="106"/>
       <c r="C60" s="142"/>
@@ -10345,7 +10337,7 @@
         <v>37</v>
       </c>
       <c r="I60" s="255" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J60" s="256"/>
       <c r="K60" s="256"/>
@@ -10358,7 +10350,7 @@
     </row>
     <row r="61" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A61" s="166" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B61" s="106"/>
       <c r="C61" s="142"/>
@@ -10385,7 +10377,7 @@
     </row>
     <row r="62" spans="1:17" s="31" customFormat="1">
       <c r="A62" s="166" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B62" s="106"/>
       <c r="C62" s="142"/>
@@ -10414,7 +10406,7 @@
     </row>
     <row r="63" spans="1:17" s="31" customFormat="1">
       <c r="A63" s="166" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B63" s="106"/>
       <c r="C63" s="142"/>
@@ -10441,7 +10433,7 @@
     </row>
     <row r="64" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A64" s="166" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B64" s="106"/>
       <c r="C64" s="142"/>
@@ -10454,7 +10446,7 @@
       <c r="F64" s="253"/>
       <c r="G64" s="254"/>
       <c r="H64" s="255" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I64" s="255" t="s">
         <v>51</v>
@@ -10470,7 +10462,7 @@
     </row>
     <row r="65" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A65" s="166" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B65" s="106"/>
       <c r="C65" s="142"/>
@@ -10481,7 +10473,7 @@
       <c r="F65" s="253"/>
       <c r="G65" s="254"/>
       <c r="H65" s="255" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I65" s="255" t="s">
         <v>51</v>
@@ -10497,7 +10489,7 @@
     </row>
     <row r="66" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A66" s="166" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B66" s="106"/>
       <c r="C66" s="142"/>
@@ -10508,7 +10500,7 @@
       <c r="F66" s="253"/>
       <c r="G66" s="254"/>
       <c r="H66" s="255" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I66" s="255" t="s">
         <v>51</v>
@@ -10524,7 +10516,7 @@
     </row>
     <row r="67" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A67" s="166" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B67" s="106"/>
       <c r="C67" s="106"/>
@@ -10533,13 +10525,13 @@
         <v>152</v>
       </c>
       <c r="F67" s="259" t="s">
+        <v>298</v>
+      </c>
+      <c r="G67" s="260" t="s">
         <v>299</v>
       </c>
-      <c r="G67" s="260" t="s">
-        <v>300</v>
-      </c>
       <c r="H67" s="261" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I67" s="261" t="s">
         <v>51</v>
@@ -10555,7 +10547,7 @@
     </row>
     <row r="68" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A68" s="166" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B68" s="106"/>
       <c r="C68" s="142"/>
@@ -10566,7 +10558,7 @@
       <c r="F68" s="253"/>
       <c r="G68" s="254"/>
       <c r="H68" s="255" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I68" s="255" t="s">
         <v>51</v>
@@ -10582,18 +10574,18 @@
     </row>
     <row r="69" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A69" s="166" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B69" s="106"/>
       <c r="C69" s="142"/>
       <c r="D69" s="142"/>
       <c r="E69" s="256" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F69" s="253"/>
       <c r="G69" s="254"/>
       <c r="H69" s="255" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I69" s="255" t="s">
         <v>51</v>
@@ -10609,7 +10601,7 @@
     </row>
     <row r="70" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A70" s="166" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B70" s="106"/>
       <c r="C70" s="142"/>
@@ -10620,7 +10612,7 @@
       <c r="F70" s="253"/>
       <c r="G70" s="254"/>
       <c r="H70" s="255" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I70" s="255" t="s">
         <v>51</v>
@@ -10636,18 +10628,18 @@
     </row>
     <row r="71" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A71" s="166" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B71" s="106"/>
       <c r="C71" s="142"/>
       <c r="D71" s="144"/>
       <c r="E71" s="256" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F71" s="253"/>
       <c r="G71" s="254"/>
       <c r="H71" s="255" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I71" s="255" t="s">
         <v>51</v>
@@ -10663,7 +10655,7 @@
     </row>
     <row r="72" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A72" s="166" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B72" s="106"/>
       <c r="C72" s="142"/>
@@ -10671,15 +10663,15 @@
         <v>149</v>
       </c>
       <c r="E72" s="256" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F72" s="253"/>
       <c r="G72" s="254"/>
       <c r="H72" s="255" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I72" s="264" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J72" s="256"/>
       <c r="K72" s="256"/>
@@ -10692,7 +10684,7 @@
     </row>
     <row r="73" spans="1:17" s="31" customFormat="1" ht="88.5" customHeight="1">
       <c r="A73" s="166" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B73" s="106"/>
       <c r="C73" s="142"/>
@@ -10705,7 +10697,7 @@
       <c r="F73" s="253"/>
       <c r="G73" s="254"/>
       <c r="H73" s="255" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I73" s="263" t="s">
         <v>55</v>
@@ -10721,18 +10713,18 @@
     </row>
     <row r="74" spans="1:17" s="31" customFormat="1" ht="127.5" customHeight="1">
       <c r="A74" s="166" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B74" s="106"/>
       <c r="C74" s="142"/>
       <c r="D74" s="142"/>
       <c r="E74" s="256" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F74" s="253"/>
       <c r="G74" s="254"/>
       <c r="H74" s="255" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I74" s="263" t="s">
         <v>55</v>
@@ -10748,7 +10740,7 @@
     </row>
     <row r="75" spans="1:17" s="31" customFormat="1">
       <c r="A75" s="166" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B75" s="106"/>
       <c r="C75" s="142"/>
@@ -10759,7 +10751,7 @@
       <c r="F75" s="253"/>
       <c r="G75" s="254"/>
       <c r="H75" s="255" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I75" s="263" t="s">
         <v>55</v>
@@ -10775,7 +10767,7 @@
     </row>
     <row r="76" spans="1:17" s="31" customFormat="1" ht="113.25" customHeight="1">
       <c r="A76" s="166" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B76" s="106"/>
       <c r="C76" s="142"/>
@@ -10788,7 +10780,7 @@
       <c r="F76" s="253"/>
       <c r="G76" s="254"/>
       <c r="H76" s="255" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I76" s="263" t="s">
         <v>55</v>
@@ -10804,7 +10796,7 @@
     </row>
     <row r="77" spans="1:17" s="31" customFormat="1">
       <c r="A77" s="166" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B77" s="106"/>
       <c r="C77" s="142"/>
@@ -10815,7 +10807,7 @@
       <c r="F77" s="253"/>
       <c r="G77" s="254"/>
       <c r="H77" s="255" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I77" s="263" t="s">
         <v>55</v>
@@ -10831,7 +10823,7 @@
     </row>
     <row r="78" spans="1:17" s="31" customFormat="1">
       <c r="A78" s="166" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B78" s="106"/>
       <c r="C78" s="142"/>
@@ -10842,7 +10834,7 @@
       <c r="F78" s="253"/>
       <c r="G78" s="254"/>
       <c r="H78" s="255" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I78" s="263" t="s">
         <v>55</v>
@@ -10858,7 +10850,7 @@
     </row>
     <row r="79" spans="1:17" s="31" customFormat="1">
       <c r="A79" s="166" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B79" s="106"/>
       <c r="C79" s="142"/>
@@ -10869,7 +10861,7 @@
       <c r="F79" s="267"/>
       <c r="G79" s="268"/>
       <c r="H79" s="269" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I79" s="270" t="s">
         <v>55</v>
@@ -10885,7 +10877,7 @@
     </row>
     <row r="80" spans="1:17" s="31" customFormat="1" ht="22.5" hidden="1">
       <c r="A80" s="166" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B80" s="106"/>
       <c r="C80" s="106"/>
@@ -10894,16 +10886,16 @@
       </c>
       <c r="E80" s="274"/>
       <c r="F80" s="275" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G80" s="276" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H80" s="277" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I80" s="278" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J80" s="279"/>
       <c r="K80" s="279"/>
@@ -10916,7 +10908,7 @@
     </row>
     <row r="81" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A81" s="166" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B81" s="106"/>
       <c r="C81" s="294" t="s">
@@ -10929,7 +10921,7 @@
       <c r="F81" s="292"/>
       <c r="G81" s="293"/>
       <c r="H81" s="294" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I81" s="294" t="s">
         <v>62</v>
@@ -10945,7 +10937,7 @@
     </row>
     <row r="82" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A82" s="166" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B82" s="106"/>
       <c r="C82" s="142"/>
@@ -10958,7 +10950,7 @@
       <c r="F82" s="292"/>
       <c r="G82" s="293"/>
       <c r="H82" s="294" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I82" s="294" t="s">
         <v>62</v>
@@ -10974,18 +10966,18 @@
     </row>
     <row r="83" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A83" s="166" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B83" s="106"/>
       <c r="C83" s="142"/>
       <c r="D83" s="290"/>
       <c r="E83" s="375" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F83" s="292"/>
       <c r="G83" s="293"/>
       <c r="H83" s="294" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I83" s="294" t="s">
         <v>62</v>
@@ -11001,7 +10993,7 @@
     </row>
     <row r="84" spans="1:17" s="31" customFormat="1" ht="78" customHeight="1">
       <c r="A84" s="166" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B84" s="106"/>
       <c r="C84" s="142"/>
@@ -11012,7 +11004,7 @@
       <c r="F84" s="292"/>
       <c r="G84" s="293"/>
       <c r="H84" s="294" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I84" s="294" t="s">
         <v>62</v>
@@ -11028,7 +11020,7 @@
     </row>
     <row r="85" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A85" s="166" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B85" s="106"/>
       <c r="C85" s="142"/>
@@ -11039,7 +11031,7 @@
       <c r="F85" s="292"/>
       <c r="G85" s="293"/>
       <c r="H85" s="294" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I85" s="294" t="s">
         <v>62</v>
@@ -11055,7 +11047,7 @@
     </row>
     <row r="86" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A86" s="166" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B86" s="106"/>
       <c r="C86" s="142"/>
@@ -11066,7 +11058,7 @@
       <c r="F86" s="292"/>
       <c r="G86" s="293"/>
       <c r="H86" s="294" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I86" s="294" t="s">
         <v>62</v>
@@ -11082,22 +11074,22 @@
     </row>
     <row r="87" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A87" s="166" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B87" s="106"/>
       <c r="C87" s="106"/>
       <c r="D87" s="287" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E87" s="288"/>
       <c r="F87" s="281" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G87" s="282" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H87" s="278" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I87" s="278" t="s">
         <v>62</v>
@@ -11113,7 +11105,7 @@
     </row>
     <row r="88" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A88" s="166" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B88" s="106"/>
       <c r="C88" s="106"/>
@@ -11122,13 +11114,13 @@
       </c>
       <c r="E88" s="288"/>
       <c r="F88" s="281" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G88" s="282" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H88" s="278" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I88" s="278" t="s">
         <v>62</v>
@@ -11144,7 +11136,7 @@
     </row>
     <row r="89" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A89" s="166" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B89" s="106"/>
       <c r="C89" s="106"/>
@@ -11153,13 +11145,13 @@
       </c>
       <c r="E89" s="288"/>
       <c r="F89" s="281" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G89" s="282" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H89" s="278" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I89" s="278" t="s">
         <v>62</v>
@@ -11175,7 +11167,7 @@
     </row>
     <row r="90" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A90" s="166" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B90" s="106"/>
       <c r="C90" s="106"/>
@@ -11184,13 +11176,13 @@
       </c>
       <c r="E90" s="288"/>
       <c r="F90" s="281" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G90" s="282" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H90" s="278" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I90" s="278" t="s">
         <v>62</v>
@@ -11206,7 +11198,7 @@
     </row>
     <row r="91" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A91" s="166" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B91" s="106"/>
       <c r="C91" s="106"/>
@@ -11215,13 +11207,13 @@
       </c>
       <c r="E91" s="288"/>
       <c r="F91" s="281" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G91" s="282" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H91" s="278" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I91" s="278" t="s">
         <v>62</v>
@@ -11237,7 +11229,7 @@
     </row>
     <row r="92" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A92" s="166" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B92" s="106"/>
       <c r="C92" s="142"/>
@@ -11248,7 +11240,7 @@
       <c r="F92" s="292"/>
       <c r="G92" s="293"/>
       <c r="H92" s="294" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I92" s="294" t="s">
         <v>62</v>
@@ -11264,7 +11256,7 @@
     </row>
     <row r="93" spans="1:17" s="31" customFormat="1" ht="72.75" customHeight="1">
       <c r="A93" s="166" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B93" s="106"/>
       <c r="C93" s="142"/>
@@ -11275,7 +11267,7 @@
       <c r="F93" s="292"/>
       <c r="G93" s="293"/>
       <c r="H93" s="294" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I93" s="294" t="s">
         <v>62</v>
@@ -11291,7 +11283,7 @@
     </row>
     <row r="94" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A94" s="166" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B94" s="106"/>
       <c r="C94" s="142"/>
@@ -11302,7 +11294,7 @@
       <c r="F94" s="292"/>
       <c r="G94" s="293"/>
       <c r="H94" s="294" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I94" s="294" t="s">
         <v>62</v>
@@ -11318,7 +11310,7 @@
     </row>
     <row r="95" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A95" s="166" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B95" s="106"/>
       <c r="C95" s="142"/>
@@ -11329,7 +11321,7 @@
       <c r="F95" s="292"/>
       <c r="G95" s="293"/>
       <c r="H95" s="301" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I95" s="301" t="s">
         <v>62</v>
@@ -11345,7 +11337,7 @@
     </row>
     <row r="96" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A96" s="166" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B96" s="106"/>
       <c r="C96" s="142"/>
@@ -11356,7 +11348,7 @@
       <c r="F96" s="292"/>
       <c r="G96" s="293"/>
       <c r="H96" s="294" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I96" s="294" t="s">
         <v>62</v>
@@ -11372,7 +11364,7 @@
     </row>
     <row r="97" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A97" s="166" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B97" s="106"/>
       <c r="C97" s="106"/>
@@ -11381,13 +11373,13 @@
       </c>
       <c r="E97" s="288"/>
       <c r="F97" s="281" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G97" s="282" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H97" s="303" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I97" s="303" t="s">
         <v>62</v>
@@ -11403,18 +11395,18 @@
     </row>
     <row r="98" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A98" s="166" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B98" s="106"/>
       <c r="C98" s="142"/>
       <c r="D98" s="305" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E98" s="306"/>
       <c r="F98" s="307"/>
       <c r="G98" s="308"/>
       <c r="H98" s="270" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I98" s="270" t="s">
         <v>62</v>
@@ -11430,18 +11422,18 @@
     </row>
     <row r="99" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A99" s="166" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B99" s="106"/>
       <c r="C99" s="142"/>
       <c r="D99" s="305" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E99" s="306"/>
       <c r="F99" s="307"/>
       <c r="G99" s="308"/>
       <c r="H99" s="270" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I99" s="270" t="s">
         <v>62</v>
@@ -11457,7 +11449,7 @@
     </row>
     <row r="100" spans="1:17" s="31" customFormat="1" ht="45" customHeight="1">
       <c r="A100" s="314" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B100" s="106"/>
       <c r="C100" s="142"/>
@@ -11468,7 +11460,7 @@
       <c r="F100" s="307"/>
       <c r="G100" s="308"/>
       <c r="H100" s="317" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I100" s="317" t="s">
         <v>62</v>
@@ -11484,22 +11476,22 @@
     </row>
     <row r="101" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A101" s="324" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B101" s="106"/>
       <c r="C101" s="106"/>
       <c r="D101" s="325" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E101" s="326"/>
       <c r="F101" s="275" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G101" s="276" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H101" s="106" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I101" s="106" t="s">
         <v>62</v>
@@ -11515,7 +11507,7 @@
     </row>
     <row r="102" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A102" s="314" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B102" s="331"/>
       <c r="C102" s="331"/>
@@ -11524,16 +11516,16 @@
       </c>
       <c r="E102" s="333"/>
       <c r="F102" s="275" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G102" s="276" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H102" s="334" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I102" s="334" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J102" s="335"/>
       <c r="K102" s="335"/>
@@ -11755,7 +11747,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -11765,20 +11757,20 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>0</v>
@@ -11789,7 +11781,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>1</v>
@@ -11842,7 +11834,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K10" s="30" t="s">
         <v>4</v>
@@ -11868,7 +11860,7 @@
         <v>89</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>156</v>
+        <v>341</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>90</v>
@@ -11878,23 +11870,23 @@
         <v>105</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H11" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="I11" s="44" t="s">
         <v>265</v>
-      </c>
-      <c r="I11" s="44" t="s">
-        <v>266</v>
       </c>
       <c r="J11" s="46"/>
       <c r="K11" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L11" s="89">
         <v>43737</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N11" s="47"/>
       <c r="O11" s="47"/>
@@ -12132,12 +12124,12 @@
     </row>
     <row r="21" spans="1:15" s="54" customFormat="1" ht="38.25" customHeight="1">
       <c r="A21" s="60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
       <c r="D21" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E21" s="55"/>
       <c r="F21" s="58" t="s">
@@ -12184,7 +12176,7 @@
     </row>
     <row r="23" spans="1:15" s="54" customFormat="1" ht="38.25" customHeight="1">
       <c r="A23" s="60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B23" s="74"/>
       <c r="C23" s="74"/>
@@ -12209,10 +12201,10 @@
     </row>
     <row r="24" spans="1:15" s="54" customFormat="1" ht="38.25" customHeight="1">
       <c r="A24" s="60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C24" s="64" t="s">
         <v>110</v>
@@ -12236,7 +12228,7 @@
     </row>
     <row r="25" spans="1:15" s="54" customFormat="1" ht="38.25" customHeight="1">
       <c r="A25" s="60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25" s="68"/>
       <c r="C25" s="69" t="s">

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10102_ログアウト.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10102_ログアウト.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC62F98-E9FB-48B7-8462-F828CB66B034}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB704CB9-0262-425B-976E-7236D37E5EB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -23,7 +23,15 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.2.取引単体'!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1421,6 +1429,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>画面遷移パターン(※1)</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>UI部品動作確認</t>
     <rPh sb="2" eb="4">
       <t>ブヒン</t>
@@ -2383,16 +2401,6 @@
   </si>
   <si>
     <t>シナリオID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面遷移パターン</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5732,6 +5740,114 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5768,9 +5884,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5810,112 +5923,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -7403,55 +7411,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="411" t="s">
+      <c r="A1" s="385" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="412"/>
-      <c r="C1" s="412"/>
-      <c r="D1" s="413"/>
-      <c r="E1" s="414"/>
-      <c r="F1" s="415"/>
-      <c r="G1" s="415"/>
-      <c r="H1" s="415"/>
-      <c r="I1" s="415"/>
-      <c r="J1" s="415"/>
-      <c r="K1" s="415"/>
-      <c r="L1" s="415"/>
-      <c r="M1" s="415"/>
-      <c r="N1" s="416"/>
-      <c r="O1" s="420" t="s">
+      <c r="B1" s="386"/>
+      <c r="C1" s="386"/>
+      <c r="D1" s="387"/>
+      <c r="E1" s="388"/>
+      <c r="F1" s="389"/>
+      <c r="G1" s="389"/>
+      <c r="H1" s="389"/>
+      <c r="I1" s="389"/>
+      <c r="J1" s="389"/>
+      <c r="K1" s="389"/>
+      <c r="L1" s="389"/>
+      <c r="M1" s="389"/>
+      <c r="N1" s="390"/>
+      <c r="O1" s="394" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="421"/>
-      <c r="Q1" s="421"/>
-      <c r="R1" s="422"/>
-      <c r="S1" s="429" t="s">
+      <c r="P1" s="395"/>
+      <c r="Q1" s="395"/>
+      <c r="R1" s="396"/>
+      <c r="S1" s="403" t="s">
         <v>139</v>
       </c>
-      <c r="T1" s="430"/>
-      <c r="U1" s="430"/>
-      <c r="V1" s="430"/>
-      <c r="W1" s="430"/>
-      <c r="X1" s="430"/>
-      <c r="Y1" s="430"/>
-      <c r="Z1" s="431"/>
-      <c r="AA1" s="411" t="s">
+      <c r="T1" s="404"/>
+      <c r="U1" s="404"/>
+      <c r="V1" s="404"/>
+      <c r="W1" s="404"/>
+      <c r="X1" s="404"/>
+      <c r="Y1" s="404"/>
+      <c r="Z1" s="405"/>
+      <c r="AA1" s="385" t="s">
         <v>122</v>
       </c>
-      <c r="AB1" s="413"/>
-      <c r="AC1" s="438" t="str">
+      <c r="AB1" s="387"/>
+      <c r="AC1" s="412" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="439"/>
-      <c r="AE1" s="439"/>
-      <c r="AF1" s="440"/>
-      <c r="AG1" s="405">
+      <c r="AD1" s="413"/>
+      <c r="AE1" s="413"/>
+      <c r="AF1" s="414"/>
+      <c r="AG1" s="379">
         <f>IF(D8="","",D8)</f>
         <v>43737</v>
       </c>
-      <c r="AH1" s="406"/>
-      <c r="AI1" s="407"/>
+      <c r="AH1" s="380"/>
+      <c r="AI1" s="381"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -7459,51 +7467,51 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="411" t="s">
+      <c r="A2" s="385" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="412"/>
-      <c r="C2" s="412"/>
-      <c r="D2" s="413"/>
-      <c r="E2" s="414"/>
-      <c r="F2" s="415"/>
-      <c r="G2" s="415"/>
-      <c r="H2" s="415"/>
-      <c r="I2" s="415"/>
-      <c r="J2" s="415"/>
-      <c r="K2" s="415"/>
-      <c r="L2" s="415"/>
-      <c r="M2" s="415"/>
-      <c r="N2" s="416"/>
-      <c r="O2" s="423"/>
-      <c r="P2" s="424"/>
-      <c r="Q2" s="424"/>
-      <c r="R2" s="425"/>
-      <c r="S2" s="432"/>
-      <c r="T2" s="433"/>
-      <c r="U2" s="433"/>
-      <c r="V2" s="433"/>
-      <c r="W2" s="433"/>
-      <c r="X2" s="433"/>
-      <c r="Y2" s="433"/>
-      <c r="Z2" s="434"/>
-      <c r="AA2" s="411" t="s">
+      <c r="B2" s="386"/>
+      <c r="C2" s="386"/>
+      <c r="D2" s="387"/>
+      <c r="E2" s="388"/>
+      <c r="F2" s="389"/>
+      <c r="G2" s="389"/>
+      <c r="H2" s="389"/>
+      <c r="I2" s="389"/>
+      <c r="J2" s="389"/>
+      <c r="K2" s="389"/>
+      <c r="L2" s="389"/>
+      <c r="M2" s="389"/>
+      <c r="N2" s="390"/>
+      <c r="O2" s="397"/>
+      <c r="P2" s="398"/>
+      <c r="Q2" s="398"/>
+      <c r="R2" s="399"/>
+      <c r="S2" s="406"/>
+      <c r="T2" s="407"/>
+      <c r="U2" s="407"/>
+      <c r="V2" s="407"/>
+      <c r="W2" s="407"/>
+      <c r="X2" s="407"/>
+      <c r="Y2" s="407"/>
+      <c r="Z2" s="408"/>
+      <c r="AA2" s="385" t="s">
         <v>124</v>
       </c>
-      <c r="AB2" s="413"/>
-      <c r="AC2" s="417" t="str">
+      <c r="AB2" s="387"/>
+      <c r="AC2" s="391" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="418"/>
-      <c r="AE2" s="418"/>
-      <c r="AF2" s="419"/>
-      <c r="AG2" s="405" t="str">
+      <c r="AD2" s="392"/>
+      <c r="AE2" s="392"/>
+      <c r="AF2" s="393"/>
+      <c r="AG2" s="379" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="406"/>
-      <c r="AI2" s="407"/>
+      <c r="AH2" s="380"/>
+      <c r="AI2" s="381"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -7511,43 +7519,43 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="411" t="s">
+      <c r="A3" s="385" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="412"/>
-      <c r="C3" s="412"/>
-      <c r="D3" s="413"/>
-      <c r="E3" s="414"/>
-      <c r="F3" s="415"/>
-      <c r="G3" s="415"/>
-      <c r="H3" s="415"/>
-      <c r="I3" s="415"/>
-      <c r="J3" s="415"/>
-      <c r="K3" s="415"/>
-      <c r="L3" s="415"/>
-      <c r="M3" s="415"/>
-      <c r="N3" s="416"/>
-      <c r="O3" s="426"/>
-      <c r="P3" s="427"/>
-      <c r="Q3" s="427"/>
-      <c r="R3" s="428"/>
-      <c r="S3" s="435"/>
-      <c r="T3" s="436"/>
-      <c r="U3" s="436"/>
-      <c r="V3" s="436"/>
-      <c r="W3" s="436"/>
-      <c r="X3" s="436"/>
-      <c r="Y3" s="436"/>
-      <c r="Z3" s="437"/>
-      <c r="AA3" s="411"/>
-      <c r="AB3" s="413"/>
-      <c r="AC3" s="438"/>
-      <c r="AD3" s="439"/>
-      <c r="AE3" s="439"/>
-      <c r="AF3" s="440"/>
-      <c r="AG3" s="405"/>
-      <c r="AH3" s="406"/>
-      <c r="AI3" s="407"/>
+      <c r="B3" s="386"/>
+      <c r="C3" s="386"/>
+      <c r="D3" s="387"/>
+      <c r="E3" s="388"/>
+      <c r="F3" s="389"/>
+      <c r="G3" s="389"/>
+      <c r="H3" s="389"/>
+      <c r="I3" s="389"/>
+      <c r="J3" s="389"/>
+      <c r="K3" s="389"/>
+      <c r="L3" s="389"/>
+      <c r="M3" s="389"/>
+      <c r="N3" s="390"/>
+      <c r="O3" s="400"/>
+      <c r="P3" s="401"/>
+      <c r="Q3" s="401"/>
+      <c r="R3" s="402"/>
+      <c r="S3" s="409"/>
+      <c r="T3" s="410"/>
+      <c r="U3" s="410"/>
+      <c r="V3" s="410"/>
+      <c r="W3" s="410"/>
+      <c r="X3" s="410"/>
+      <c r="Y3" s="410"/>
+      <c r="Z3" s="411"/>
+      <c r="AA3" s="385"/>
+      <c r="AB3" s="387"/>
+      <c r="AC3" s="412"/>
+      <c r="AD3" s="413"/>
+      <c r="AE3" s="413"/>
+      <c r="AF3" s="414"/>
+      <c r="AG3" s="379"/>
+      <c r="AH3" s="380"/>
+      <c r="AI3" s="381"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -7584,1034 +7592,1190 @@
       <c r="A7" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="408" t="s">
+      <c r="B7" s="382" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="409"/>
-      <c r="D7" s="408" t="s">
+      <c r="C7" s="383"/>
+      <c r="D7" s="382" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="410"/>
-      <c r="F7" s="409"/>
-      <c r="G7" s="408" t="s">
+      <c r="E7" s="384"/>
+      <c r="F7" s="383"/>
+      <c r="G7" s="382" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="410"/>
-      <c r="I7" s="409"/>
-      <c r="J7" s="408" t="s">
+      <c r="H7" s="384"/>
+      <c r="I7" s="383"/>
+      <c r="J7" s="382" t="s">
         <v>130</v>
       </c>
-      <c r="K7" s="410"/>
-      <c r="L7" s="410"/>
-      <c r="M7" s="410"/>
-      <c r="N7" s="410"/>
-      <c r="O7" s="410"/>
-      <c r="P7" s="409"/>
-      <c r="Q7" s="408" t="s">
+      <c r="K7" s="384"/>
+      <c r="L7" s="384"/>
+      <c r="M7" s="384"/>
+      <c r="N7" s="384"/>
+      <c r="O7" s="384"/>
+      <c r="P7" s="383"/>
+      <c r="Q7" s="382" t="s">
         <v>131</v>
       </c>
-      <c r="R7" s="410"/>
-      <c r="S7" s="410"/>
-      <c r="T7" s="410"/>
-      <c r="U7" s="410"/>
-      <c r="V7" s="410"/>
-      <c r="W7" s="410"/>
-      <c r="X7" s="410"/>
-      <c r="Y7" s="410"/>
-      <c r="Z7" s="410"/>
-      <c r="AA7" s="410"/>
-      <c r="AB7" s="410"/>
-      <c r="AC7" s="410"/>
-      <c r="AD7" s="410"/>
-      <c r="AE7" s="409"/>
-      <c r="AF7" s="408" t="s">
+      <c r="R7" s="384"/>
+      <c r="S7" s="384"/>
+      <c r="T7" s="384"/>
+      <c r="U7" s="384"/>
+      <c r="V7" s="384"/>
+      <c r="W7" s="384"/>
+      <c r="X7" s="384"/>
+      <c r="Y7" s="384"/>
+      <c r="Z7" s="384"/>
+      <c r="AA7" s="384"/>
+      <c r="AB7" s="384"/>
+      <c r="AC7" s="384"/>
+      <c r="AD7" s="384"/>
+      <c r="AE7" s="383"/>
+      <c r="AF7" s="382" t="s">
         <v>132</v>
       </c>
-      <c r="AG7" s="410"/>
-      <c r="AH7" s="410"/>
-      <c r="AI7" s="409"/>
+      <c r="AG7" s="384"/>
+      <c r="AH7" s="384"/>
+      <c r="AI7" s="383"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="392" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="393"/>
-      <c r="D8" s="394">
+      <c r="B8" s="427" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="428"/>
+      <c r="D8" s="429">
         <v>43737</v>
       </c>
-      <c r="E8" s="395"/>
-      <c r="F8" s="396"/>
-      <c r="G8" s="397" t="s">
-        <v>171</v>
-      </c>
-      <c r="H8" s="398"/>
-      <c r="I8" s="393"/>
-      <c r="J8" s="399" t="s">
+      <c r="E8" s="430"/>
+      <c r="F8" s="431"/>
+      <c r="G8" s="432" t="s">
         <v>172</v>
       </c>
-      <c r="K8" s="400"/>
-      <c r="L8" s="400"/>
-      <c r="M8" s="400"/>
-      <c r="N8" s="400"/>
-      <c r="O8" s="400"/>
-      <c r="P8" s="401"/>
-      <c r="Q8" s="402" t="s">
+      <c r="H8" s="433"/>
+      <c r="I8" s="428"/>
+      <c r="J8" s="434" t="s">
         <v>173</v>
       </c>
-      <c r="R8" s="403"/>
-      <c r="S8" s="403"/>
-      <c r="T8" s="403"/>
-      <c r="U8" s="403"/>
-      <c r="V8" s="403"/>
-      <c r="W8" s="403"/>
-      <c r="X8" s="403"/>
-      <c r="Y8" s="403"/>
-      <c r="Z8" s="403"/>
-      <c r="AA8" s="403"/>
-      <c r="AB8" s="403"/>
-      <c r="AC8" s="403"/>
-      <c r="AD8" s="403"/>
-      <c r="AE8" s="404"/>
-      <c r="AF8" s="399" t="s">
+      <c r="K8" s="435"/>
+      <c r="L8" s="435"/>
+      <c r="M8" s="435"/>
+      <c r="N8" s="435"/>
+      <c r="O8" s="435"/>
+      <c r="P8" s="436"/>
+      <c r="Q8" s="437" t="s">
         <v>174</v>
       </c>
-      <c r="AG8" s="400"/>
-      <c r="AH8" s="400"/>
-      <c r="AI8" s="401"/>
+      <c r="R8" s="438"/>
+      <c r="S8" s="438"/>
+      <c r="T8" s="438"/>
+      <c r="U8" s="438"/>
+      <c r="V8" s="438"/>
+      <c r="W8" s="438"/>
+      <c r="X8" s="438"/>
+      <c r="Y8" s="438"/>
+      <c r="Z8" s="438"/>
+      <c r="AA8" s="438"/>
+      <c r="AB8" s="438"/>
+      <c r="AC8" s="438"/>
+      <c r="AD8" s="438"/>
+      <c r="AE8" s="439"/>
+      <c r="AF8" s="434" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG8" s="435"/>
+      <c r="AH8" s="435"/>
+      <c r="AI8" s="436"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="379"/>
-      <c r="C9" s="380"/>
-      <c r="D9" s="381"/>
-      <c r="E9" s="382"/>
-      <c r="F9" s="383"/>
-      <c r="G9" s="381"/>
-      <c r="H9" s="384"/>
-      <c r="I9" s="380"/>
-      <c r="J9" s="385"/>
-      <c r="K9" s="386"/>
-      <c r="L9" s="386"/>
-      <c r="M9" s="386"/>
-      <c r="N9" s="386"/>
-      <c r="O9" s="386"/>
-      <c r="P9" s="387"/>
-      <c r="Q9" s="388"/>
-      <c r="R9" s="389"/>
-      <c r="S9" s="389"/>
-      <c r="T9" s="389"/>
-      <c r="U9" s="389"/>
-      <c r="V9" s="389"/>
-      <c r="W9" s="389"/>
-      <c r="X9" s="389"/>
-      <c r="Y9" s="389"/>
-      <c r="Z9" s="389"/>
-      <c r="AA9" s="389"/>
-      <c r="AB9" s="389"/>
-      <c r="AC9" s="389"/>
-      <c r="AD9" s="389"/>
-      <c r="AE9" s="390"/>
-      <c r="AF9" s="385"/>
-      <c r="AG9" s="386"/>
-      <c r="AH9" s="386"/>
-      <c r="AI9" s="387"/>
+      <c r="B9" s="415"/>
+      <c r="C9" s="416"/>
+      <c r="D9" s="417"/>
+      <c r="E9" s="418"/>
+      <c r="F9" s="419"/>
+      <c r="G9" s="417"/>
+      <c r="H9" s="420"/>
+      <c r="I9" s="416"/>
+      <c r="J9" s="421"/>
+      <c r="K9" s="422"/>
+      <c r="L9" s="422"/>
+      <c r="M9" s="422"/>
+      <c r="N9" s="422"/>
+      <c r="O9" s="422"/>
+      <c r="P9" s="423"/>
+      <c r="Q9" s="424"/>
+      <c r="R9" s="425"/>
+      <c r="S9" s="425"/>
+      <c r="T9" s="425"/>
+      <c r="U9" s="425"/>
+      <c r="V9" s="425"/>
+      <c r="W9" s="425"/>
+      <c r="X9" s="425"/>
+      <c r="Y9" s="425"/>
+      <c r="Z9" s="425"/>
+      <c r="AA9" s="425"/>
+      <c r="AB9" s="425"/>
+      <c r="AC9" s="425"/>
+      <c r="AD9" s="425"/>
+      <c r="AE9" s="426"/>
+      <c r="AF9" s="421"/>
+      <c r="AG9" s="422"/>
+      <c r="AH9" s="422"/>
+      <c r="AI9" s="423"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="379"/>
-      <c r="C10" s="380"/>
-      <c r="D10" s="381"/>
-      <c r="E10" s="382"/>
-      <c r="F10" s="383"/>
-      <c r="G10" s="379"/>
-      <c r="H10" s="384"/>
-      <c r="I10" s="380"/>
-      <c r="J10" s="385"/>
-      <c r="K10" s="386"/>
-      <c r="L10" s="386"/>
-      <c r="M10" s="386"/>
-      <c r="N10" s="386"/>
-      <c r="O10" s="386"/>
-      <c r="P10" s="387"/>
-      <c r="Q10" s="388"/>
-      <c r="R10" s="389"/>
-      <c r="S10" s="389"/>
-      <c r="T10" s="389"/>
-      <c r="U10" s="389"/>
-      <c r="V10" s="389"/>
-      <c r="W10" s="389"/>
-      <c r="X10" s="389"/>
-      <c r="Y10" s="389"/>
-      <c r="Z10" s="389"/>
-      <c r="AA10" s="389"/>
-      <c r="AB10" s="389"/>
-      <c r="AC10" s="389"/>
-      <c r="AD10" s="389"/>
-      <c r="AE10" s="390"/>
-      <c r="AF10" s="385"/>
-      <c r="AG10" s="386"/>
-      <c r="AH10" s="386"/>
-      <c r="AI10" s="387"/>
+      <c r="B10" s="415"/>
+      <c r="C10" s="416"/>
+      <c r="D10" s="417"/>
+      <c r="E10" s="418"/>
+      <c r="F10" s="419"/>
+      <c r="G10" s="415"/>
+      <c r="H10" s="420"/>
+      <c r="I10" s="416"/>
+      <c r="J10" s="421"/>
+      <c r="K10" s="422"/>
+      <c r="L10" s="422"/>
+      <c r="M10" s="422"/>
+      <c r="N10" s="422"/>
+      <c r="O10" s="422"/>
+      <c r="P10" s="423"/>
+      <c r="Q10" s="424"/>
+      <c r="R10" s="425"/>
+      <c r="S10" s="425"/>
+      <c r="T10" s="425"/>
+      <c r="U10" s="425"/>
+      <c r="V10" s="425"/>
+      <c r="W10" s="425"/>
+      <c r="X10" s="425"/>
+      <c r="Y10" s="425"/>
+      <c r="Z10" s="425"/>
+      <c r="AA10" s="425"/>
+      <c r="AB10" s="425"/>
+      <c r="AC10" s="425"/>
+      <c r="AD10" s="425"/>
+      <c r="AE10" s="426"/>
+      <c r="AF10" s="421"/>
+      <c r="AG10" s="422"/>
+      <c r="AH10" s="422"/>
+      <c r="AI10" s="423"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="379"/>
-      <c r="C11" s="380"/>
-      <c r="D11" s="381"/>
-      <c r="E11" s="382"/>
-      <c r="F11" s="383"/>
-      <c r="G11" s="379"/>
-      <c r="H11" s="384"/>
-      <c r="I11" s="380"/>
-      <c r="J11" s="385"/>
-      <c r="K11" s="386"/>
-      <c r="L11" s="386"/>
-      <c r="M11" s="386"/>
-      <c r="N11" s="386"/>
-      <c r="O11" s="386"/>
-      <c r="P11" s="387"/>
-      <c r="Q11" s="388"/>
-      <c r="R11" s="389"/>
-      <c r="S11" s="389"/>
-      <c r="T11" s="389"/>
-      <c r="U11" s="389"/>
-      <c r="V11" s="389"/>
-      <c r="W11" s="389"/>
-      <c r="X11" s="389"/>
-      <c r="Y11" s="389"/>
-      <c r="Z11" s="389"/>
-      <c r="AA11" s="389"/>
-      <c r="AB11" s="389"/>
-      <c r="AC11" s="389"/>
-      <c r="AD11" s="389"/>
-      <c r="AE11" s="390"/>
-      <c r="AF11" s="385"/>
-      <c r="AG11" s="386"/>
-      <c r="AH11" s="386"/>
-      <c r="AI11" s="387"/>
+      <c r="B11" s="415"/>
+      <c r="C11" s="416"/>
+      <c r="D11" s="417"/>
+      <c r="E11" s="418"/>
+      <c r="F11" s="419"/>
+      <c r="G11" s="415"/>
+      <c r="H11" s="420"/>
+      <c r="I11" s="416"/>
+      <c r="J11" s="421"/>
+      <c r="K11" s="422"/>
+      <c r="L11" s="422"/>
+      <c r="M11" s="422"/>
+      <c r="N11" s="422"/>
+      <c r="O11" s="422"/>
+      <c r="P11" s="423"/>
+      <c r="Q11" s="424"/>
+      <c r="R11" s="425"/>
+      <c r="S11" s="425"/>
+      <c r="T11" s="425"/>
+      <c r="U11" s="425"/>
+      <c r="V11" s="425"/>
+      <c r="W11" s="425"/>
+      <c r="X11" s="425"/>
+      <c r="Y11" s="425"/>
+      <c r="Z11" s="425"/>
+      <c r="AA11" s="425"/>
+      <c r="AB11" s="425"/>
+      <c r="AC11" s="425"/>
+      <c r="AD11" s="425"/>
+      <c r="AE11" s="426"/>
+      <c r="AF11" s="421"/>
+      <c r="AG11" s="422"/>
+      <c r="AH11" s="422"/>
+      <c r="AI11" s="423"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="379"/>
-      <c r="C12" s="380"/>
-      <c r="D12" s="381"/>
-      <c r="E12" s="382"/>
-      <c r="F12" s="383"/>
-      <c r="G12" s="379"/>
-      <c r="H12" s="384"/>
-      <c r="I12" s="380"/>
-      <c r="J12" s="385"/>
-      <c r="K12" s="386"/>
-      <c r="L12" s="386"/>
-      <c r="M12" s="386"/>
-      <c r="N12" s="386"/>
-      <c r="O12" s="386"/>
-      <c r="P12" s="387"/>
-      <c r="Q12" s="388"/>
-      <c r="R12" s="389"/>
-      <c r="S12" s="389"/>
-      <c r="T12" s="389"/>
-      <c r="U12" s="389"/>
-      <c r="V12" s="389"/>
-      <c r="W12" s="389"/>
-      <c r="X12" s="389"/>
-      <c r="Y12" s="389"/>
-      <c r="Z12" s="389"/>
-      <c r="AA12" s="389"/>
-      <c r="AB12" s="389"/>
-      <c r="AC12" s="389"/>
-      <c r="AD12" s="389"/>
-      <c r="AE12" s="390"/>
-      <c r="AF12" s="385"/>
-      <c r="AG12" s="386"/>
-      <c r="AH12" s="386"/>
-      <c r="AI12" s="387"/>
+      <c r="B12" s="415"/>
+      <c r="C12" s="416"/>
+      <c r="D12" s="417"/>
+      <c r="E12" s="418"/>
+      <c r="F12" s="419"/>
+      <c r="G12" s="415"/>
+      <c r="H12" s="420"/>
+      <c r="I12" s="416"/>
+      <c r="J12" s="421"/>
+      <c r="K12" s="422"/>
+      <c r="L12" s="422"/>
+      <c r="M12" s="422"/>
+      <c r="N12" s="422"/>
+      <c r="O12" s="422"/>
+      <c r="P12" s="423"/>
+      <c r="Q12" s="424"/>
+      <c r="R12" s="425"/>
+      <c r="S12" s="425"/>
+      <c r="T12" s="425"/>
+      <c r="U12" s="425"/>
+      <c r="V12" s="425"/>
+      <c r="W12" s="425"/>
+      <c r="X12" s="425"/>
+      <c r="Y12" s="425"/>
+      <c r="Z12" s="425"/>
+      <c r="AA12" s="425"/>
+      <c r="AB12" s="425"/>
+      <c r="AC12" s="425"/>
+      <c r="AD12" s="425"/>
+      <c r="AE12" s="426"/>
+      <c r="AF12" s="421"/>
+      <c r="AG12" s="422"/>
+      <c r="AH12" s="422"/>
+      <c r="AI12" s="423"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="379"/>
-      <c r="C13" s="380"/>
-      <c r="D13" s="381"/>
-      <c r="E13" s="382"/>
-      <c r="F13" s="383"/>
-      <c r="G13" s="379"/>
-      <c r="H13" s="384"/>
-      <c r="I13" s="380"/>
-      <c r="J13" s="385"/>
-      <c r="K13" s="386"/>
-      <c r="L13" s="386"/>
-      <c r="M13" s="386"/>
-      <c r="N13" s="386"/>
-      <c r="O13" s="386"/>
-      <c r="P13" s="387"/>
-      <c r="Q13" s="388"/>
-      <c r="R13" s="389"/>
-      <c r="S13" s="389"/>
-      <c r="T13" s="389"/>
-      <c r="U13" s="389"/>
-      <c r="V13" s="389"/>
-      <c r="W13" s="389"/>
-      <c r="X13" s="389"/>
-      <c r="Y13" s="389"/>
-      <c r="Z13" s="389"/>
-      <c r="AA13" s="389"/>
-      <c r="AB13" s="389"/>
-      <c r="AC13" s="389"/>
-      <c r="AD13" s="389"/>
-      <c r="AE13" s="390"/>
-      <c r="AF13" s="385"/>
-      <c r="AG13" s="386"/>
-      <c r="AH13" s="386"/>
-      <c r="AI13" s="387"/>
+      <c r="B13" s="415"/>
+      <c r="C13" s="416"/>
+      <c r="D13" s="417"/>
+      <c r="E13" s="418"/>
+      <c r="F13" s="419"/>
+      <c r="G13" s="415"/>
+      <c r="H13" s="420"/>
+      <c r="I13" s="416"/>
+      <c r="J13" s="421"/>
+      <c r="K13" s="422"/>
+      <c r="L13" s="422"/>
+      <c r="M13" s="422"/>
+      <c r="N13" s="422"/>
+      <c r="O13" s="422"/>
+      <c r="P13" s="423"/>
+      <c r="Q13" s="424"/>
+      <c r="R13" s="425"/>
+      <c r="S13" s="425"/>
+      <c r="T13" s="425"/>
+      <c r="U13" s="425"/>
+      <c r="V13" s="425"/>
+      <c r="W13" s="425"/>
+      <c r="X13" s="425"/>
+      <c r="Y13" s="425"/>
+      <c r="Z13" s="425"/>
+      <c r="AA13" s="425"/>
+      <c r="AB13" s="425"/>
+      <c r="AC13" s="425"/>
+      <c r="AD13" s="425"/>
+      <c r="AE13" s="426"/>
+      <c r="AF13" s="421"/>
+      <c r="AG13" s="422"/>
+      <c r="AH13" s="422"/>
+      <c r="AI13" s="423"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="379"/>
-      <c r="C14" s="380"/>
-      <c r="D14" s="381"/>
-      <c r="E14" s="382"/>
-      <c r="F14" s="383"/>
-      <c r="G14" s="379"/>
-      <c r="H14" s="384"/>
-      <c r="I14" s="380"/>
-      <c r="J14" s="385"/>
-      <c r="K14" s="386"/>
-      <c r="L14" s="386"/>
-      <c r="M14" s="386"/>
-      <c r="N14" s="386"/>
-      <c r="O14" s="386"/>
-      <c r="P14" s="387"/>
-      <c r="Q14" s="388"/>
-      <c r="R14" s="389"/>
-      <c r="S14" s="389"/>
-      <c r="T14" s="389"/>
-      <c r="U14" s="389"/>
-      <c r="V14" s="389"/>
-      <c r="W14" s="389"/>
-      <c r="X14" s="389"/>
-      <c r="Y14" s="389"/>
-      <c r="Z14" s="389"/>
-      <c r="AA14" s="389"/>
-      <c r="AB14" s="389"/>
-      <c r="AC14" s="389"/>
-      <c r="AD14" s="389"/>
-      <c r="AE14" s="390"/>
-      <c r="AF14" s="385"/>
-      <c r="AG14" s="386"/>
-      <c r="AH14" s="386"/>
-      <c r="AI14" s="387"/>
+      <c r="B14" s="415"/>
+      <c r="C14" s="416"/>
+      <c r="D14" s="417"/>
+      <c r="E14" s="418"/>
+      <c r="F14" s="419"/>
+      <c r="G14" s="415"/>
+      <c r="H14" s="420"/>
+      <c r="I14" s="416"/>
+      <c r="J14" s="421"/>
+      <c r="K14" s="422"/>
+      <c r="L14" s="422"/>
+      <c r="M14" s="422"/>
+      <c r="N14" s="422"/>
+      <c r="O14" s="422"/>
+      <c r="P14" s="423"/>
+      <c r="Q14" s="424"/>
+      <c r="R14" s="425"/>
+      <c r="S14" s="425"/>
+      <c r="T14" s="425"/>
+      <c r="U14" s="425"/>
+      <c r="V14" s="425"/>
+      <c r="W14" s="425"/>
+      <c r="X14" s="425"/>
+      <c r="Y14" s="425"/>
+      <c r="Z14" s="425"/>
+      <c r="AA14" s="425"/>
+      <c r="AB14" s="425"/>
+      <c r="AC14" s="425"/>
+      <c r="AD14" s="425"/>
+      <c r="AE14" s="426"/>
+      <c r="AF14" s="421"/>
+      <c r="AG14" s="422"/>
+      <c r="AH14" s="422"/>
+      <c r="AI14" s="423"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="379"/>
-      <c r="C15" s="380"/>
-      <c r="D15" s="381"/>
-      <c r="E15" s="382"/>
-      <c r="F15" s="383"/>
-      <c r="G15" s="379"/>
-      <c r="H15" s="384"/>
-      <c r="I15" s="380"/>
-      <c r="J15" s="385"/>
-      <c r="K15" s="386"/>
-      <c r="L15" s="386"/>
-      <c r="M15" s="386"/>
-      <c r="N15" s="386"/>
-      <c r="O15" s="386"/>
-      <c r="P15" s="387"/>
-      <c r="Q15" s="388"/>
-      <c r="R15" s="389"/>
-      <c r="S15" s="389"/>
-      <c r="T15" s="389"/>
-      <c r="U15" s="389"/>
-      <c r="V15" s="389"/>
-      <c r="W15" s="389"/>
-      <c r="X15" s="389"/>
-      <c r="Y15" s="389"/>
-      <c r="Z15" s="389"/>
-      <c r="AA15" s="389"/>
-      <c r="AB15" s="389"/>
-      <c r="AC15" s="389"/>
-      <c r="AD15" s="389"/>
-      <c r="AE15" s="390"/>
-      <c r="AF15" s="385"/>
-      <c r="AG15" s="386"/>
-      <c r="AH15" s="386"/>
-      <c r="AI15" s="387"/>
+      <c r="B15" s="415"/>
+      <c r="C15" s="416"/>
+      <c r="D15" s="417"/>
+      <c r="E15" s="418"/>
+      <c r="F15" s="419"/>
+      <c r="G15" s="415"/>
+      <c r="H15" s="420"/>
+      <c r="I15" s="416"/>
+      <c r="J15" s="421"/>
+      <c r="K15" s="422"/>
+      <c r="L15" s="422"/>
+      <c r="M15" s="422"/>
+      <c r="N15" s="422"/>
+      <c r="O15" s="422"/>
+      <c r="P15" s="423"/>
+      <c r="Q15" s="424"/>
+      <c r="R15" s="425"/>
+      <c r="S15" s="425"/>
+      <c r="T15" s="425"/>
+      <c r="U15" s="425"/>
+      <c r="V15" s="425"/>
+      <c r="W15" s="425"/>
+      <c r="X15" s="425"/>
+      <c r="Y15" s="425"/>
+      <c r="Z15" s="425"/>
+      <c r="AA15" s="425"/>
+      <c r="AB15" s="425"/>
+      <c r="AC15" s="425"/>
+      <c r="AD15" s="425"/>
+      <c r="AE15" s="426"/>
+      <c r="AF15" s="421"/>
+      <c r="AG15" s="422"/>
+      <c r="AH15" s="422"/>
+      <c r="AI15" s="423"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="379"/>
-      <c r="C16" s="380"/>
-      <c r="D16" s="381"/>
-      <c r="E16" s="382"/>
-      <c r="F16" s="383"/>
-      <c r="G16" s="379"/>
-      <c r="H16" s="384"/>
-      <c r="I16" s="380"/>
-      <c r="J16" s="385"/>
-      <c r="K16" s="386"/>
-      <c r="L16" s="386"/>
-      <c r="M16" s="386"/>
-      <c r="N16" s="386"/>
-      <c r="O16" s="386"/>
-      <c r="P16" s="387"/>
-      <c r="Q16" s="388"/>
-      <c r="R16" s="389"/>
-      <c r="S16" s="389"/>
-      <c r="T16" s="389"/>
-      <c r="U16" s="389"/>
-      <c r="V16" s="389"/>
-      <c r="W16" s="389"/>
-      <c r="X16" s="389"/>
-      <c r="Y16" s="389"/>
-      <c r="Z16" s="389"/>
-      <c r="AA16" s="389"/>
-      <c r="AB16" s="389"/>
-      <c r="AC16" s="389"/>
-      <c r="AD16" s="389"/>
-      <c r="AE16" s="390"/>
-      <c r="AF16" s="385"/>
-      <c r="AG16" s="386"/>
-      <c r="AH16" s="386"/>
-      <c r="AI16" s="387"/>
+      <c r="B16" s="415"/>
+      <c r="C16" s="416"/>
+      <c r="D16" s="417"/>
+      <c r="E16" s="418"/>
+      <c r="F16" s="419"/>
+      <c r="G16" s="415"/>
+      <c r="H16" s="420"/>
+      <c r="I16" s="416"/>
+      <c r="J16" s="421"/>
+      <c r="K16" s="422"/>
+      <c r="L16" s="422"/>
+      <c r="M16" s="422"/>
+      <c r="N16" s="422"/>
+      <c r="O16" s="422"/>
+      <c r="P16" s="423"/>
+      <c r="Q16" s="424"/>
+      <c r="R16" s="425"/>
+      <c r="S16" s="425"/>
+      <c r="T16" s="425"/>
+      <c r="U16" s="425"/>
+      <c r="V16" s="425"/>
+      <c r="W16" s="425"/>
+      <c r="X16" s="425"/>
+      <c r="Y16" s="425"/>
+      <c r="Z16" s="425"/>
+      <c r="AA16" s="425"/>
+      <c r="AB16" s="425"/>
+      <c r="AC16" s="425"/>
+      <c r="AD16" s="425"/>
+      <c r="AE16" s="426"/>
+      <c r="AF16" s="421"/>
+      <c r="AG16" s="422"/>
+      <c r="AH16" s="422"/>
+      <c r="AI16" s="423"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="379"/>
-      <c r="C17" s="380"/>
-      <c r="D17" s="381"/>
-      <c r="E17" s="382"/>
-      <c r="F17" s="383"/>
-      <c r="G17" s="379"/>
-      <c r="H17" s="384"/>
-      <c r="I17" s="380"/>
-      <c r="J17" s="385"/>
-      <c r="K17" s="386"/>
-      <c r="L17" s="386"/>
-      <c r="M17" s="386"/>
-      <c r="N17" s="386"/>
-      <c r="O17" s="386"/>
-      <c r="P17" s="387"/>
-      <c r="Q17" s="388"/>
-      <c r="R17" s="389"/>
-      <c r="S17" s="389"/>
-      <c r="T17" s="389"/>
-      <c r="U17" s="389"/>
-      <c r="V17" s="389"/>
-      <c r="W17" s="389"/>
-      <c r="X17" s="389"/>
-      <c r="Y17" s="389"/>
-      <c r="Z17" s="389"/>
-      <c r="AA17" s="389"/>
-      <c r="AB17" s="389"/>
-      <c r="AC17" s="389"/>
-      <c r="AD17" s="389"/>
-      <c r="AE17" s="390"/>
-      <c r="AF17" s="385"/>
-      <c r="AG17" s="386"/>
-      <c r="AH17" s="386"/>
-      <c r="AI17" s="387"/>
+      <c r="B17" s="415"/>
+      <c r="C17" s="416"/>
+      <c r="D17" s="417"/>
+      <c r="E17" s="418"/>
+      <c r="F17" s="419"/>
+      <c r="G17" s="415"/>
+      <c r="H17" s="420"/>
+      <c r="I17" s="416"/>
+      <c r="J17" s="421"/>
+      <c r="K17" s="422"/>
+      <c r="L17" s="422"/>
+      <c r="M17" s="422"/>
+      <c r="N17" s="422"/>
+      <c r="O17" s="422"/>
+      <c r="P17" s="423"/>
+      <c r="Q17" s="424"/>
+      <c r="R17" s="425"/>
+      <c r="S17" s="425"/>
+      <c r="T17" s="425"/>
+      <c r="U17" s="425"/>
+      <c r="V17" s="425"/>
+      <c r="W17" s="425"/>
+      <c r="X17" s="425"/>
+      <c r="Y17" s="425"/>
+      <c r="Z17" s="425"/>
+      <c r="AA17" s="425"/>
+      <c r="AB17" s="425"/>
+      <c r="AC17" s="425"/>
+      <c r="AD17" s="425"/>
+      <c r="AE17" s="426"/>
+      <c r="AF17" s="421"/>
+      <c r="AG17" s="422"/>
+      <c r="AH17" s="422"/>
+      <c r="AI17" s="423"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="379"/>
-      <c r="C18" s="380"/>
-      <c r="D18" s="381"/>
-      <c r="E18" s="382"/>
-      <c r="F18" s="383"/>
-      <c r="G18" s="379"/>
-      <c r="H18" s="384"/>
-      <c r="I18" s="380"/>
-      <c r="J18" s="385"/>
-      <c r="K18" s="386"/>
-      <c r="L18" s="386"/>
-      <c r="M18" s="386"/>
-      <c r="N18" s="386"/>
-      <c r="O18" s="386"/>
-      <c r="P18" s="387"/>
-      <c r="Q18" s="388"/>
-      <c r="R18" s="389"/>
-      <c r="S18" s="389"/>
-      <c r="T18" s="389"/>
-      <c r="U18" s="389"/>
-      <c r="V18" s="389"/>
-      <c r="W18" s="389"/>
-      <c r="X18" s="389"/>
-      <c r="Y18" s="389"/>
-      <c r="Z18" s="389"/>
-      <c r="AA18" s="389"/>
-      <c r="AB18" s="389"/>
-      <c r="AC18" s="389"/>
-      <c r="AD18" s="389"/>
-      <c r="AE18" s="390"/>
-      <c r="AF18" s="385"/>
-      <c r="AG18" s="386"/>
-      <c r="AH18" s="386"/>
-      <c r="AI18" s="387"/>
+      <c r="B18" s="415"/>
+      <c r="C18" s="416"/>
+      <c r="D18" s="417"/>
+      <c r="E18" s="418"/>
+      <c r="F18" s="419"/>
+      <c r="G18" s="415"/>
+      <c r="H18" s="420"/>
+      <c r="I18" s="416"/>
+      <c r="J18" s="421"/>
+      <c r="K18" s="422"/>
+      <c r="L18" s="422"/>
+      <c r="M18" s="422"/>
+      <c r="N18" s="422"/>
+      <c r="O18" s="422"/>
+      <c r="P18" s="423"/>
+      <c r="Q18" s="424"/>
+      <c r="R18" s="425"/>
+      <c r="S18" s="425"/>
+      <c r="T18" s="425"/>
+      <c r="U18" s="425"/>
+      <c r="V18" s="425"/>
+      <c r="W18" s="425"/>
+      <c r="X18" s="425"/>
+      <c r="Y18" s="425"/>
+      <c r="Z18" s="425"/>
+      <c r="AA18" s="425"/>
+      <c r="AB18" s="425"/>
+      <c r="AC18" s="425"/>
+      <c r="AD18" s="425"/>
+      <c r="AE18" s="426"/>
+      <c r="AF18" s="421"/>
+      <c r="AG18" s="422"/>
+      <c r="AH18" s="422"/>
+      <c r="AI18" s="423"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="379"/>
-      <c r="C19" s="380"/>
-      <c r="D19" s="381"/>
-      <c r="E19" s="382"/>
-      <c r="F19" s="383"/>
-      <c r="G19" s="379"/>
-      <c r="H19" s="384"/>
-      <c r="I19" s="380"/>
-      <c r="J19" s="385"/>
-      <c r="K19" s="386"/>
-      <c r="L19" s="386"/>
-      <c r="M19" s="386"/>
-      <c r="N19" s="386"/>
-      <c r="O19" s="386"/>
-      <c r="P19" s="387"/>
-      <c r="Q19" s="388"/>
-      <c r="R19" s="389"/>
-      <c r="S19" s="389"/>
-      <c r="T19" s="389"/>
-      <c r="U19" s="389"/>
-      <c r="V19" s="389"/>
-      <c r="W19" s="389"/>
-      <c r="X19" s="389"/>
-      <c r="Y19" s="389"/>
-      <c r="Z19" s="389"/>
-      <c r="AA19" s="389"/>
-      <c r="AB19" s="389"/>
-      <c r="AC19" s="389"/>
-      <c r="AD19" s="389"/>
-      <c r="AE19" s="390"/>
-      <c r="AF19" s="385"/>
-      <c r="AG19" s="386"/>
-      <c r="AH19" s="386"/>
-      <c r="AI19" s="387"/>
+      <c r="B19" s="415"/>
+      <c r="C19" s="416"/>
+      <c r="D19" s="417"/>
+      <c r="E19" s="418"/>
+      <c r="F19" s="419"/>
+      <c r="G19" s="415"/>
+      <c r="H19" s="420"/>
+      <c r="I19" s="416"/>
+      <c r="J19" s="421"/>
+      <c r="K19" s="422"/>
+      <c r="L19" s="422"/>
+      <c r="M19" s="422"/>
+      <c r="N19" s="422"/>
+      <c r="O19" s="422"/>
+      <c r="P19" s="423"/>
+      <c r="Q19" s="424"/>
+      <c r="R19" s="425"/>
+      <c r="S19" s="425"/>
+      <c r="T19" s="425"/>
+      <c r="U19" s="425"/>
+      <c r="V19" s="425"/>
+      <c r="W19" s="425"/>
+      <c r="X19" s="425"/>
+      <c r="Y19" s="425"/>
+      <c r="Z19" s="425"/>
+      <c r="AA19" s="425"/>
+      <c r="AB19" s="425"/>
+      <c r="AC19" s="425"/>
+      <c r="AD19" s="425"/>
+      <c r="AE19" s="426"/>
+      <c r="AF19" s="421"/>
+      <c r="AG19" s="422"/>
+      <c r="AH19" s="422"/>
+      <c r="AI19" s="423"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="379"/>
-      <c r="C20" s="380"/>
-      <c r="D20" s="381"/>
-      <c r="E20" s="382"/>
-      <c r="F20" s="383"/>
-      <c r="G20" s="379"/>
-      <c r="H20" s="384"/>
-      <c r="I20" s="380"/>
-      <c r="J20" s="385"/>
-      <c r="K20" s="386"/>
-      <c r="L20" s="386"/>
-      <c r="M20" s="386"/>
-      <c r="N20" s="386"/>
-      <c r="O20" s="386"/>
-      <c r="P20" s="387"/>
-      <c r="Q20" s="388"/>
-      <c r="R20" s="389"/>
-      <c r="S20" s="389"/>
-      <c r="T20" s="389"/>
-      <c r="U20" s="389"/>
-      <c r="V20" s="389"/>
-      <c r="W20" s="389"/>
-      <c r="X20" s="389"/>
-      <c r="Y20" s="389"/>
-      <c r="Z20" s="389"/>
-      <c r="AA20" s="389"/>
-      <c r="AB20" s="389"/>
-      <c r="AC20" s="389"/>
-      <c r="AD20" s="389"/>
-      <c r="AE20" s="390"/>
-      <c r="AF20" s="385"/>
-      <c r="AG20" s="386"/>
-      <c r="AH20" s="386"/>
-      <c r="AI20" s="387"/>
+      <c r="B20" s="415"/>
+      <c r="C20" s="416"/>
+      <c r="D20" s="417"/>
+      <c r="E20" s="418"/>
+      <c r="F20" s="419"/>
+      <c r="G20" s="415"/>
+      <c r="H20" s="420"/>
+      <c r="I20" s="416"/>
+      <c r="J20" s="421"/>
+      <c r="K20" s="422"/>
+      <c r="L20" s="422"/>
+      <c r="M20" s="422"/>
+      <c r="N20" s="422"/>
+      <c r="O20" s="422"/>
+      <c r="P20" s="423"/>
+      <c r="Q20" s="424"/>
+      <c r="R20" s="425"/>
+      <c r="S20" s="425"/>
+      <c r="T20" s="425"/>
+      <c r="U20" s="425"/>
+      <c r="V20" s="425"/>
+      <c r="W20" s="425"/>
+      <c r="X20" s="425"/>
+      <c r="Y20" s="425"/>
+      <c r="Z20" s="425"/>
+      <c r="AA20" s="425"/>
+      <c r="AB20" s="425"/>
+      <c r="AC20" s="425"/>
+      <c r="AD20" s="425"/>
+      <c r="AE20" s="426"/>
+      <c r="AF20" s="421"/>
+      <c r="AG20" s="422"/>
+      <c r="AH20" s="422"/>
+      <c r="AI20" s="423"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="379"/>
-      <c r="C21" s="380"/>
-      <c r="D21" s="381"/>
-      <c r="E21" s="382"/>
-      <c r="F21" s="383"/>
-      <c r="G21" s="379"/>
-      <c r="H21" s="384"/>
-      <c r="I21" s="380"/>
-      <c r="J21" s="385"/>
-      <c r="K21" s="386"/>
-      <c r="L21" s="386"/>
-      <c r="M21" s="386"/>
-      <c r="N21" s="386"/>
-      <c r="O21" s="386"/>
-      <c r="P21" s="387"/>
-      <c r="Q21" s="388"/>
-      <c r="R21" s="389"/>
-      <c r="S21" s="389"/>
-      <c r="T21" s="389"/>
-      <c r="U21" s="389"/>
-      <c r="V21" s="389"/>
-      <c r="W21" s="389"/>
-      <c r="X21" s="389"/>
-      <c r="Y21" s="389"/>
-      <c r="Z21" s="389"/>
-      <c r="AA21" s="389"/>
-      <c r="AB21" s="389"/>
-      <c r="AC21" s="389"/>
-      <c r="AD21" s="389"/>
-      <c r="AE21" s="390"/>
-      <c r="AF21" s="385"/>
-      <c r="AG21" s="386"/>
-      <c r="AH21" s="386"/>
-      <c r="AI21" s="387"/>
+      <c r="B21" s="415"/>
+      <c r="C21" s="416"/>
+      <c r="D21" s="417"/>
+      <c r="E21" s="418"/>
+      <c r="F21" s="419"/>
+      <c r="G21" s="415"/>
+      <c r="H21" s="420"/>
+      <c r="I21" s="416"/>
+      <c r="J21" s="421"/>
+      <c r="K21" s="422"/>
+      <c r="L21" s="422"/>
+      <c r="M21" s="422"/>
+      <c r="N21" s="422"/>
+      <c r="O21" s="422"/>
+      <c r="P21" s="423"/>
+      <c r="Q21" s="424"/>
+      <c r="R21" s="425"/>
+      <c r="S21" s="425"/>
+      <c r="T21" s="425"/>
+      <c r="U21" s="425"/>
+      <c r="V21" s="425"/>
+      <c r="W21" s="425"/>
+      <c r="X21" s="425"/>
+      <c r="Y21" s="425"/>
+      <c r="Z21" s="425"/>
+      <c r="AA21" s="425"/>
+      <c r="AB21" s="425"/>
+      <c r="AC21" s="425"/>
+      <c r="AD21" s="425"/>
+      <c r="AE21" s="426"/>
+      <c r="AF21" s="421"/>
+      <c r="AG21" s="422"/>
+      <c r="AH21" s="422"/>
+      <c r="AI21" s="423"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="379"/>
-      <c r="C22" s="380"/>
-      <c r="D22" s="381"/>
-      <c r="E22" s="382"/>
-      <c r="F22" s="383"/>
-      <c r="G22" s="379"/>
-      <c r="H22" s="384"/>
-      <c r="I22" s="380"/>
-      <c r="J22" s="385"/>
-      <c r="K22" s="386"/>
-      <c r="L22" s="386"/>
-      <c r="M22" s="386"/>
-      <c r="N22" s="386"/>
-      <c r="O22" s="386"/>
-      <c r="P22" s="387"/>
-      <c r="Q22" s="388"/>
-      <c r="R22" s="389"/>
-      <c r="S22" s="389"/>
-      <c r="T22" s="389"/>
-      <c r="U22" s="389"/>
-      <c r="V22" s="389"/>
-      <c r="W22" s="389"/>
-      <c r="X22" s="389"/>
-      <c r="Y22" s="389"/>
-      <c r="Z22" s="389"/>
-      <c r="AA22" s="389"/>
-      <c r="AB22" s="389"/>
-      <c r="AC22" s="389"/>
-      <c r="AD22" s="389"/>
-      <c r="AE22" s="390"/>
-      <c r="AF22" s="385"/>
-      <c r="AG22" s="386"/>
-      <c r="AH22" s="386"/>
-      <c r="AI22" s="387"/>
+      <c r="B22" s="415"/>
+      <c r="C22" s="416"/>
+      <c r="D22" s="417"/>
+      <c r="E22" s="418"/>
+      <c r="F22" s="419"/>
+      <c r="G22" s="415"/>
+      <c r="H22" s="420"/>
+      <c r="I22" s="416"/>
+      <c r="J22" s="421"/>
+      <c r="K22" s="422"/>
+      <c r="L22" s="422"/>
+      <c r="M22" s="422"/>
+      <c r="N22" s="422"/>
+      <c r="O22" s="422"/>
+      <c r="P22" s="423"/>
+      <c r="Q22" s="424"/>
+      <c r="R22" s="425"/>
+      <c r="S22" s="425"/>
+      <c r="T22" s="425"/>
+      <c r="U22" s="425"/>
+      <c r="V22" s="425"/>
+      <c r="W22" s="425"/>
+      <c r="X22" s="425"/>
+      <c r="Y22" s="425"/>
+      <c r="Z22" s="425"/>
+      <c r="AA22" s="425"/>
+      <c r="AB22" s="425"/>
+      <c r="AC22" s="425"/>
+      <c r="AD22" s="425"/>
+      <c r="AE22" s="426"/>
+      <c r="AF22" s="421"/>
+      <c r="AG22" s="422"/>
+      <c r="AH22" s="422"/>
+      <c r="AI22" s="423"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="379"/>
-      <c r="C23" s="380"/>
-      <c r="D23" s="381"/>
-      <c r="E23" s="382"/>
-      <c r="F23" s="383"/>
-      <c r="G23" s="379"/>
-      <c r="H23" s="384"/>
-      <c r="I23" s="380"/>
-      <c r="J23" s="385"/>
-      <c r="K23" s="386"/>
-      <c r="L23" s="386"/>
-      <c r="M23" s="386"/>
-      <c r="N23" s="386"/>
-      <c r="O23" s="386"/>
-      <c r="P23" s="387"/>
-      <c r="Q23" s="388"/>
-      <c r="R23" s="389"/>
-      <c r="S23" s="389"/>
-      <c r="T23" s="389"/>
-      <c r="U23" s="389"/>
-      <c r="V23" s="389"/>
-      <c r="W23" s="389"/>
-      <c r="X23" s="389"/>
-      <c r="Y23" s="389"/>
-      <c r="Z23" s="389"/>
-      <c r="AA23" s="389"/>
-      <c r="AB23" s="389"/>
-      <c r="AC23" s="389"/>
-      <c r="AD23" s="389"/>
-      <c r="AE23" s="390"/>
-      <c r="AF23" s="385"/>
-      <c r="AG23" s="386"/>
-      <c r="AH23" s="386"/>
-      <c r="AI23" s="387"/>
+      <c r="B23" s="415"/>
+      <c r="C23" s="416"/>
+      <c r="D23" s="417"/>
+      <c r="E23" s="418"/>
+      <c r="F23" s="419"/>
+      <c r="G23" s="415"/>
+      <c r="H23" s="420"/>
+      <c r="I23" s="416"/>
+      <c r="J23" s="421"/>
+      <c r="K23" s="422"/>
+      <c r="L23" s="422"/>
+      <c r="M23" s="422"/>
+      <c r="N23" s="422"/>
+      <c r="O23" s="422"/>
+      <c r="P23" s="423"/>
+      <c r="Q23" s="424"/>
+      <c r="R23" s="425"/>
+      <c r="S23" s="425"/>
+      <c r="T23" s="425"/>
+      <c r="U23" s="425"/>
+      <c r="V23" s="425"/>
+      <c r="W23" s="425"/>
+      <c r="X23" s="425"/>
+      <c r="Y23" s="425"/>
+      <c r="Z23" s="425"/>
+      <c r="AA23" s="425"/>
+      <c r="AB23" s="425"/>
+      <c r="AC23" s="425"/>
+      <c r="AD23" s="425"/>
+      <c r="AE23" s="426"/>
+      <c r="AF23" s="421"/>
+      <c r="AG23" s="422"/>
+      <c r="AH23" s="422"/>
+      <c r="AI23" s="423"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="379"/>
-      <c r="C24" s="380"/>
-      <c r="D24" s="381"/>
-      <c r="E24" s="382"/>
-      <c r="F24" s="383"/>
-      <c r="G24" s="379"/>
-      <c r="H24" s="384"/>
-      <c r="I24" s="380"/>
-      <c r="J24" s="385"/>
-      <c r="K24" s="386"/>
-      <c r="L24" s="386"/>
-      <c r="M24" s="386"/>
-      <c r="N24" s="386"/>
-      <c r="O24" s="386"/>
-      <c r="P24" s="387"/>
-      <c r="Q24" s="388"/>
-      <c r="R24" s="389"/>
-      <c r="S24" s="389"/>
-      <c r="T24" s="389"/>
-      <c r="U24" s="389"/>
-      <c r="V24" s="389"/>
-      <c r="W24" s="389"/>
-      <c r="X24" s="389"/>
-      <c r="Y24" s="389"/>
-      <c r="Z24" s="389"/>
-      <c r="AA24" s="389"/>
-      <c r="AB24" s="389"/>
-      <c r="AC24" s="389"/>
-      <c r="AD24" s="389"/>
-      <c r="AE24" s="390"/>
-      <c r="AF24" s="385"/>
-      <c r="AG24" s="386"/>
-      <c r="AH24" s="386"/>
-      <c r="AI24" s="387"/>
+      <c r="B24" s="415"/>
+      <c r="C24" s="416"/>
+      <c r="D24" s="417"/>
+      <c r="E24" s="418"/>
+      <c r="F24" s="419"/>
+      <c r="G24" s="415"/>
+      <c r="H24" s="420"/>
+      <c r="I24" s="416"/>
+      <c r="J24" s="421"/>
+      <c r="K24" s="422"/>
+      <c r="L24" s="422"/>
+      <c r="M24" s="422"/>
+      <c r="N24" s="422"/>
+      <c r="O24" s="422"/>
+      <c r="P24" s="423"/>
+      <c r="Q24" s="424"/>
+      <c r="R24" s="425"/>
+      <c r="S24" s="425"/>
+      <c r="T24" s="425"/>
+      <c r="U24" s="425"/>
+      <c r="V24" s="425"/>
+      <c r="W24" s="425"/>
+      <c r="X24" s="425"/>
+      <c r="Y24" s="425"/>
+      <c r="Z24" s="425"/>
+      <c r="AA24" s="425"/>
+      <c r="AB24" s="425"/>
+      <c r="AC24" s="425"/>
+      <c r="AD24" s="425"/>
+      <c r="AE24" s="426"/>
+      <c r="AF24" s="421"/>
+      <c r="AG24" s="422"/>
+      <c r="AH24" s="422"/>
+      <c r="AI24" s="423"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="379"/>
-      <c r="C25" s="380"/>
-      <c r="D25" s="381"/>
-      <c r="E25" s="382"/>
-      <c r="F25" s="383"/>
-      <c r="G25" s="379"/>
-      <c r="H25" s="384"/>
-      <c r="I25" s="380"/>
-      <c r="J25" s="385"/>
-      <c r="K25" s="386"/>
-      <c r="L25" s="386"/>
-      <c r="M25" s="386"/>
-      <c r="N25" s="386"/>
-      <c r="O25" s="386"/>
-      <c r="P25" s="387"/>
-      <c r="Q25" s="388"/>
-      <c r="R25" s="389"/>
-      <c r="S25" s="389"/>
-      <c r="T25" s="389"/>
-      <c r="U25" s="389"/>
-      <c r="V25" s="389"/>
-      <c r="W25" s="389"/>
-      <c r="X25" s="389"/>
-      <c r="Y25" s="389"/>
-      <c r="Z25" s="389"/>
-      <c r="AA25" s="389"/>
-      <c r="AB25" s="389"/>
-      <c r="AC25" s="389"/>
-      <c r="AD25" s="389"/>
-      <c r="AE25" s="390"/>
-      <c r="AF25" s="385"/>
-      <c r="AG25" s="386"/>
-      <c r="AH25" s="386"/>
-      <c r="AI25" s="387"/>
+      <c r="B25" s="415"/>
+      <c r="C25" s="416"/>
+      <c r="D25" s="417"/>
+      <c r="E25" s="418"/>
+      <c r="F25" s="419"/>
+      <c r="G25" s="415"/>
+      <c r="H25" s="420"/>
+      <c r="I25" s="416"/>
+      <c r="J25" s="421"/>
+      <c r="K25" s="422"/>
+      <c r="L25" s="422"/>
+      <c r="M25" s="422"/>
+      <c r="N25" s="422"/>
+      <c r="O25" s="422"/>
+      <c r="P25" s="423"/>
+      <c r="Q25" s="424"/>
+      <c r="R25" s="425"/>
+      <c r="S25" s="425"/>
+      <c r="T25" s="425"/>
+      <c r="U25" s="425"/>
+      <c r="V25" s="425"/>
+      <c r="W25" s="425"/>
+      <c r="X25" s="425"/>
+      <c r="Y25" s="425"/>
+      <c r="Z25" s="425"/>
+      <c r="AA25" s="425"/>
+      <c r="AB25" s="425"/>
+      <c r="AC25" s="425"/>
+      <c r="AD25" s="425"/>
+      <c r="AE25" s="426"/>
+      <c r="AF25" s="421"/>
+      <c r="AG25" s="422"/>
+      <c r="AH25" s="422"/>
+      <c r="AI25" s="423"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="379"/>
-      <c r="C26" s="380"/>
-      <c r="D26" s="381"/>
-      <c r="E26" s="382"/>
-      <c r="F26" s="383"/>
-      <c r="G26" s="379"/>
-      <c r="H26" s="384"/>
-      <c r="I26" s="380"/>
-      <c r="J26" s="385"/>
-      <c r="K26" s="386"/>
-      <c r="L26" s="386"/>
-      <c r="M26" s="386"/>
-      <c r="N26" s="386"/>
-      <c r="O26" s="386"/>
-      <c r="P26" s="387"/>
-      <c r="Q26" s="388"/>
-      <c r="R26" s="389"/>
-      <c r="S26" s="389"/>
-      <c r="T26" s="389"/>
-      <c r="U26" s="389"/>
-      <c r="V26" s="389"/>
-      <c r="W26" s="389"/>
-      <c r="X26" s="389"/>
-      <c r="Y26" s="389"/>
-      <c r="Z26" s="389"/>
-      <c r="AA26" s="389"/>
-      <c r="AB26" s="389"/>
-      <c r="AC26" s="389"/>
-      <c r="AD26" s="389"/>
-      <c r="AE26" s="390"/>
-      <c r="AF26" s="385"/>
-      <c r="AG26" s="386"/>
-      <c r="AH26" s="386"/>
-      <c r="AI26" s="387"/>
+      <c r="B26" s="415"/>
+      <c r="C26" s="416"/>
+      <c r="D26" s="417"/>
+      <c r="E26" s="418"/>
+      <c r="F26" s="419"/>
+      <c r="G26" s="415"/>
+      <c r="H26" s="420"/>
+      <c r="I26" s="416"/>
+      <c r="J26" s="421"/>
+      <c r="K26" s="422"/>
+      <c r="L26" s="422"/>
+      <c r="M26" s="422"/>
+      <c r="N26" s="422"/>
+      <c r="O26" s="422"/>
+      <c r="P26" s="423"/>
+      <c r="Q26" s="424"/>
+      <c r="R26" s="425"/>
+      <c r="S26" s="425"/>
+      <c r="T26" s="425"/>
+      <c r="U26" s="425"/>
+      <c r="V26" s="425"/>
+      <c r="W26" s="425"/>
+      <c r="X26" s="425"/>
+      <c r="Y26" s="425"/>
+      <c r="Z26" s="425"/>
+      <c r="AA26" s="425"/>
+      <c r="AB26" s="425"/>
+      <c r="AC26" s="425"/>
+      <c r="AD26" s="425"/>
+      <c r="AE26" s="426"/>
+      <c r="AF26" s="421"/>
+      <c r="AG26" s="422"/>
+      <c r="AH26" s="422"/>
+      <c r="AI26" s="423"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="379"/>
-      <c r="C27" s="380"/>
-      <c r="D27" s="381"/>
-      <c r="E27" s="382"/>
-      <c r="F27" s="383"/>
-      <c r="G27" s="379"/>
-      <c r="H27" s="384"/>
-      <c r="I27" s="380"/>
-      <c r="J27" s="385"/>
-      <c r="K27" s="386"/>
-      <c r="L27" s="386"/>
-      <c r="M27" s="386"/>
-      <c r="N27" s="386"/>
-      <c r="O27" s="386"/>
-      <c r="P27" s="387"/>
-      <c r="Q27" s="388"/>
-      <c r="R27" s="389"/>
-      <c r="S27" s="389"/>
-      <c r="T27" s="389"/>
-      <c r="U27" s="389"/>
-      <c r="V27" s="389"/>
-      <c r="W27" s="389"/>
-      <c r="X27" s="389"/>
-      <c r="Y27" s="389"/>
-      <c r="Z27" s="389"/>
-      <c r="AA27" s="389"/>
-      <c r="AB27" s="389"/>
-      <c r="AC27" s="389"/>
-      <c r="AD27" s="389"/>
-      <c r="AE27" s="390"/>
-      <c r="AF27" s="385"/>
-      <c r="AG27" s="386"/>
-      <c r="AH27" s="386"/>
-      <c r="AI27" s="387"/>
+      <c r="B27" s="415"/>
+      <c r="C27" s="416"/>
+      <c r="D27" s="417"/>
+      <c r="E27" s="418"/>
+      <c r="F27" s="419"/>
+      <c r="G27" s="415"/>
+      <c r="H27" s="420"/>
+      <c r="I27" s="416"/>
+      <c r="J27" s="421"/>
+      <c r="K27" s="422"/>
+      <c r="L27" s="422"/>
+      <c r="M27" s="422"/>
+      <c r="N27" s="422"/>
+      <c r="O27" s="422"/>
+      <c r="P27" s="423"/>
+      <c r="Q27" s="424"/>
+      <c r="R27" s="425"/>
+      <c r="S27" s="425"/>
+      <c r="T27" s="425"/>
+      <c r="U27" s="425"/>
+      <c r="V27" s="425"/>
+      <c r="W27" s="425"/>
+      <c r="X27" s="425"/>
+      <c r="Y27" s="425"/>
+      <c r="Z27" s="425"/>
+      <c r="AA27" s="425"/>
+      <c r="AB27" s="425"/>
+      <c r="AC27" s="425"/>
+      <c r="AD27" s="425"/>
+      <c r="AE27" s="426"/>
+      <c r="AF27" s="421"/>
+      <c r="AG27" s="422"/>
+      <c r="AH27" s="422"/>
+      <c r="AI27" s="423"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="379"/>
-      <c r="C28" s="380"/>
-      <c r="D28" s="381"/>
-      <c r="E28" s="382"/>
-      <c r="F28" s="383"/>
-      <c r="G28" s="379"/>
-      <c r="H28" s="384"/>
-      <c r="I28" s="380"/>
-      <c r="J28" s="385"/>
-      <c r="K28" s="386"/>
-      <c r="L28" s="386"/>
-      <c r="M28" s="386"/>
-      <c r="N28" s="386"/>
-      <c r="O28" s="386"/>
-      <c r="P28" s="387"/>
-      <c r="Q28" s="388"/>
-      <c r="R28" s="389"/>
-      <c r="S28" s="389"/>
-      <c r="T28" s="389"/>
-      <c r="U28" s="389"/>
-      <c r="V28" s="389"/>
-      <c r="W28" s="389"/>
-      <c r="X28" s="389"/>
-      <c r="Y28" s="389"/>
-      <c r="Z28" s="389"/>
-      <c r="AA28" s="389"/>
-      <c r="AB28" s="389"/>
-      <c r="AC28" s="389"/>
-      <c r="AD28" s="389"/>
-      <c r="AE28" s="390"/>
-      <c r="AF28" s="385"/>
-      <c r="AG28" s="386"/>
-      <c r="AH28" s="386"/>
-      <c r="AI28" s="387"/>
+      <c r="B28" s="415"/>
+      <c r="C28" s="416"/>
+      <c r="D28" s="417"/>
+      <c r="E28" s="418"/>
+      <c r="F28" s="419"/>
+      <c r="G28" s="415"/>
+      <c r="H28" s="420"/>
+      <c r="I28" s="416"/>
+      <c r="J28" s="421"/>
+      <c r="K28" s="422"/>
+      <c r="L28" s="422"/>
+      <c r="M28" s="422"/>
+      <c r="N28" s="422"/>
+      <c r="O28" s="422"/>
+      <c r="P28" s="423"/>
+      <c r="Q28" s="424"/>
+      <c r="R28" s="425"/>
+      <c r="S28" s="425"/>
+      <c r="T28" s="425"/>
+      <c r="U28" s="425"/>
+      <c r="V28" s="425"/>
+      <c r="W28" s="425"/>
+      <c r="X28" s="425"/>
+      <c r="Y28" s="425"/>
+      <c r="Z28" s="425"/>
+      <c r="AA28" s="425"/>
+      <c r="AB28" s="425"/>
+      <c r="AC28" s="425"/>
+      <c r="AD28" s="425"/>
+      <c r="AE28" s="426"/>
+      <c r="AF28" s="421"/>
+      <c r="AG28" s="422"/>
+      <c r="AH28" s="422"/>
+      <c r="AI28" s="423"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="379"/>
-      <c r="C29" s="380"/>
-      <c r="D29" s="381"/>
-      <c r="E29" s="382"/>
-      <c r="F29" s="383"/>
-      <c r="G29" s="379"/>
-      <c r="H29" s="384"/>
-      <c r="I29" s="380"/>
-      <c r="J29" s="385"/>
-      <c r="K29" s="386"/>
-      <c r="L29" s="386"/>
-      <c r="M29" s="386"/>
-      <c r="N29" s="386"/>
-      <c r="O29" s="386"/>
-      <c r="P29" s="387"/>
-      <c r="Q29" s="388"/>
-      <c r="R29" s="389"/>
-      <c r="S29" s="389"/>
-      <c r="T29" s="389"/>
-      <c r="U29" s="389"/>
-      <c r="V29" s="389"/>
-      <c r="W29" s="389"/>
-      <c r="X29" s="389"/>
-      <c r="Y29" s="389"/>
-      <c r="Z29" s="389"/>
-      <c r="AA29" s="389"/>
-      <c r="AB29" s="389"/>
-      <c r="AC29" s="389"/>
-      <c r="AD29" s="389"/>
-      <c r="AE29" s="390"/>
-      <c r="AF29" s="385"/>
-      <c r="AG29" s="386"/>
-      <c r="AH29" s="386"/>
-      <c r="AI29" s="387"/>
+      <c r="B29" s="415"/>
+      <c r="C29" s="416"/>
+      <c r="D29" s="417"/>
+      <c r="E29" s="418"/>
+      <c r="F29" s="419"/>
+      <c r="G29" s="415"/>
+      <c r="H29" s="420"/>
+      <c r="I29" s="416"/>
+      <c r="J29" s="421"/>
+      <c r="K29" s="422"/>
+      <c r="L29" s="422"/>
+      <c r="M29" s="422"/>
+      <c r="N29" s="422"/>
+      <c r="O29" s="422"/>
+      <c r="P29" s="423"/>
+      <c r="Q29" s="424"/>
+      <c r="R29" s="425"/>
+      <c r="S29" s="425"/>
+      <c r="T29" s="425"/>
+      <c r="U29" s="425"/>
+      <c r="V29" s="425"/>
+      <c r="W29" s="425"/>
+      <c r="X29" s="425"/>
+      <c r="Y29" s="425"/>
+      <c r="Z29" s="425"/>
+      <c r="AA29" s="425"/>
+      <c r="AB29" s="425"/>
+      <c r="AC29" s="425"/>
+      <c r="AD29" s="425"/>
+      <c r="AE29" s="426"/>
+      <c r="AF29" s="421"/>
+      <c r="AG29" s="422"/>
+      <c r="AH29" s="422"/>
+      <c r="AI29" s="423"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="379"/>
-      <c r="C30" s="380"/>
-      <c r="D30" s="381"/>
-      <c r="E30" s="382"/>
-      <c r="F30" s="383"/>
-      <c r="G30" s="379"/>
-      <c r="H30" s="384"/>
-      <c r="I30" s="380"/>
-      <c r="J30" s="385"/>
-      <c r="K30" s="386"/>
-      <c r="L30" s="386"/>
-      <c r="M30" s="386"/>
-      <c r="N30" s="386"/>
-      <c r="O30" s="386"/>
-      <c r="P30" s="387"/>
-      <c r="Q30" s="388"/>
-      <c r="R30" s="389"/>
-      <c r="S30" s="389"/>
-      <c r="T30" s="389"/>
-      <c r="U30" s="389"/>
-      <c r="V30" s="389"/>
-      <c r="W30" s="389"/>
-      <c r="X30" s="389"/>
-      <c r="Y30" s="389"/>
-      <c r="Z30" s="389"/>
-      <c r="AA30" s="389"/>
-      <c r="AB30" s="389"/>
-      <c r="AC30" s="389"/>
-      <c r="AD30" s="389"/>
-      <c r="AE30" s="390"/>
-      <c r="AF30" s="385"/>
-      <c r="AG30" s="386"/>
-      <c r="AH30" s="386"/>
-      <c r="AI30" s="387"/>
+      <c r="B30" s="415"/>
+      <c r="C30" s="416"/>
+      <c r="D30" s="417"/>
+      <c r="E30" s="418"/>
+      <c r="F30" s="419"/>
+      <c r="G30" s="415"/>
+      <c r="H30" s="420"/>
+      <c r="I30" s="416"/>
+      <c r="J30" s="421"/>
+      <c r="K30" s="422"/>
+      <c r="L30" s="422"/>
+      <c r="M30" s="422"/>
+      <c r="N30" s="422"/>
+      <c r="O30" s="422"/>
+      <c r="P30" s="423"/>
+      <c r="Q30" s="424"/>
+      <c r="R30" s="425"/>
+      <c r="S30" s="425"/>
+      <c r="T30" s="425"/>
+      <c r="U30" s="425"/>
+      <c r="V30" s="425"/>
+      <c r="W30" s="425"/>
+      <c r="X30" s="425"/>
+      <c r="Y30" s="425"/>
+      <c r="Z30" s="425"/>
+      <c r="AA30" s="425"/>
+      <c r="AB30" s="425"/>
+      <c r="AC30" s="425"/>
+      <c r="AD30" s="425"/>
+      <c r="AE30" s="426"/>
+      <c r="AF30" s="421"/>
+      <c r="AG30" s="422"/>
+      <c r="AH30" s="422"/>
+      <c r="AI30" s="423"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="379"/>
-      <c r="C31" s="380"/>
-      <c r="D31" s="381"/>
-      <c r="E31" s="382"/>
-      <c r="F31" s="383"/>
-      <c r="G31" s="379"/>
-      <c r="H31" s="384"/>
-      <c r="I31" s="380"/>
-      <c r="J31" s="385"/>
-      <c r="K31" s="386"/>
-      <c r="L31" s="386"/>
-      <c r="M31" s="386"/>
-      <c r="N31" s="386"/>
-      <c r="O31" s="386"/>
-      <c r="P31" s="387"/>
-      <c r="Q31" s="388"/>
-      <c r="R31" s="389"/>
-      <c r="S31" s="389"/>
-      <c r="T31" s="389"/>
-      <c r="U31" s="389"/>
-      <c r="V31" s="389"/>
-      <c r="W31" s="389"/>
-      <c r="X31" s="389"/>
-      <c r="Y31" s="389"/>
-      <c r="Z31" s="389"/>
-      <c r="AA31" s="389"/>
-      <c r="AB31" s="389"/>
-      <c r="AC31" s="389"/>
-      <c r="AD31" s="389"/>
-      <c r="AE31" s="390"/>
-      <c r="AF31" s="385"/>
-      <c r="AG31" s="386"/>
-      <c r="AH31" s="386"/>
-      <c r="AI31" s="387"/>
+      <c r="B31" s="415"/>
+      <c r="C31" s="416"/>
+      <c r="D31" s="417"/>
+      <c r="E31" s="418"/>
+      <c r="F31" s="419"/>
+      <c r="G31" s="415"/>
+      <c r="H31" s="420"/>
+      <c r="I31" s="416"/>
+      <c r="J31" s="421"/>
+      <c r="K31" s="422"/>
+      <c r="L31" s="422"/>
+      <c r="M31" s="422"/>
+      <c r="N31" s="422"/>
+      <c r="O31" s="422"/>
+      <c r="P31" s="423"/>
+      <c r="Q31" s="424"/>
+      <c r="R31" s="425"/>
+      <c r="S31" s="425"/>
+      <c r="T31" s="425"/>
+      <c r="U31" s="425"/>
+      <c r="V31" s="425"/>
+      <c r="W31" s="425"/>
+      <c r="X31" s="425"/>
+      <c r="Y31" s="425"/>
+      <c r="Z31" s="425"/>
+      <c r="AA31" s="425"/>
+      <c r="AB31" s="425"/>
+      <c r="AC31" s="425"/>
+      <c r="AD31" s="425"/>
+      <c r="AE31" s="426"/>
+      <c r="AF31" s="421"/>
+      <c r="AG31" s="422"/>
+      <c r="AH31" s="422"/>
+      <c r="AI31" s="423"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="379"/>
-      <c r="C32" s="380"/>
-      <c r="D32" s="381"/>
-      <c r="E32" s="382"/>
-      <c r="F32" s="383"/>
-      <c r="G32" s="379"/>
-      <c r="H32" s="384"/>
-      <c r="I32" s="380"/>
-      <c r="J32" s="385"/>
-      <c r="K32" s="391"/>
-      <c r="L32" s="386"/>
-      <c r="M32" s="386"/>
-      <c r="N32" s="386"/>
-      <c r="O32" s="386"/>
-      <c r="P32" s="387"/>
-      <c r="Q32" s="388"/>
-      <c r="R32" s="389"/>
-      <c r="S32" s="389"/>
-      <c r="T32" s="389"/>
-      <c r="U32" s="389"/>
-      <c r="V32" s="389"/>
-      <c r="W32" s="389"/>
-      <c r="X32" s="389"/>
-      <c r="Y32" s="389"/>
-      <c r="Z32" s="389"/>
-      <c r="AA32" s="389"/>
-      <c r="AB32" s="389"/>
-      <c r="AC32" s="389"/>
-      <c r="AD32" s="389"/>
-      <c r="AE32" s="390"/>
-      <c r="AF32" s="385"/>
-      <c r="AG32" s="386"/>
-      <c r="AH32" s="386"/>
-      <c r="AI32" s="387"/>
+      <c r="B32" s="415"/>
+      <c r="C32" s="416"/>
+      <c r="D32" s="417"/>
+      <c r="E32" s="418"/>
+      <c r="F32" s="419"/>
+      <c r="G32" s="415"/>
+      <c r="H32" s="420"/>
+      <c r="I32" s="416"/>
+      <c r="J32" s="421"/>
+      <c r="K32" s="440"/>
+      <c r="L32" s="422"/>
+      <c r="M32" s="422"/>
+      <c r="N32" s="422"/>
+      <c r="O32" s="422"/>
+      <c r="P32" s="423"/>
+      <c r="Q32" s="424"/>
+      <c r="R32" s="425"/>
+      <c r="S32" s="425"/>
+      <c r="T32" s="425"/>
+      <c r="U32" s="425"/>
+      <c r="V32" s="425"/>
+      <c r="W32" s="425"/>
+      <c r="X32" s="425"/>
+      <c r="Y32" s="425"/>
+      <c r="Z32" s="425"/>
+      <c r="AA32" s="425"/>
+      <c r="AB32" s="425"/>
+      <c r="AC32" s="425"/>
+      <c r="AD32" s="425"/>
+      <c r="AE32" s="426"/>
+      <c r="AF32" s="421"/>
+      <c r="AG32" s="422"/>
+      <c r="AH32" s="422"/>
+      <c r="AI32" s="423"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="379"/>
-      <c r="C33" s="380"/>
-      <c r="D33" s="381"/>
-      <c r="E33" s="382"/>
-      <c r="F33" s="383"/>
-      <c r="G33" s="379"/>
-      <c r="H33" s="384"/>
-      <c r="I33" s="380"/>
-      <c r="J33" s="385"/>
-      <c r="K33" s="386"/>
-      <c r="L33" s="386"/>
-      <c r="M33" s="386"/>
-      <c r="N33" s="386"/>
-      <c r="O33" s="386"/>
-      <c r="P33" s="387"/>
-      <c r="Q33" s="388"/>
-      <c r="R33" s="389"/>
-      <c r="S33" s="389"/>
-      <c r="T33" s="389"/>
-      <c r="U33" s="389"/>
-      <c r="V33" s="389"/>
-      <c r="W33" s="389"/>
-      <c r="X33" s="389"/>
-      <c r="Y33" s="389"/>
-      <c r="Z33" s="389"/>
-      <c r="AA33" s="389"/>
-      <c r="AB33" s="389"/>
-      <c r="AC33" s="389"/>
-      <c r="AD33" s="389"/>
-      <c r="AE33" s="390"/>
-      <c r="AF33" s="385"/>
-      <c r="AG33" s="386"/>
-      <c r="AH33" s="386"/>
-      <c r="AI33" s="387"/>
+      <c r="B33" s="415"/>
+      <c r="C33" s="416"/>
+      <c r="D33" s="417"/>
+      <c r="E33" s="418"/>
+      <c r="F33" s="419"/>
+      <c r="G33" s="415"/>
+      <c r="H33" s="420"/>
+      <c r="I33" s="416"/>
+      <c r="J33" s="421"/>
+      <c r="K33" s="422"/>
+      <c r="L33" s="422"/>
+      <c r="M33" s="422"/>
+      <c r="N33" s="422"/>
+      <c r="O33" s="422"/>
+      <c r="P33" s="423"/>
+      <c r="Q33" s="424"/>
+      <c r="R33" s="425"/>
+      <c r="S33" s="425"/>
+      <c r="T33" s="425"/>
+      <c r="U33" s="425"/>
+      <c r="V33" s="425"/>
+      <c r="W33" s="425"/>
+      <c r="X33" s="425"/>
+      <c r="Y33" s="425"/>
+      <c r="Z33" s="425"/>
+      <c r="AA33" s="425"/>
+      <c r="AB33" s="425"/>
+      <c r="AC33" s="425"/>
+      <c r="AD33" s="425"/>
+      <c r="AE33" s="426"/>
+      <c r="AF33" s="421"/>
+      <c r="AG33" s="422"/>
+      <c r="AH33" s="422"/>
+      <c r="AI33" s="423"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -8635,162 +8799,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -8828,7 +8836,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -8838,20 +8846,20 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="25" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="25" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="25" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J6" s="25" t="s">
         <v>0</v>
@@ -8859,10 +8867,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="25" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>1</v>
@@ -8870,7 +8878,7 @@
     </row>
     <row r="8" spans="1:17" ht="12" thickBot="1">
       <c r="A8" s="27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -8895,7 +8903,7 @@
     </row>
     <row r="10" spans="1:17" s="31" customFormat="1">
       <c r="A10" s="49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>8</v>
@@ -8910,10 +8918,10 @@
         <v>84</v>
       </c>
       <c r="F10" s="80" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G10" s="81" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H10" s="82" t="s">
         <v>11</v>
@@ -8928,7 +8936,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="51" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M10" s="51" t="s">
         <v>4</v>
@@ -8967,27 +8975,27 @@
         <v>77</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L11" s="34"/>
       <c r="M11" s="32" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N11" s="89">
         <v>43737</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P11" s="32"/>
       <c r="Q11" s="90"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="36" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="91" t="s">
@@ -9014,7 +9022,7 @@
     </row>
     <row r="13" spans="1:17" s="31" customFormat="1" ht="56.25">
       <c r="A13" s="103" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B13" s="104"/>
       <c r="C13" s="376" t="s">
@@ -9024,7 +9032,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="344" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F13" s="345"/>
       <c r="G13" s="346"/>
@@ -9032,7 +9040,7 @@
         <v>21</v>
       </c>
       <c r="I13" s="348" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J13" s="126"/>
       <c r="K13" s="348"/>
@@ -9045,13 +9053,13 @@
     </row>
     <row r="14" spans="1:17" s="31" customFormat="1">
       <c r="A14" s="103" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B14" s="104"/>
       <c r="C14" s="183"/>
       <c r="D14" s="142"/>
       <c r="E14" s="107" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F14" s="94"/>
       <c r="G14" s="95"/>
@@ -9072,7 +9080,7 @@
     </row>
     <row r="15" spans="1:17" s="31" customFormat="1" ht="56.25">
       <c r="A15" s="103" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B15" s="104"/>
       <c r="C15" s="183"/>
@@ -9086,7 +9094,7 @@
         <v>21</v>
       </c>
       <c r="I15" s="109" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J15" s="109"/>
       <c r="K15" s="109"/>
@@ -9099,13 +9107,13 @@
     </row>
     <row r="16" spans="1:17" s="31" customFormat="1" ht="67.5">
       <c r="A16" s="103" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B16" s="104"/>
       <c r="C16" s="183"/>
       <c r="D16" s="142"/>
       <c r="E16" s="107" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F16" s="94"/>
       <c r="G16" s="95"/>
@@ -9113,7 +9121,7 @@
         <v>21</v>
       </c>
       <c r="I16" s="109" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J16" s="126"/>
       <c r="K16" s="126"/>
@@ -9126,7 +9134,7 @@
     </row>
     <row r="17" spans="1:17" s="31" customFormat="1">
       <c r="A17" s="114" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="377"/>
@@ -9188,16 +9196,16 @@
         <v>79</v>
       </c>
       <c r="E19" s="129" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F19" s="130" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G19" s="131" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H19" s="132" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I19" s="105" t="s">
         <v>28</v>
@@ -9213,22 +9221,22 @@
     </row>
     <row r="20" spans="1:17" s="31" customFormat="1" hidden="1">
       <c r="A20" s="127" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B20" s="40"/>
       <c r="C20" s="106"/>
       <c r="D20" s="138"/>
       <c r="E20" s="129" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F20" s="130" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G20" s="131" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H20" s="132" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I20" s="105" t="s">
         <v>28</v>
@@ -9244,22 +9252,22 @@
     </row>
     <row r="21" spans="1:17" s="31" customFormat="1" hidden="1">
       <c r="A21" s="127" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B21" s="40"/>
       <c r="C21" s="106"/>
       <c r="D21" s="138"/>
       <c r="E21" s="129" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F21" s="130" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G21" s="131" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H21" s="132" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I21" s="105" t="s">
         <v>28</v>
@@ -9275,22 +9283,22 @@
     </row>
     <row r="22" spans="1:17" s="31" customFormat="1" hidden="1">
       <c r="A22" s="127" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B22" s="40"/>
       <c r="C22" s="106"/>
       <c r="D22" s="138"/>
       <c r="E22" s="129" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F22" s="130" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G22" s="131" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H22" s="132" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I22" s="105" t="s">
         <v>28</v>
@@ -9306,7 +9314,7 @@
     </row>
     <row r="23" spans="1:17" ht="22.5">
       <c r="A23" s="127" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B23" s="40"/>
       <c r="C23" s="142"/>
@@ -9335,7 +9343,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="127" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B24" s="40"/>
       <c r="C24" s="377"/>
@@ -9362,7 +9370,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="127" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B25" s="40"/>
       <c r="C25" s="377"/>
@@ -9389,7 +9397,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="127" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B26" s="40"/>
       <c r="C26" s="377"/>
@@ -9416,7 +9424,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="127" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B27" s="40"/>
       <c r="C27" s="377"/>
@@ -9443,7 +9451,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="127" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B28" s="40"/>
       <c r="C28" s="142"/>
@@ -9470,7 +9478,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="127" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B29" s="40"/>
       <c r="C29" s="142"/>
@@ -9502,18 +9510,18 @@
       <c r="B30" s="40"/>
       <c r="C30" s="142"/>
       <c r="D30" s="142" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E30" s="144" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F30" s="94"/>
       <c r="G30" s="95"/>
       <c r="H30" s="145" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I30" s="146" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J30" s="147"/>
       <c r="K30" s="147"/>
@@ -9526,15 +9534,15 @@
     </row>
     <row r="31" spans="1:17" s="31" customFormat="1" ht="50.25" customHeight="1">
       <c r="A31" s="114" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B31" s="104"/>
       <c r="C31" s="183"/>
       <c r="D31" s="152" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E31" s="153" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F31" s="154"/>
       <c r="G31" s="155"/>
@@ -9555,13 +9563,13 @@
     </row>
     <row r="32" spans="1:17" s="31" customFormat="1" ht="57" customHeight="1">
       <c r="A32" s="114" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B32" s="104"/>
       <c r="C32" s="183"/>
       <c r="D32" s="162"/>
       <c r="E32" s="153" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F32" s="154"/>
       <c r="G32" s="155"/>
@@ -9582,13 +9590,13 @@
     </row>
     <row r="33" spans="1:17" s="31" customFormat="1" ht="45">
       <c r="A33" s="114" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B33" s="104"/>
       <c r="C33" s="183"/>
       <c r="D33" s="162"/>
       <c r="E33" s="153" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F33" s="154"/>
       <c r="G33" s="155"/>
@@ -9609,13 +9617,13 @@
     </row>
     <row r="34" spans="1:17" s="31" customFormat="1" ht="50.25" customHeight="1">
       <c r="A34" s="114" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B34" s="104"/>
       <c r="C34" s="183"/>
       <c r="D34" s="162"/>
       <c r="E34" s="153" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F34" s="154"/>
       <c r="G34" s="155"/>
@@ -9636,13 +9644,13 @@
     </row>
     <row r="35" spans="1:17" ht="50.25" customHeight="1">
       <c r="A35" s="114" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B35" s="104"/>
       <c r="C35" s="183"/>
       <c r="D35" s="162"/>
       <c r="E35" s="153" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F35" s="154"/>
       <c r="G35" s="155"/>
@@ -9663,13 +9671,13 @@
     </row>
     <row r="36" spans="1:17" ht="50.25" customHeight="1">
       <c r="A36" s="114" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B36" s="104"/>
       <c r="C36" s="183"/>
       <c r="D36" s="162"/>
       <c r="E36" s="153" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F36" s="154"/>
       <c r="G36" s="155"/>
@@ -9690,21 +9698,21 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="114" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B37" s="104"/>
       <c r="C37" s="183"/>
       <c r="D37" s="162"/>
       <c r="E37" s="153" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F37" s="154"/>
       <c r="G37" s="155"/>
       <c r="H37" s="156" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I37" s="157" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J37" s="157"/>
       <c r="K37" s="157"/>
@@ -9717,21 +9725,21 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="114" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B38" s="104"/>
       <c r="C38" s="183"/>
       <c r="D38" s="162"/>
       <c r="E38" s="153" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F38" s="154"/>
       <c r="G38" s="155"/>
       <c r="H38" s="156" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I38" s="157" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J38" s="157"/>
       <c r="K38" s="157"/>
@@ -9744,21 +9752,21 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="114" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B39" s="104"/>
       <c r="C39" s="183"/>
       <c r="D39" s="165"/>
       <c r="E39" s="153" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F39" s="154"/>
       <c r="G39" s="155"/>
       <c r="H39" s="156" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I39" s="157" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J39" s="157"/>
       <c r="K39" s="157"/>
@@ -9776,10 +9784,10 @@
       <c r="B40" s="104"/>
       <c r="C40" s="183"/>
       <c r="D40" s="167" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E40" s="153" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F40" s="154"/>
       <c r="G40" s="155"/>
@@ -9800,13 +9808,13 @@
     </row>
     <row r="41" spans="1:17" ht="45">
       <c r="A41" s="166" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B41" s="104"/>
       <c r="C41" s="183"/>
       <c r="D41" s="162"/>
       <c r="E41" s="153" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F41" s="154"/>
       <c r="G41" s="155"/>
@@ -9827,13 +9835,13 @@
     </row>
     <row r="42" spans="1:17" ht="54.75" customHeight="1">
       <c r="A42" s="166" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B42" s="104"/>
       <c r="C42" s="183"/>
       <c r="D42" s="162"/>
       <c r="E42" s="153" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F42" s="154"/>
       <c r="G42" s="155"/>
@@ -9854,13 +9862,13 @@
     </row>
     <row r="43" spans="1:17" ht="54.75" customHeight="1">
       <c r="A43" s="166" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B43" s="104"/>
       <c r="C43" s="183"/>
       <c r="D43" s="162"/>
       <c r="E43" s="153" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F43" s="154"/>
       <c r="G43" s="155"/>
@@ -9881,21 +9889,21 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="166" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B44" s="104"/>
       <c r="C44" s="183"/>
       <c r="D44" s="162"/>
       <c r="E44" s="168" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F44" s="154"/>
       <c r="G44" s="155"/>
       <c r="H44" s="169" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I44" s="170" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J44" s="170"/>
       <c r="K44" s="170"/>
@@ -9908,7 +9916,7 @@
     </row>
     <row r="45" spans="1:17" ht="22.5">
       <c r="A45" s="166" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B45" s="173"/>
       <c r="C45" s="174" t="s">
@@ -9916,7 +9924,7 @@
       </c>
       <c r="D45" s="175"/>
       <c r="E45" s="175" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F45" s="176"/>
       <c r="G45" s="177"/>
@@ -9937,13 +9945,13 @@
     </row>
     <row r="46" spans="1:17" ht="22.5">
       <c r="A46" s="166" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B46" s="173"/>
       <c r="C46" s="183"/>
       <c r="D46" s="162"/>
       <c r="E46" s="184" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F46" s="185"/>
       <c r="G46" s="186"/>
@@ -9964,21 +9972,21 @@
     </row>
     <row r="47" spans="1:17" ht="22.5">
       <c r="A47" s="166" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B47" s="173"/>
       <c r="C47" s="183"/>
       <c r="D47" s="162"/>
       <c r="E47" s="192" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F47" s="193"/>
       <c r="G47" s="194"/>
       <c r="H47" s="195" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I47" s="196" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J47" s="196"/>
       <c r="K47" s="196"/>
@@ -9991,21 +9999,21 @@
     </row>
     <row r="48" spans="1:17" ht="22.5">
       <c r="A48" s="166" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B48" s="173"/>
       <c r="C48" s="183"/>
       <c r="D48" s="162"/>
       <c r="E48" s="200" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F48" s="201"/>
       <c r="G48" s="202"/>
       <c r="H48" s="203" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I48" s="204" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J48" s="204"/>
       <c r="K48" s="204"/>
@@ -10018,21 +10026,21 @@
     </row>
     <row r="49" spans="1:17" ht="33.75">
       <c r="A49" s="166" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B49" s="173"/>
       <c r="C49" s="183"/>
       <c r="D49" s="162"/>
       <c r="E49" s="208" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F49" s="209"/>
       <c r="G49" s="210"/>
       <c r="H49" s="211" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I49" s="212" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J49" s="212"/>
       <c r="K49" s="212"/>
@@ -10045,7 +10053,7 @@
     </row>
     <row r="50" spans="1:17" ht="22.5">
       <c r="A50" s="166" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B50" s="173"/>
       <c r="C50" s="183"/>
@@ -10056,10 +10064,10 @@
       <c r="F50" s="217"/>
       <c r="G50" s="218"/>
       <c r="H50" s="219" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I50" s="220" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J50" s="220"/>
       <c r="K50" s="220"/>
@@ -10072,21 +10080,21 @@
     </row>
     <row r="51" spans="1:17" ht="22.5">
       <c r="A51" s="166" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B51" s="173"/>
       <c r="C51" s="183"/>
       <c r="D51" s="162"/>
       <c r="E51" s="224" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F51" s="225"/>
       <c r="G51" s="226"/>
       <c r="H51" s="227" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I51" s="228" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J51" s="228"/>
       <c r="K51" s="228"/>
@@ -10099,21 +10107,21 @@
     </row>
     <row r="52" spans="1:17" ht="22.5">
       <c r="A52" s="166" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B52" s="173"/>
       <c r="C52" s="183"/>
       <c r="D52" s="162"/>
       <c r="E52" s="232" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F52" s="233"/>
       <c r="G52" s="234"/>
       <c r="H52" s="235" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I52" s="236" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J52" s="236"/>
       <c r="K52" s="236"/>
@@ -10126,21 +10134,21 @@
     </row>
     <row r="53" spans="1:17" ht="22.5">
       <c r="A53" s="166" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B53" s="240"/>
       <c r="C53" s="241"/>
       <c r="D53" s="162"/>
       <c r="E53" s="242" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F53" s="243"/>
       <c r="G53" s="244"/>
       <c r="H53" s="245" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I53" s="246" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J53" s="246"/>
       <c r="K53" s="246"/>
@@ -10153,7 +10161,7 @@
     </row>
     <row r="54" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A54" s="166" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B54" s="106" t="s">
         <v>35</v>
@@ -10162,10 +10170,10 @@
         <v>36</v>
       </c>
       <c r="D54" s="357" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E54" s="358" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F54" s="359"/>
       <c r="G54" s="360"/>
@@ -10186,7 +10194,7 @@
     </row>
     <row r="55" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A55" s="166" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B55" s="106"/>
       <c r="C55" s="142"/>
@@ -10200,7 +10208,7 @@
         <v>37</v>
       </c>
       <c r="I55" s="361" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J55" s="369"/>
       <c r="K55" s="369"/>
@@ -10213,7 +10221,7 @@
     </row>
     <row r="56" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A56" s="166" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B56" s="106"/>
       <c r="C56" s="142"/>
@@ -10227,7 +10235,7 @@
         <v>37</v>
       </c>
       <c r="I56" s="361" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J56" s="369"/>
       <c r="K56" s="369"/>
@@ -10240,7 +10248,7 @@
     </row>
     <row r="57" spans="1:17" s="43" customFormat="1">
       <c r="A57" s="166" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B57" s="106"/>
       <c r="C57" s="142"/>
@@ -10267,7 +10275,7 @@
     </row>
     <row r="58" spans="1:17" s="43" customFormat="1" ht="22.5">
       <c r="A58" s="166" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B58" s="106"/>
       <c r="C58" s="142"/>
@@ -10281,7 +10289,7 @@
         <v>37</v>
       </c>
       <c r="I58" s="361" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J58" s="369"/>
       <c r="K58" s="369"/>
@@ -10294,12 +10302,12 @@
     </row>
     <row r="59" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A59" s="166" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B59" s="106"/>
       <c r="C59" s="142"/>
       <c r="D59" s="370" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E59" s="252" t="s">
         <v>43</v>
@@ -10310,7 +10318,7 @@
         <v>37</v>
       </c>
       <c r="I59" s="255" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J59" s="256"/>
       <c r="K59" s="256"/>
@@ -10323,7 +10331,7 @@
     </row>
     <row r="60" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A60" s="166" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B60" s="106"/>
       <c r="C60" s="142"/>
@@ -10337,7 +10345,7 @@
         <v>37</v>
       </c>
       <c r="I60" s="255" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J60" s="256"/>
       <c r="K60" s="256"/>
@@ -10350,7 +10358,7 @@
     </row>
     <row r="61" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A61" s="166" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B61" s="106"/>
       <c r="C61" s="142"/>
@@ -10377,7 +10385,7 @@
     </row>
     <row r="62" spans="1:17" s="31" customFormat="1">
       <c r="A62" s="166" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B62" s="106"/>
       <c r="C62" s="142"/>
@@ -10406,7 +10414,7 @@
     </row>
     <row r="63" spans="1:17" s="31" customFormat="1">
       <c r="A63" s="166" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B63" s="106"/>
       <c r="C63" s="142"/>
@@ -10433,7 +10441,7 @@
     </row>
     <row r="64" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A64" s="166" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B64" s="106"/>
       <c r="C64" s="142"/>
@@ -10446,7 +10454,7 @@
       <c r="F64" s="253"/>
       <c r="G64" s="254"/>
       <c r="H64" s="255" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I64" s="255" t="s">
         <v>51</v>
@@ -10462,7 +10470,7 @@
     </row>
     <row r="65" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A65" s="166" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B65" s="106"/>
       <c r="C65" s="142"/>
@@ -10473,7 +10481,7 @@
       <c r="F65" s="253"/>
       <c r="G65" s="254"/>
       <c r="H65" s="255" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I65" s="255" t="s">
         <v>51</v>
@@ -10489,7 +10497,7 @@
     </row>
     <row r="66" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A66" s="166" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B66" s="106"/>
       <c r="C66" s="142"/>
@@ -10500,7 +10508,7 @@
       <c r="F66" s="253"/>
       <c r="G66" s="254"/>
       <c r="H66" s="255" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I66" s="255" t="s">
         <v>51</v>
@@ -10516,7 +10524,7 @@
     </row>
     <row r="67" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A67" s="166" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B67" s="106"/>
       <c r="C67" s="106"/>
@@ -10525,13 +10533,13 @@
         <v>152</v>
       </c>
       <c r="F67" s="259" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G67" s="260" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H67" s="261" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I67" s="261" t="s">
         <v>51</v>
@@ -10547,7 +10555,7 @@
     </row>
     <row r="68" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A68" s="166" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B68" s="106"/>
       <c r="C68" s="142"/>
@@ -10558,7 +10566,7 @@
       <c r="F68" s="253"/>
       <c r="G68" s="254"/>
       <c r="H68" s="255" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I68" s="255" t="s">
         <v>51</v>
@@ -10574,18 +10582,18 @@
     </row>
     <row r="69" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A69" s="166" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B69" s="106"/>
       <c r="C69" s="142"/>
       <c r="D69" s="142"/>
       <c r="E69" s="256" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F69" s="253"/>
       <c r="G69" s="254"/>
       <c r="H69" s="255" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I69" s="255" t="s">
         <v>51</v>
@@ -10601,7 +10609,7 @@
     </row>
     <row r="70" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A70" s="166" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B70" s="106"/>
       <c r="C70" s="142"/>
@@ -10612,7 +10620,7 @@
       <c r="F70" s="253"/>
       <c r="G70" s="254"/>
       <c r="H70" s="255" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I70" s="255" t="s">
         <v>51</v>
@@ -10628,18 +10636,18 @@
     </row>
     <row r="71" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A71" s="166" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B71" s="106"/>
       <c r="C71" s="142"/>
       <c r="D71" s="144"/>
       <c r="E71" s="256" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F71" s="253"/>
       <c r="G71" s="254"/>
       <c r="H71" s="255" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I71" s="255" t="s">
         <v>51</v>
@@ -10655,7 +10663,7 @@
     </row>
     <row r="72" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A72" s="166" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B72" s="106"/>
       <c r="C72" s="142"/>
@@ -10663,15 +10671,15 @@
         <v>149</v>
       </c>
       <c r="E72" s="256" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F72" s="253"/>
       <c r="G72" s="254"/>
       <c r="H72" s="255" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I72" s="264" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J72" s="256"/>
       <c r="K72" s="256"/>
@@ -10684,7 +10692,7 @@
     </row>
     <row r="73" spans="1:17" s="31" customFormat="1" ht="88.5" customHeight="1">
       <c r="A73" s="166" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B73" s="106"/>
       <c r="C73" s="142"/>
@@ -10697,7 +10705,7 @@
       <c r="F73" s="253"/>
       <c r="G73" s="254"/>
       <c r="H73" s="255" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I73" s="263" t="s">
         <v>55</v>
@@ -10713,18 +10721,18 @@
     </row>
     <row r="74" spans="1:17" s="31" customFormat="1" ht="127.5" customHeight="1">
       <c r="A74" s="166" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B74" s="106"/>
       <c r="C74" s="142"/>
       <c r="D74" s="142"/>
       <c r="E74" s="256" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F74" s="253"/>
       <c r="G74" s="254"/>
       <c r="H74" s="255" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I74" s="263" t="s">
         <v>55</v>
@@ -10740,7 +10748,7 @@
     </row>
     <row r="75" spans="1:17" s="31" customFormat="1">
       <c r="A75" s="166" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B75" s="106"/>
       <c r="C75" s="142"/>
@@ -10751,7 +10759,7 @@
       <c r="F75" s="253"/>
       <c r="G75" s="254"/>
       <c r="H75" s="255" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I75" s="263" t="s">
         <v>55</v>
@@ -10767,7 +10775,7 @@
     </row>
     <row r="76" spans="1:17" s="31" customFormat="1" ht="113.25" customHeight="1">
       <c r="A76" s="166" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B76" s="106"/>
       <c r="C76" s="142"/>
@@ -10780,7 +10788,7 @@
       <c r="F76" s="253"/>
       <c r="G76" s="254"/>
       <c r="H76" s="255" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I76" s="263" t="s">
         <v>55</v>
@@ -10796,7 +10804,7 @@
     </row>
     <row r="77" spans="1:17" s="31" customFormat="1">
       <c r="A77" s="166" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B77" s="106"/>
       <c r="C77" s="142"/>
@@ -10807,7 +10815,7 @@
       <c r="F77" s="253"/>
       <c r="G77" s="254"/>
       <c r="H77" s="255" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I77" s="263" t="s">
         <v>55</v>
@@ -10823,7 +10831,7 @@
     </row>
     <row r="78" spans="1:17" s="31" customFormat="1">
       <c r="A78" s="166" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B78" s="106"/>
       <c r="C78" s="142"/>
@@ -10834,7 +10842,7 @@
       <c r="F78" s="253"/>
       <c r="G78" s="254"/>
       <c r="H78" s="255" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I78" s="263" t="s">
         <v>55</v>
@@ -10850,7 +10858,7 @@
     </row>
     <row r="79" spans="1:17" s="31" customFormat="1">
       <c r="A79" s="166" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B79" s="106"/>
       <c r="C79" s="142"/>
@@ -10861,7 +10869,7 @@
       <c r="F79" s="267"/>
       <c r="G79" s="268"/>
       <c r="H79" s="269" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I79" s="270" t="s">
         <v>55</v>
@@ -10877,7 +10885,7 @@
     </row>
     <row r="80" spans="1:17" s="31" customFormat="1" ht="22.5" hidden="1">
       <c r="A80" s="166" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B80" s="106"/>
       <c r="C80" s="106"/>
@@ -10886,16 +10894,16 @@
       </c>
       <c r="E80" s="274"/>
       <c r="F80" s="275" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G80" s="276" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H80" s="277" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I80" s="278" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J80" s="279"/>
       <c r="K80" s="279"/>
@@ -10908,7 +10916,7 @@
     </row>
     <row r="81" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A81" s="166" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B81" s="106"/>
       <c r="C81" s="294" t="s">
@@ -10921,7 +10929,7 @@
       <c r="F81" s="292"/>
       <c r="G81" s="293"/>
       <c r="H81" s="294" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I81" s="294" t="s">
         <v>62</v>
@@ -10937,7 +10945,7 @@
     </row>
     <row r="82" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A82" s="166" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B82" s="106"/>
       <c r="C82" s="142"/>
@@ -10950,7 +10958,7 @@
       <c r="F82" s="292"/>
       <c r="G82" s="293"/>
       <c r="H82" s="294" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I82" s="294" t="s">
         <v>62</v>
@@ -10966,18 +10974,18 @@
     </row>
     <row r="83" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A83" s="166" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B83" s="106"/>
       <c r="C83" s="142"/>
       <c r="D83" s="290"/>
       <c r="E83" s="375" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F83" s="292"/>
       <c r="G83" s="293"/>
       <c r="H83" s="294" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I83" s="294" t="s">
         <v>62</v>
@@ -10993,7 +11001,7 @@
     </row>
     <row r="84" spans="1:17" s="31" customFormat="1" ht="78" customHeight="1">
       <c r="A84" s="166" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B84" s="106"/>
       <c r="C84" s="142"/>
@@ -11004,7 +11012,7 @@
       <c r="F84" s="292"/>
       <c r="G84" s="293"/>
       <c r="H84" s="294" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I84" s="294" t="s">
         <v>62</v>
@@ -11020,7 +11028,7 @@
     </row>
     <row r="85" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A85" s="166" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B85" s="106"/>
       <c r="C85" s="142"/>
@@ -11031,7 +11039,7 @@
       <c r="F85" s="292"/>
       <c r="G85" s="293"/>
       <c r="H85" s="294" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I85" s="294" t="s">
         <v>62</v>
@@ -11047,7 +11055,7 @@
     </row>
     <row r="86" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A86" s="166" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B86" s="106"/>
       <c r="C86" s="142"/>
@@ -11058,7 +11066,7 @@
       <c r="F86" s="292"/>
       <c r="G86" s="293"/>
       <c r="H86" s="294" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I86" s="294" t="s">
         <v>62</v>
@@ -11074,22 +11082,22 @@
     </row>
     <row r="87" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A87" s="166" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B87" s="106"/>
       <c r="C87" s="106"/>
       <c r="D87" s="287" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E87" s="288"/>
       <c r="F87" s="281" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G87" s="282" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H87" s="278" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I87" s="278" t="s">
         <v>62</v>
@@ -11105,7 +11113,7 @@
     </row>
     <row r="88" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A88" s="166" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B88" s="106"/>
       <c r="C88" s="106"/>
@@ -11114,13 +11122,13 @@
       </c>
       <c r="E88" s="288"/>
       <c r="F88" s="281" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G88" s="282" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H88" s="278" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I88" s="278" t="s">
         <v>62</v>
@@ -11136,7 +11144,7 @@
     </row>
     <row r="89" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A89" s="166" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B89" s="106"/>
       <c r="C89" s="106"/>
@@ -11145,13 +11153,13 @@
       </c>
       <c r="E89" s="288"/>
       <c r="F89" s="281" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G89" s="282" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H89" s="278" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I89" s="278" t="s">
         <v>62</v>
@@ -11167,7 +11175,7 @@
     </row>
     <row r="90" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A90" s="166" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B90" s="106"/>
       <c r="C90" s="106"/>
@@ -11176,13 +11184,13 @@
       </c>
       <c r="E90" s="288"/>
       <c r="F90" s="281" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G90" s="282" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H90" s="278" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I90" s="278" t="s">
         <v>62</v>
@@ -11198,7 +11206,7 @@
     </row>
     <row r="91" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A91" s="166" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B91" s="106"/>
       <c r="C91" s="106"/>
@@ -11207,13 +11215,13 @@
       </c>
       <c r="E91" s="288"/>
       <c r="F91" s="281" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G91" s="282" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H91" s="278" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I91" s="278" t="s">
         <v>62</v>
@@ -11229,7 +11237,7 @@
     </row>
     <row r="92" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A92" s="166" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B92" s="106"/>
       <c r="C92" s="142"/>
@@ -11240,7 +11248,7 @@
       <c r="F92" s="292"/>
       <c r="G92" s="293"/>
       <c r="H92" s="294" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I92" s="294" t="s">
         <v>62</v>
@@ -11256,7 +11264,7 @@
     </row>
     <row r="93" spans="1:17" s="31" customFormat="1" ht="72.75" customHeight="1">
       <c r="A93" s="166" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B93" s="106"/>
       <c r="C93" s="142"/>
@@ -11267,7 +11275,7 @@
       <c r="F93" s="292"/>
       <c r="G93" s="293"/>
       <c r="H93" s="294" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I93" s="294" t="s">
         <v>62</v>
@@ -11283,7 +11291,7 @@
     </row>
     <row r="94" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A94" s="166" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B94" s="106"/>
       <c r="C94" s="142"/>
@@ -11294,7 +11302,7 @@
       <c r="F94" s="292"/>
       <c r="G94" s="293"/>
       <c r="H94" s="294" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I94" s="294" t="s">
         <v>62</v>
@@ -11310,7 +11318,7 @@
     </row>
     <row r="95" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A95" s="166" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B95" s="106"/>
       <c r="C95" s="142"/>
@@ -11321,7 +11329,7 @@
       <c r="F95" s="292"/>
       <c r="G95" s="293"/>
       <c r="H95" s="301" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I95" s="301" t="s">
         <v>62</v>
@@ -11337,7 +11345,7 @@
     </row>
     <row r="96" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A96" s="166" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B96" s="106"/>
       <c r="C96" s="142"/>
@@ -11348,7 +11356,7 @@
       <c r="F96" s="292"/>
       <c r="G96" s="293"/>
       <c r="H96" s="294" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I96" s="294" t="s">
         <v>62</v>
@@ -11364,7 +11372,7 @@
     </row>
     <row r="97" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A97" s="166" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B97" s="106"/>
       <c r="C97" s="106"/>
@@ -11373,13 +11381,13 @@
       </c>
       <c r="E97" s="288"/>
       <c r="F97" s="281" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G97" s="282" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H97" s="303" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I97" s="303" t="s">
         <v>62</v>
@@ -11395,18 +11403,18 @@
     </row>
     <row r="98" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A98" s="166" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B98" s="106"/>
       <c r="C98" s="142"/>
       <c r="D98" s="305" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E98" s="306"/>
       <c r="F98" s="307"/>
       <c r="G98" s="308"/>
       <c r="H98" s="270" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I98" s="270" t="s">
         <v>62</v>
@@ -11422,18 +11430,18 @@
     </row>
     <row r="99" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A99" s="166" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B99" s="106"/>
       <c r="C99" s="142"/>
       <c r="D99" s="305" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E99" s="306"/>
       <c r="F99" s="307"/>
       <c r="G99" s="308"/>
       <c r="H99" s="270" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I99" s="270" t="s">
         <v>62</v>
@@ -11449,7 +11457,7 @@
     </row>
     <row r="100" spans="1:17" s="31" customFormat="1" ht="45" customHeight="1">
       <c r="A100" s="314" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B100" s="106"/>
       <c r="C100" s="142"/>
@@ -11460,7 +11468,7 @@
       <c r="F100" s="307"/>
       <c r="G100" s="308"/>
       <c r="H100" s="317" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I100" s="317" t="s">
         <v>62</v>
@@ -11476,22 +11484,22 @@
     </row>
     <row r="101" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A101" s="324" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B101" s="106"/>
       <c r="C101" s="106"/>
       <c r="D101" s="325" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E101" s="326"/>
       <c r="F101" s="275" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G101" s="276" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H101" s="106" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I101" s="106" t="s">
         <v>62</v>
@@ -11507,7 +11515,7 @@
     </row>
     <row r="102" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A102" s="314" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B102" s="331"/>
       <c r="C102" s="331"/>
@@ -11516,16 +11524,16 @@
       </c>
       <c r="E102" s="333"/>
       <c r="F102" s="275" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G102" s="276" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H102" s="334" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I102" s="334" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J102" s="335"/>
       <c r="K102" s="335"/>
@@ -11747,7 +11755,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -11757,20 +11765,20 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="25" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="25" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="25" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>0</v>
@@ -11781,7 +11789,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>1</v>
@@ -11834,7 +11842,7 @@
         <v>3</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K10" s="30" t="s">
         <v>4</v>
@@ -11860,7 +11868,7 @@
         <v>89</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>341</v>
+        <v>156</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>90</v>
@@ -11870,23 +11878,23 @@
         <v>105</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J11" s="46"/>
       <c r="K11" s="32" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L11" s="89">
         <v>43737</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N11" s="47"/>
       <c r="O11" s="47"/>
@@ -12124,12 +12132,12 @@
     </row>
     <row r="21" spans="1:15" s="54" customFormat="1" ht="38.25" customHeight="1">
       <c r="A21" s="60" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
       <c r="D21" s="52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E21" s="55"/>
       <c r="F21" s="58" t="s">
@@ -12176,7 +12184,7 @@
     </row>
     <row r="23" spans="1:15" s="54" customFormat="1" ht="38.25" customHeight="1">
       <c r="A23" s="60" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B23" s="74"/>
       <c r="C23" s="74"/>
@@ -12201,10 +12209,10 @@
     </row>
     <row r="24" spans="1:15" s="54" customFormat="1" ht="38.25" customHeight="1">
       <c r="A24" s="60" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C24" s="64" t="s">
         <v>110</v>
@@ -12228,7 +12236,7 @@
     </row>
     <row r="25" spans="1:15" s="54" customFormat="1" ht="38.25" customHeight="1">
       <c r="A25" s="60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B25" s="68"/>
       <c r="C25" s="69" t="s">
